--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB837D-61D7-4171-9029-89FD97CB5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="1500" yWindow="1485" windowWidth="26055" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId3"/>
-    <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId4"/>
+    <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId1"/>
+    <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>提交时间（自动）</t>
   </si>
@@ -172,229 +176,138 @@
     <t>cacdbfed</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>2b937519</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>陆十柒（羽翼春秋）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>d0fdfab0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>秋落北</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>1749b33b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>诚</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>32c238bf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>初晨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>749499fb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>[$ǿĀD]1212121[$ǿĀD]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>cc54218b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>寓庸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>f738671.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>终若.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>7a92bcf8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>AY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>8943eb1a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>晅方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>67d90357</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>Hydro_Gen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>e42e7687</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>Sakiio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>e2877443</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>立东</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>74cc9a81</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>CyanCity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>67d0c2f4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>Over</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>64307a32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>一个人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>cacdbfed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>时·逝</t>
-    </r>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e2877443</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>Tonzy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b59b80f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="300" formatCode="yyyy/m/d h:mm:ss;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -419,39 +332,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" name="Office 主题​​" mc:Ignorable="thm15">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,7 +519,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -626,9 +543,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -652,7 +569,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -687,7 +604,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -705,7 +622,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -730,7 +647,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -739,411 +656,432 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45891.907488425903</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6">
-        <v>45891.9074884259</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" s="3">
+        <v>45891.932395833297</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6">
-        <v>45891.9323958333</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" s="3">
+        <v>45891.933043981502</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6">
-        <v>45891.9330439815</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" s="3">
+        <v>45892.0862962963</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6">
-        <v>45892.0862962963</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" s="3">
+        <v>45892.107534722199</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6">
-        <v>45892.1075347222</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" s="3">
+        <v>45892.400567129604</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6">
-        <v>45892.4005671296</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" s="3">
+        <v>45892.464525463001</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6">
-        <v>45892.464525463</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" s="3">
+        <v>45892.860416666699</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6">
-        <v>45892.8604166667</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" s="3">
+        <v>45892.988101851901</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6">
-        <v>45892.9881018519</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" s="3">
+        <v>45893.420810185198</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6">
-        <v>45893.4208101852</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" s="3">
+        <v>45894.766805555599</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6">
-        <v>45894.7668055556</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B13" s="3">
+        <v>45894.77</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6">
-        <v>45894.77</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" s="3">
+        <v>45895.061631944503</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6">
-        <v>45895.0616319445</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B15" s="3">
+        <v>45895.202696759297</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6">
-        <v>45895.2026967593</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B16" s="3">
+        <v>45895.500983796301</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="6">
-        <v>45895.5009837963</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" s="3">
+        <v>45895.9758449074</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="6">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3">
         <v>45895.9758449074</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
+      <c r="C18" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="false"/>
+    <col min="1" max="3" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="false">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="39" customHeight="false">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="39" customHeight="false">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="39" customHeight="false">
-      <c r="A4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="39" customHeight="false">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="39" customHeight="false">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" customHeight="false">
-      <c r="A7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" customHeight="false">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="39" customHeight="false">
-      <c r="A9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="39" customHeight="false">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="39" customHeight="false">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="39" customHeight="false">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="39" customHeight="false">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="39" customHeight="false">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="39" customHeight="false">
-      <c r="A15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="39" customHeight="false">
-      <c r="A16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="39" customHeight="false">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB837D-61D7-4171-9029-89FD97CB5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1485" windowWidth="26055" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId1"/>
-    <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId2"/>
+    <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId3"/>
+    <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>提交者（自动）</t>
+  </si>
   <si>
     <t>提交时间（自动）</t>
   </si>
@@ -29,9 +28,6 @@
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -176,138 +172,235 @@
     <t>cacdbfed</t>
   </si>
   <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e2877443</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>Tonzy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2b59b80f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>2b937519</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>陆十柒（羽翼春秋）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>d0fdfab0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>秋落北</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>1749b33b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>诚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>32c238bf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>初晨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>749499fb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>[$ǿĀD]1212121[$ǿĀD]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>cc54218b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>寓庸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>f738671.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>终若.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>7a92bcf8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>AY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>8943eb1a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>晅方</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>67d90357</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Hydro_Gen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>e42e7687</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Sakiio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>e2877443</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>立东</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>74cc9a81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>CyanCity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>67d0c2f4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Over</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>64307a32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>一个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>cacdbfed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>时·逝</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="300" formatCode="yyyy/m/d h:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color rgb="FF175CEB"/>
+      <sz val="10"/>
+      <u/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <name val="Segoe UI Symbol"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -332,43 +425,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" name="Office 主题​​" mc:Ignorable="thm15">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,7 +608,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -543,9 +632,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -569,7 +658,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -604,7 +693,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -622,7 +711,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -647,7 +736,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -656,432 +745,422 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45891.907488425903</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45891.932395833297</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45891.933043981502</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45892.107534722199</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45892.400567129604</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45892.464525463001</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45892.860416666699</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45892.988101851901</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45893.420810185198</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45894.766805555599</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6">
         <v>45894.77</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45895.061631944503</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45895.202696759297</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45895.500983796301</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45895.9758449074</v>
+        <v>52</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="B1" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20"/>
+    <col min="1" max="3" width="20" customWidth="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t/>
   </si>
@@ -28,6 +28,120 @@
     <t>此处填写（必填）</t>
   </si>
   <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>e2877443</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>aac17619</t>
+  </si>
+  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -74,108 +188,6 @@
   </si>
   <si>
     <t>2025年8月26日 23:25</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>e2877443</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
   </si>
   <si>
     <r>
@@ -443,13 +455,13 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,207 +766,229 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="C18"/>
+  <dimension ref="C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="6">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="6">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="6">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
         <v>45894.77</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="6">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="6">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="6">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45896.5941203704</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45896.8489236111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -987,178 +1021,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t/>
   </si>
@@ -140,6 +140,30 @@
   </si>
   <si>
     <t>aac17619</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
   </si>
   <si>
     <t>2025年8月22日 21:46</t>
@@ -766,7 +790,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="C20"/>
+  <dimension ref="C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -989,6 +1013,50 @@
       </c>
       <c r="C20" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45897.007962963</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45897.4482060185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45897.7506134259</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45897.9142013889</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1021,178 +1089,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,18 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
-  </si>
-  <si>
-    <t>此处填写（必填）</t>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
   </si>
   <si>
     <t>陆十柒（羽翼春秋）</t>
@@ -139,9 +193,6 @@
     <t>1874</t>
   </si>
   <si>
-    <t>aac17619</t>
-  </si>
-  <si>
     <t>知道分子.</t>
   </si>
   <si>
@@ -166,52 +217,28 @@
     <t>590320c9</t>
   </si>
   <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>c7d4d17b</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
   </si>
   <si>
     <r>
@@ -413,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="300" formatCode="yyyy/m/d h:mm:ss;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -437,8 +464,11 @@
       <sz val="10"/>
     </font>
     <font/>
+    <font>
+      <strike val="true"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +479,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC003"/>
         <bgColor rgb="FFFFC003"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
   </fills>
@@ -466,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,13 +515,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,273 +832,313 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="C24"/>
+  <dimension ref="D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6">
         <v>45894.77</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45897.9370717593</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45899.356400463</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45899.747337963</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1078,189 +1160,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>93</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>95</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -19,15 +19,180 @@
     <t/>
   </si>
   <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>c7d4d17b</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -74,171 +239,6 @@
   </si>
   <si>
     <t>2025年8月26日 23:25</t>
-  </si>
-  <si>
-    <t>序列号（必填）</t>
-  </si>
-  <si>
-    <t>QQ号（必填）</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>e2877443</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>c7d4d17b</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
   </si>
   <si>
     <r>
@@ -463,10 +463,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
       <strike val="true"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -515,19 +515,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf fontId="3" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,307 +838,310 @@
   </sheetViews>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>45894.77</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="7" t="s"/>
+      <c r="C20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="6">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5">
         <v>45897.9370717593</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6">
+        <v>52</v>
+      </c>
+      <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="6">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1160,188 +1163,188 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>106</v>
       </c>
     </row>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t/>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
@@ -832,7 +841,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D27"/>
+  <dimension ref="D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1142,6 +1151,20 @@
       </c>
       <c r="D27" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45902.3671412037</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1174,178 +1197,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,15 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
   </si>
   <si>
     <t>序列号（必填）</t>
@@ -199,55 +250,58 @@
     <t>820078578</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
   </si>
   <si>
     <r>
@@ -472,10 +526,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -524,19 +578,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,330 +895,414 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D28"/>
+  <dimension ref="D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="5">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6">
         <v>45897.9370717593</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="5">
+        <v>72</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="5">
+        <v>75</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45903.3009259259</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45903.7280555556</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45903.8242592593</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45904.3019791667</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45904.5552430556</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45905.6912037037</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1186,189 +1324,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>87</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>103</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>109</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t/>
   </si>
@@ -302,6 +302,24 @@
   </si>
   <si>
     <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
   </si>
   <si>
     <r>
@@ -895,7 +913,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D34"/>
+  <dimension ref="D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1303,6 +1321,34 @@
       </c>
       <c r="D34" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45909.007025463</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45909.3519560185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1384,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -1349,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -1360,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -1371,10 +1417,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -1382,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -1393,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -1404,10 +1450,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -1415,10 +1461,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -1426,10 +1472,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -1437,10 +1483,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -1448,10 +1494,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -1459,10 +1505,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -1470,10 +1516,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -1481,10 +1527,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -1492,10 +1538,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -1503,10 +1549,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -320,6 +320,33 @@
   </si>
   <si>
     <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
   </si>
   <si>
     <r>
@@ -913,17 +940,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D36"/>
+  <dimension ref="D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="19.0117" customWidth="true"/>
+    <col min="2" max="2" width="20.5039" customWidth="true"/>
+    <col min="3" max="3" width="24.6836" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>20</v>
@@ -1349,6 +1381,48 @@
       </c>
       <c r="D36" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45912.0475925926</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45912.551712963</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45912.7148611111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1370,13 +1444,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
@@ -1384,10 +1458,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -1395,10 +1469,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -1406,10 +1480,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -1417,10 +1491,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -1428,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -1439,10 +1513,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -1450,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -1461,10 +1535,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -1472,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -1483,10 +1557,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -1494,10 +1568,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -1505,10 +1579,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -1516,10 +1590,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -1527,10 +1601,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -1538,10 +1612,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -1549,10 +1623,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t/>
   </si>
@@ -25,6 +25,297 @@
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>c7d4d17b</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
+  </si>
+  <si>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
+  </si>
+  <si>
+    <t>不问世事五千载</t>
+  </si>
+  <si>
+    <t>e547507a</t>
+  </si>
+  <si>
+    <t>158216094</t>
+  </si>
+  <si>
+    <t>在梦里见过你</t>
+  </si>
+  <si>
+    <t>dbbe0b14</t>
+  </si>
+  <si>
+    <t>2937797530</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -74,279 +365,6 @@
   </si>
   <si>
     <t>2025年8月26日 23:25</t>
-  </si>
-  <si>
-    <t>序列号（必填）</t>
-  </si>
-  <si>
-    <t>QQ号（必填）</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>已删除</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>c7d4d17b</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
-  </si>
-  <si>
-    <t>二十一</t>
-  </si>
-  <si>
-    <t>e964b1e9</t>
-  </si>
-  <si>
-    <t>820078578</t>
-  </si>
-  <si>
-    <t>帝国守护之守望苍穹</t>
-  </si>
-  <si>
-    <t>3302034a</t>
-  </si>
-  <si>
-    <t>907566442</t>
-  </si>
-  <si>
-    <t>无奈</t>
-  </si>
-  <si>
-    <t>9b41a46b</t>
-  </si>
-  <si>
-    <t>487996763</t>
-  </si>
-  <si>
-    <t>哦</t>
-  </si>
-  <si>
-    <t>fee46bac</t>
-  </si>
-  <si>
-    <t>1730863123</t>
-  </si>
-  <si>
-    <t>落叶</t>
-  </si>
-  <si>
-    <t>6c3bcd6f</t>
-  </si>
-  <si>
-    <t>3382881855</t>
-  </si>
-  <si>
-    <t>我是mc</t>
-  </si>
-  <si>
-    <t>46e4be66</t>
-  </si>
-  <si>
-    <t>2721614772</t>
-  </si>
-  <si>
-    <t>无执T̶o̶n̶z̶y̶</t>
-  </si>
-  <si>
-    <t>72880a09</t>
-  </si>
-  <si>
-    <t>3521425739</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>fd81cb3d</t>
-  </si>
-  <si>
-    <t>908289638</t>
-  </si>
-  <si>
-    <t>YL.</t>
-  </si>
-  <si>
-    <t>a4c3e725</t>
-  </si>
-  <si>
-    <t>918357021</t>
-  </si>
-  <si>
-    <t>Tears.</t>
-  </si>
-  <si>
-    <t>1b30a393</t>
-  </si>
-  <si>
-    <t>3214774599</t>
-  </si>
-  <si>
-    <t>衔花送月到渡口</t>
-  </si>
-  <si>
-    <t>ff109235</t>
-  </si>
-  <si>
-    <t>2283538335</t>
-  </si>
-  <si>
-    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
-  </si>
-  <si>
-    <t>64a075c9</t>
-  </si>
-  <si>
-    <t>1876568293</t>
   </si>
   <si>
     <r>
@@ -571,10 +589,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
       <strike val="true"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -623,19 +641,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf fontId="3" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,7 +958,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D39"/>
+  <dimension ref="D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -951,478 +969,506 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="7" t="s"/>
+      <c r="C20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="6">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5">
         <v>45897.9370717593</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6">
+        <v>52</v>
+      </c>
+      <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="6">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="6">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="6">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="6">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="6">
+        <v>67</v>
+      </c>
+      <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="6">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="6">
+        <v>73</v>
+      </c>
+      <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="6">
+        <v>76</v>
+      </c>
+      <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="6">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="6">
+        <v>82</v>
+      </c>
+      <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="6">
+        <v>85</v>
+      </c>
+      <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="6">
+        <v>88</v>
+      </c>
+      <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="6">
+        <v>91</v>
+      </c>
+      <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45913.5921064815</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="5">
+        <v>45914.7687037037</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1455,178 +1501,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>138</v>
+        <v>114</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>142</v>
+        <v>116</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t/>
   </si>
@@ -314,6 +314,24 @@
   </si>
   <si>
     <t>2937797530</t>
+  </si>
+  <si>
+    <t>Satellite.</t>
+  </si>
+  <si>
+    <t>e272cd49</t>
+  </si>
+  <si>
+    <t>1125931910</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>8c09b4b0</t>
+  </si>
+  <si>
+    <t>2014017597</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
@@ -958,7 +976,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D41"/>
+  <dimension ref="D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1469,6 +1487,34 @@
       </c>
       <c r="D41" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="5">
+        <v>45915.9581712963</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45916.0037152778</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1501,178 +1547,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,17 +14,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t/>
   </si>
   <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
     <t>序列号（必填）</t>
   </si>
   <si>
@@ -334,55 +385,31 @@
     <t>2014017597</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9bd2e82f</t>
+  </si>
+  <si>
+    <t>169611364</t>
+  </si>
+  <si>
+    <t>一條鹹鱼🐟君</t>
+  </si>
+  <si>
+    <t>c0711cf4</t>
+  </si>
+  <si>
+    <t>750323931</t>
+  </si>
+  <si>
+    <t>卡米诺斯</t>
+  </si>
+  <si>
+    <t>2b6873d7</t>
+  </si>
+  <si>
+    <t>509958501</t>
   </si>
   <si>
     <r>
@@ -607,10 +634,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -659,19 +686,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +1003,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D43"/>
+  <dimension ref="D46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -987,534 +1014,576 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="5">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6">
         <v>45897.9370717593</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="5">
+        <v>72</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="5">
+        <v>75</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="5">
+        <v>78</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="5">
+        <v>81</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="5">
+        <v>84</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="5">
+        <v>87</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="5">
+        <v>90</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="5">
+        <v>93</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="5">
+        <v>96</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="5">
+        <v>99</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="5">
+        <v>102</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="5">
+        <v>105</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="5">
+        <v>108</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="5">
+        <v>111</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="5">
+        <v>114</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="5">
+        <v>117</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="5">
+        <v>120</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45917.0514236111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45918.5747569445</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45918.7200925926</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1536,189 +1605,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>126</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>128</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>130</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>138</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>140</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>142</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>144</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>146</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>148</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>154</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -410,6 +410,42 @@
   </si>
   <si>
     <t>509958501</t>
+  </si>
+  <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
   </si>
   <si>
     <r>
@@ -1003,7 +1039,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D46"/>
+  <dimension ref="D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,10 +1051,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>20</v>
@@ -1584,6 +1620,62 @@
       </c>
       <c r="D46" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45919.3754050926</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45919.7420833333</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45919.7523495371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45920.4485763889</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1605,13 +1697,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
@@ -1619,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -1630,10 +1722,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -1641,10 +1733,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -1652,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -1663,10 +1755,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -1674,10 +1766,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -1685,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -1696,10 +1788,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -1707,10 +1799,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -1718,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -1729,10 +1821,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -1740,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -1751,10 +1843,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -1762,10 +1854,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -1773,10 +1865,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -1784,10 +1876,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t/>
   </si>
   <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
   </si>
   <si>
     <r>
@@ -1039,7 +1048,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D50"/>
+  <dimension ref="D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,10 +1060,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>20</v>
@@ -1676,6 +1685,20 @@
       </c>
       <c r="D50" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45921.188587963</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1697,13 +1720,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
@@ -1711,10 +1734,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -1722,10 +1745,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -1733,10 +1756,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -1744,10 +1767,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -1755,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -1766,10 +1789,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -1777,10 +1800,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -1788,10 +1811,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -1799,10 +1822,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -1810,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -1821,10 +1844,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -1832,10 +1855,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -1843,10 +1866,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -1854,10 +1877,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -1865,10 +1888,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -1876,10 +1899,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -455,6 +455,24 @@
   </si>
   <si>
     <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t>2a14ed98</t>
+  </si>
+  <si>
+    <t>3534569125</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
   </si>
   <si>
     <r>
@@ -1048,7 +1066,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D51"/>
+  <dimension ref="D53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1060,10 +1078,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>20</v>
@@ -1699,6 +1717,34 @@
       </c>
       <c r="D51" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45923.5852662037</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45923.7846296296</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1720,13 +1766,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
@@ -1734,10 +1780,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -1745,10 +1791,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -1756,10 +1802,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -1767,10 +1813,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -1778,10 +1824,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -1789,10 +1835,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -1800,10 +1846,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -1811,10 +1857,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -1822,10 +1868,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -1833,10 +1879,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -1844,10 +1890,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -1855,10 +1901,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -1866,10 +1912,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -1877,10 +1923,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -1888,10 +1934,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -1899,10 +1945,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,416 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
+  </si>
+  <si>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
+  </si>
+  <si>
+    <t>不问世事五千载</t>
+  </si>
+  <si>
+    <t>e547507a</t>
+  </si>
+  <si>
+    <t>158216094</t>
+  </si>
+  <si>
+    <t>在梦里见过你</t>
+  </si>
+  <si>
+    <t>dbbe0b14</t>
+  </si>
+  <si>
+    <t>2937797530</t>
+  </si>
+  <si>
+    <t>Satellite.</t>
+  </si>
+  <si>
+    <t>e272cd49</t>
+  </si>
+  <si>
+    <t>1125931910</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>8c09b4b0</t>
+  </si>
+  <si>
+    <t>2014017597</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9bd2e82f</t>
+  </si>
+  <si>
+    <t>169611364</t>
+  </si>
+  <si>
+    <t>一條鹹鱼🐟君</t>
+  </si>
+  <si>
+    <t>c0711cf4</t>
+  </si>
+  <si>
+    <t>750323931</t>
+  </si>
+  <si>
+    <t>卡米诺斯</t>
+  </si>
+  <si>
+    <t>2b6873d7</t>
+  </si>
+  <si>
+    <t>509958501</t>
+  </si>
+  <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t>2a14ed98</t>
+  </si>
+  <si>
+    <t>3534569125</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -76,405 +472,6 @@
     <t>2025年8月26日 23:25</t>
   </si>
   <si>
-    <t>序列号（必填）</t>
-  </si>
-  <si>
-    <t>QQ号（必填）</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>已删除</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>c7d4d17b</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
-  </si>
-  <si>
-    <t>二十一</t>
-  </si>
-  <si>
-    <t>e964b1e9</t>
-  </si>
-  <si>
-    <t>820078578</t>
-  </si>
-  <si>
-    <t>帝国守护之守望苍穹</t>
-  </si>
-  <si>
-    <t>3302034a</t>
-  </si>
-  <si>
-    <t>907566442</t>
-  </si>
-  <si>
-    <t>无奈</t>
-  </si>
-  <si>
-    <t>9b41a46b</t>
-  </si>
-  <si>
-    <t>487996763</t>
-  </si>
-  <si>
-    <t>哦</t>
-  </si>
-  <si>
-    <t>fee46bac</t>
-  </si>
-  <si>
-    <t>1730863123</t>
-  </si>
-  <si>
-    <t>落叶</t>
-  </si>
-  <si>
-    <t>6c3bcd6f</t>
-  </si>
-  <si>
-    <t>3382881855</t>
-  </si>
-  <si>
-    <t>我是mc</t>
-  </si>
-  <si>
-    <t>46e4be66</t>
-  </si>
-  <si>
-    <t>2721614772</t>
-  </si>
-  <si>
-    <t>无执T̶o̶n̶z̶y̶</t>
-  </si>
-  <si>
-    <t>72880a09</t>
-  </si>
-  <si>
-    <t>3521425739</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>fd81cb3d</t>
-  </si>
-  <si>
-    <t>908289638</t>
-  </si>
-  <si>
-    <t>YL.</t>
-  </si>
-  <si>
-    <t>a4c3e725</t>
-  </si>
-  <si>
-    <t>918357021</t>
-  </si>
-  <si>
-    <t>Tears.</t>
-  </si>
-  <si>
-    <t>1b30a393</t>
-  </si>
-  <si>
-    <t>3214774599</t>
-  </si>
-  <si>
-    <t>衔花送月到渡口</t>
-  </si>
-  <si>
-    <t>ff109235</t>
-  </si>
-  <si>
-    <t>2283538335</t>
-  </si>
-  <si>
-    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
-  </si>
-  <si>
-    <t>64a075c9</t>
-  </si>
-  <si>
-    <t>1876568293</t>
-  </si>
-  <si>
-    <t>不问世事五千载</t>
-  </si>
-  <si>
-    <t>e547507a</t>
-  </si>
-  <si>
-    <t>158216094</t>
-  </si>
-  <si>
-    <t>在梦里见过你</t>
-  </si>
-  <si>
-    <t>dbbe0b14</t>
-  </si>
-  <si>
-    <t>2937797530</t>
-  </si>
-  <si>
-    <t>Satellite.</t>
-  </si>
-  <si>
-    <t>e272cd49</t>
-  </si>
-  <si>
-    <t>1125931910</t>
-  </si>
-  <si>
-    <t>pots</t>
-  </si>
-  <si>
-    <t>8c09b4b0</t>
-  </si>
-  <si>
-    <t>2014017597</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9bd2e82f</t>
-  </si>
-  <si>
-    <t>169611364</t>
-  </si>
-  <si>
-    <t>一條鹹鱼🐟君</t>
-  </si>
-  <si>
-    <t>c0711cf4</t>
-  </si>
-  <si>
-    <t>750323931</t>
-  </si>
-  <si>
-    <t>卡米诺斯</t>
-  </si>
-  <si>
-    <t>2b6873d7</t>
-  </si>
-  <si>
-    <t>509958501</t>
-  </si>
-  <si>
-    <t>槿桥</t>
-  </si>
-  <si>
-    <t>551e9bbd</t>
-  </si>
-  <si>
-    <t>929535772</t>
-  </si>
-  <si>
-    <t>狐兰朵露</t>
-  </si>
-  <si>
-    <t>e912c56.</t>
-  </si>
-  <si>
-    <t>2242977200</t>
-  </si>
-  <si>
-    <t>a'ゞ苏苏</t>
-  </si>
-  <si>
-    <t>51a71d6b</t>
-  </si>
-  <si>
-    <t>1084629163</t>
-  </si>
-  <si>
-    <t>一切皆有可能</t>
-  </si>
-  <si>
-    <t>3b7dfb5c</t>
-  </si>
-  <si>
-    <t>1312087292</t>
-  </si>
-  <si>
-    <t>彼世节拍</t>
-  </si>
-  <si>
-    <t>fdef3cc8</t>
-  </si>
-  <si>
-    <t>1762488480</t>
-  </si>
-  <si>
-    <t>嘻嘻嘻</t>
-  </si>
-  <si>
-    <t>2a14ed98</t>
-  </si>
-  <si>
-    <t>3534569125</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>4b24a6b7</t>
-  </si>
-  <si>
-    <t>2751393486</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -645,13 +642,13 @@
   <si>
     <r>
       <rPr/>
+      <t>一个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>64307a32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>一个人</t>
     </r>
   </si>
   <si>
@@ -697,10 +694,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
       <strike val="true"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -749,19 +746,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf fontId="3" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,674 +1074,677 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="7" t="s"/>
+      <c r="C20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" t="s">
-        <v>68</v>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="6">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="6">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="6">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="6">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="6">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="6">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="6">
+        <v>72</v>
+      </c>
+      <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="6">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="6">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="6">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="6">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="6">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="6">
+        <v>90</v>
+      </c>
+      <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="6">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="6">
+        <v>96</v>
+      </c>
+      <c r="B41" s="5">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="6">
+        <v>99</v>
+      </c>
+      <c r="B42" s="5">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="6">
+        <v>102</v>
+      </c>
+      <c r="B43" s="5">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="6">
+        <v>105</v>
+      </c>
+      <c r="B44" s="5">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="6">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="6">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5">
         <v>45918.7200925926</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="6">
+        <v>114</v>
+      </c>
+      <c r="B47" s="5">
         <v>45919.3754050926</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="6">
+        <v>117</v>
+      </c>
+      <c r="B48" s="5">
         <v>45919.7420833333</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="6">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5">
         <v>45919.7523495371</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="6">
+        <v>123</v>
+      </c>
+      <c r="B50" s="5">
         <v>45920.4485763889</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="6">
+        <v>126</v>
+      </c>
+      <c r="B51" s="5">
         <v>45921.188587963</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="6">
+        <v>129</v>
+      </c>
+      <c r="B52" s="5">
         <v>45923.5852662037</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="6">
+        <v>132</v>
+      </c>
+      <c r="B53" s="5">
         <v>45923.7846296296</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1766,189 +1766,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>182</v>
+      <c r="C16" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t/>
   </si>
@@ -421,6 +421,15 @@
     <t>2751393486</t>
   </si>
   <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>eb0f7284</t>
+  </si>
+  <si>
+    <t>781456741</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -510,18 +519,18 @@
   <si>
     <r>
       <rPr/>
+      <t>初晨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>32c238bf</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>初晨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>749499fb</t>
     </r>
   </si>
@@ -618,18 +627,18 @@
   <si>
     <r>
       <rPr/>
+      <t>CyanCity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>74cc9a81</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>CyanCity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>67d0c2f4</t>
     </r>
   </si>
@@ -642,13 +651,13 @@
   <si>
     <r>
       <rPr/>
+      <t>64307a32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>一个人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>64307a32</t>
     </r>
   </si>
   <si>
@@ -1063,7 +1072,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D53"/>
+  <dimension ref="D55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1745,6 +1754,34 @@
       </c>
       <c r="D53" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="7">
+        <v>45929.8563310185</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45929.9812037037</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1777,178 +1814,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t/>
   </si>
@@ -430,6 +430,33 @@
     <t>781456741</t>
   </si>
   <si>
+    <t>文昊</t>
+  </si>
+  <si>
+    <t>883c8e20</t>
+  </si>
+  <si>
+    <t>1243776890</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>6cffec45</t>
+  </si>
+  <si>
+    <t>1007021745</t>
+  </si>
+  <si>
+    <t>Non-numb</t>
+  </si>
+  <si>
+    <t>f8241963</t>
+  </si>
+  <si>
+    <t>1183413694</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -519,18 +546,18 @@
   <si>
     <r>
       <rPr/>
+      <t>32c238bf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>初晨</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>32c238bf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>749499fb</t>
     </r>
   </si>
@@ -579,18 +606,18 @@
   <si>
     <r>
       <rPr/>
+      <t>晅方</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>8943eb1a</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>晅方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>67d90357</t>
     </r>
   </si>
@@ -627,13 +654,13 @@
   <si>
     <r>
       <rPr/>
+      <t>74cc9a81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>CyanCity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>74cc9a81</t>
     </r>
   </si>
   <si>
@@ -1072,7 +1099,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D55"/>
+  <dimension ref="D58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1782,6 +1809,48 @@
       </c>
       <c r="D55" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45931.129525463</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45931.5039236111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45931.6418634259</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1814,178 +1883,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,15 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
   </si>
   <si>
     <t>序列号（必填）</t>
@@ -406,12 +457,6 @@
     <t>嘻嘻嘻</t>
   </si>
   <si>
-    <t>2a14ed98</t>
-  </si>
-  <si>
-    <t>3534569125</t>
-  </si>
-  <si>
     <t> </t>
   </si>
   <si>
@@ -457,55 +502,49 @@
     <t>1183413694</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>霰雪的天空</t>
+  </si>
+  <si>
+    <t>f3867948</t>
+  </si>
+  <si>
+    <t>395432402</t>
+  </si>
+  <si>
+    <t>WindGods</t>
+  </si>
+  <si>
+    <t>769cacfe</t>
+  </si>
+  <si>
+    <t>3501494634</t>
+  </si>
+  <si>
+    <t>天亮记得关灯</t>
+  </si>
+  <si>
+    <t>b97d7a30</t>
+  </si>
+  <si>
+    <t>1240538886</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6c198517</t>
+  </si>
+  <si>
+    <t>3291867868</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>a8cec24c</t>
+  </si>
+  <si>
+    <t>721844021</t>
   </si>
   <si>
     <r>
@@ -570,18 +609,18 @@
   <si>
     <r>
       <rPr/>
+      <t>寓庸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>cc54218b</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>寓庸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
@@ -606,13 +645,13 @@
   <si>
     <r>
       <rPr/>
+      <t>8943eb1a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>晅方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>8943eb1a</t>
     </r>
   </si>
   <si>
@@ -730,10 +769,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -782,19 +821,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,7 +1138,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D58"/>
+  <dimension ref="D63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,747 +1149,817 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5">
+        <v>68</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="5">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="5">
+        <v>74</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5">
+        <v>77</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="5">
+        <v>83</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="5">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="5">
+        <v>89</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="5">
+        <v>92</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="5">
+        <v>95</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="5">
+        <v>98</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="5">
+        <v>101</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="5">
+        <v>104</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5">
+        <v>107</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="5">
+        <v>110</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="5">
+        <v>113</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="5">
+        <v>116</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="5">
+        <v>119</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="5">
+        <v>122</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="5">
+        <v>125</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="5">
+        <v>128</v>
+      </c>
+      <c r="B46" s="6">
         <v>45918.7200925926</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="5">
+        <v>131</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="5">
+        <v>134</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="5">
+        <v>137</v>
+      </c>
+      <c r="B49" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="5">
+        <v>140</v>
+      </c>
+      <c r="B50" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="5">
+        <v>143</v>
+      </c>
+      <c r="B51" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="5">
+      <c r="A52" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" t="s">
-        <v>131</v>
+      <c r="C52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="5">
+        <v>147</v>
+      </c>
+      <c r="B53" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="7">
+      <c r="A54" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>28</v>
+      <c r="C54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="5">
+        <v>150</v>
+      </c>
+      <c r="B55" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="5">
+        <v>153</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="5">
+        <v>156</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="5">
+        <v>159</v>
+      </c>
+      <c r="B58" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="6">
+        <v>45934.4792592593</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="6">
+        <v>45934.9315972222</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="6">
+        <v>45938.4237037037</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45938.5117361111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45942.5586689815</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1872,189 +1981,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>165</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>167</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>171</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>173</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>175</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>179</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>183</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>185</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>187</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>189</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>193</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>195</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,503 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
+  </si>
+  <si>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
+  </si>
+  <si>
+    <t>不问世事五千载</t>
+  </si>
+  <si>
+    <t>e547507a</t>
+  </si>
+  <si>
+    <t>158216094</t>
+  </si>
+  <si>
+    <t>在梦里见过你</t>
+  </si>
+  <si>
+    <t>dbbe0b14</t>
+  </si>
+  <si>
+    <t>2937797530</t>
+  </si>
+  <si>
+    <t>Satellite.</t>
+  </si>
+  <si>
+    <t>e272cd49</t>
+  </si>
+  <si>
+    <t>1125931910</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>8c09b4b0</t>
+  </si>
+  <si>
+    <t>2014017597</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9bd2e82f</t>
+  </si>
+  <si>
+    <t>169611364</t>
+  </si>
+  <si>
+    <t>一條鹹鱼🐟君</t>
+  </si>
+  <si>
+    <t>c0711cf4</t>
+  </si>
+  <si>
+    <t>750323931</t>
+  </si>
+  <si>
+    <t>卡米诺斯</t>
+  </si>
+  <si>
+    <t>2b6873d7</t>
+  </si>
+  <si>
+    <t>509958501</t>
+  </si>
+  <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
+  </si>
+  <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>eb0f7284</t>
+  </si>
+  <si>
+    <t>781456741</t>
+  </si>
+  <si>
+    <t>文昊</t>
+  </si>
+  <si>
+    <t>883c8e20</t>
+  </si>
+  <si>
+    <t>1243776890</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>6cffec45</t>
+  </si>
+  <si>
+    <t>1007021745</t>
+  </si>
+  <si>
+    <t>Non-numb</t>
+  </si>
+  <si>
+    <t>f8241963</t>
+  </si>
+  <si>
+    <t>1183413694</t>
+  </si>
+  <si>
+    <t>霰雪的天空</t>
+  </si>
+  <si>
+    <t>f3867948</t>
+  </si>
+  <si>
+    <t>395432402</t>
+  </si>
+  <si>
+    <t>WindGods</t>
+  </si>
+  <si>
+    <t>769cacfe</t>
+  </si>
+  <si>
+    <t>3501494634</t>
+  </si>
+  <si>
+    <t>天亮记得关灯</t>
+  </si>
+  <si>
+    <t>b97d7a30</t>
+  </si>
+  <si>
+    <t>1240538886</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6c198517</t>
+  </si>
+  <si>
+    <t>3291867868</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>a8cec24c</t>
+  </si>
+  <si>
+    <t>721844021</t>
+  </si>
+  <si>
+    <t>6d512350</t>
+  </si>
+  <si>
+    <t>情殇</t>
+  </si>
+  <si>
+    <t>cc8b8e9b</t>
+  </si>
+  <si>
+    <t>481613668</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -76,477 +559,6 @@
     <t>2025年8月26日 23:25</t>
   </si>
   <si>
-    <t>序列号（必填）</t>
-  </si>
-  <si>
-    <t>QQ号（必填）</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>已删除</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
-  </si>
-  <si>
-    <t>二十一</t>
-  </si>
-  <si>
-    <t>e964b1e9</t>
-  </si>
-  <si>
-    <t>820078578</t>
-  </si>
-  <si>
-    <t>帝国守护之守望苍穹</t>
-  </si>
-  <si>
-    <t>3302034a</t>
-  </si>
-  <si>
-    <t>907566442</t>
-  </si>
-  <si>
-    <t>无奈</t>
-  </si>
-  <si>
-    <t>9b41a46b</t>
-  </si>
-  <si>
-    <t>487996763</t>
-  </si>
-  <si>
-    <t>哦</t>
-  </si>
-  <si>
-    <t>fee46bac</t>
-  </si>
-  <si>
-    <t>1730863123</t>
-  </si>
-  <si>
-    <t>落叶</t>
-  </si>
-  <si>
-    <t>6c3bcd6f</t>
-  </si>
-  <si>
-    <t>3382881855</t>
-  </si>
-  <si>
-    <t>我是mc</t>
-  </si>
-  <si>
-    <t>46e4be66</t>
-  </si>
-  <si>
-    <t>2721614772</t>
-  </si>
-  <si>
-    <t>无执T̶o̶n̶z̶y̶</t>
-  </si>
-  <si>
-    <t>72880a09</t>
-  </si>
-  <si>
-    <t>3521425739</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>fd81cb3d</t>
-  </si>
-  <si>
-    <t>908289638</t>
-  </si>
-  <si>
-    <t>YL.</t>
-  </si>
-  <si>
-    <t>a4c3e725</t>
-  </si>
-  <si>
-    <t>918357021</t>
-  </si>
-  <si>
-    <t>Tears.</t>
-  </si>
-  <si>
-    <t>1b30a393</t>
-  </si>
-  <si>
-    <t>3214774599</t>
-  </si>
-  <si>
-    <t>衔花送月到渡口</t>
-  </si>
-  <si>
-    <t>ff109235</t>
-  </si>
-  <si>
-    <t>2283538335</t>
-  </si>
-  <si>
-    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
-  </si>
-  <si>
-    <t>64a075c9</t>
-  </si>
-  <si>
-    <t>1876568293</t>
-  </si>
-  <si>
-    <t>不问世事五千载</t>
-  </si>
-  <si>
-    <t>e547507a</t>
-  </si>
-  <si>
-    <t>158216094</t>
-  </si>
-  <si>
-    <t>在梦里见过你</t>
-  </si>
-  <si>
-    <t>dbbe0b14</t>
-  </si>
-  <si>
-    <t>2937797530</t>
-  </si>
-  <si>
-    <t>Satellite.</t>
-  </si>
-  <si>
-    <t>e272cd49</t>
-  </si>
-  <si>
-    <t>1125931910</t>
-  </si>
-  <si>
-    <t>pots</t>
-  </si>
-  <si>
-    <t>8c09b4b0</t>
-  </si>
-  <si>
-    <t>2014017597</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9bd2e82f</t>
-  </si>
-  <si>
-    <t>169611364</t>
-  </si>
-  <si>
-    <t>一條鹹鱼🐟君</t>
-  </si>
-  <si>
-    <t>c0711cf4</t>
-  </si>
-  <si>
-    <t>750323931</t>
-  </si>
-  <si>
-    <t>卡米诺斯</t>
-  </si>
-  <si>
-    <t>2b6873d7</t>
-  </si>
-  <si>
-    <t>509958501</t>
-  </si>
-  <si>
-    <t>槿桥</t>
-  </si>
-  <si>
-    <t>551e9bbd</t>
-  </si>
-  <si>
-    <t>929535772</t>
-  </si>
-  <si>
-    <t>狐兰朵露</t>
-  </si>
-  <si>
-    <t>e912c56.</t>
-  </si>
-  <si>
-    <t>2242977200</t>
-  </si>
-  <si>
-    <t>a'ゞ苏苏</t>
-  </si>
-  <si>
-    <t>51a71d6b</t>
-  </si>
-  <si>
-    <t>1084629163</t>
-  </si>
-  <si>
-    <t>一切皆有可能</t>
-  </si>
-  <si>
-    <t>3b7dfb5c</t>
-  </si>
-  <si>
-    <t>1312087292</t>
-  </si>
-  <si>
-    <t>彼世节拍</t>
-  </si>
-  <si>
-    <t>fdef3cc8</t>
-  </si>
-  <si>
-    <t>1762488480</t>
-  </si>
-  <si>
-    <t>嘻嘻嘻</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>4b24a6b7</t>
-  </si>
-  <si>
-    <t>2751393486</t>
-  </si>
-  <si>
-    <t>        </t>
-  </si>
-  <si>
-    <t>eb0f7284</t>
-  </si>
-  <si>
-    <t>781456741</t>
-  </si>
-  <si>
-    <t>文昊</t>
-  </si>
-  <si>
-    <t>883c8e20</t>
-  </si>
-  <si>
-    <t>1243776890</t>
-  </si>
-  <si>
-    <t>clh</t>
-  </si>
-  <si>
-    <t>6cffec45</t>
-  </si>
-  <si>
-    <t>1007021745</t>
-  </si>
-  <si>
-    <t>Non-numb</t>
-  </si>
-  <si>
-    <t>f8241963</t>
-  </si>
-  <si>
-    <t>1183413694</t>
-  </si>
-  <si>
-    <t>霰雪的天空</t>
-  </si>
-  <si>
-    <t>f3867948</t>
-  </si>
-  <si>
-    <t>395432402</t>
-  </si>
-  <si>
-    <t>WindGods</t>
-  </si>
-  <si>
-    <t>769cacfe</t>
-  </si>
-  <si>
-    <t>3501494634</t>
-  </si>
-  <si>
-    <t>天亮记得关灯</t>
-  </si>
-  <si>
-    <t>b97d7a30</t>
-  </si>
-  <si>
-    <t>1240538886</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6c198517</t>
-  </si>
-  <si>
-    <t>3291867868</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>a8cec24c</t>
-  </si>
-  <si>
-    <t>721844021</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -585,18 +597,18 @@
   <si>
     <r>
       <rPr/>
+      <t>初晨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>32c238bf</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>初晨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>749499fb</t>
     </r>
   </si>
@@ -609,18 +621,18 @@
   <si>
     <r>
       <rPr/>
+      <t>cc54218b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>寓庸</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>cc54218b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
@@ -669,18 +681,18 @@
   <si>
     <r>
       <rPr/>
+      <t>Sakiio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>e42e7687</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>Sakiio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>e2877443</t>
     </r>
   </si>
@@ -729,13 +741,13 @@
   <si>
     <r>
       <rPr/>
+      <t>时·逝</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>cacdbfed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>时·逝</t>
     </r>
   </si>
 </sst>
@@ -769,10 +781,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
       <strike val="true"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -821,19 +833,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf fontId="3" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,7 +1150,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D63"/>
+  <dimension ref="D65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1149,817 +1161,845 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="7" t="s"/>
+      <c r="C20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="6">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="6">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="6">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="6">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="6">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="6">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="6">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="6">
+        <v>72</v>
+      </c>
+      <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="6">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="6">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="6">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="6">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="6">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="6">
+        <v>90</v>
+      </c>
+      <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="6">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="6">
+        <v>96</v>
+      </c>
+      <c r="B41" s="5">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="6">
+        <v>99</v>
+      </c>
+      <c r="B42" s="5">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="6">
+        <v>102</v>
+      </c>
+      <c r="B43" s="5">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="6">
+        <v>105</v>
+      </c>
+      <c r="B44" s="5">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="6">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="6">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5">
         <v>45918.7200925926</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="6">
+        <v>114</v>
+      </c>
+      <c r="B47" s="5">
         <v>45919.3754050926</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="6">
+        <v>117</v>
+      </c>
+      <c r="B48" s="5">
         <v>45919.7420833333</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="6">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5">
         <v>45919.7523495371</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="6">
+        <v>123</v>
+      </c>
+      <c r="B50" s="5">
         <v>45920.4485763889</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="6">
+        <v>126</v>
+      </c>
+      <c r="B51" s="5">
         <v>45921.188587963</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="A52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="7">
         <v>45923.5852662037</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>45</v>
+      <c r="C52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="6">
+        <v>130</v>
+      </c>
+      <c r="B53" s="5">
         <v>45923.7846296296</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="A54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="7">
         <v>45929.8563310185</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>45</v>
+      <c r="C54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="6">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5">
         <v>45929.9812037037</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="6">
+        <v>136</v>
+      </c>
+      <c r="B56" s="5">
         <v>45931.129525463</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="6">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5">
         <v>45931.5039236111</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="6">
+        <v>142</v>
+      </c>
+      <c r="B58" s="5">
         <v>45931.6418634259</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="6">
+        <v>145</v>
+      </c>
+      <c r="B59" s="5">
         <v>45934.4792592593</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="6">
+        <v>148</v>
+      </c>
+      <c r="B60" s="5">
         <v>45934.9315972222</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="6">
+        <v>151</v>
+      </c>
+      <c r="B61" s="5">
         <v>45938.4237037037</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" s="6">
+        <v>154</v>
+      </c>
+      <c r="B62" s="5">
         <v>45938.5117361111</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" s="6">
+        <v>157</v>
+      </c>
+      <c r="B63" s="5">
         <v>45942.5586689815</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45944.9451736111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45945.8690162037</v>
+      </c>
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1981,189 +2021,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>178</v>
+        <v>165</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>187</v>
+        <v>170</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>192</v>
+        <v>172</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>174</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>198</v>
+        <v>175</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>200</v>
+        <v>176</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>202</v>
+        <v>177</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>204</v>
+        <v>178</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>208</v>
+        <v>180</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,15 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
   </si>
   <si>
     <t>序列号（必填）</t>
@@ -508,55 +559,13 @@
     <t>481613668</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>喝摩卡的Wiish</t>
+  </si>
+  <si>
+    <t>f4a577e0</t>
+  </si>
+  <si>
+    <t>1114161007</t>
   </si>
   <si>
     <r>
@@ -585,18 +594,18 @@
   <si>
     <r>
       <rPr/>
+      <t>诚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>1749b33b</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>诚</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>初晨</t>
     </r>
   </si>
@@ -681,18 +690,18 @@
   <si>
     <r>
       <rPr/>
+      <t>e42e7687</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>Sakiio</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>e42e7687</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>e2877443</t>
     </r>
   </si>
@@ -729,25 +738,25 @@
   <si>
     <r>
       <rPr/>
+      <t>一个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>64307a32</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>一个人</t>
+      <t>cacdbfed</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
       <t>时·逝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>cacdbfed</t>
     </r>
   </si>
 </sst>
@@ -781,10 +790,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -833,19 +842,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1159,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D65"/>
+  <dimension ref="D66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1161,845 +1170,859 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5">
+        <v>68</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="5">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="5">
+        <v>74</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5">
+        <v>77</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="5">
+        <v>83</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="5">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="5">
+        <v>89</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="5">
+        <v>92</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="5">
+        <v>95</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="5">
+        <v>98</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="5">
+        <v>101</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="5">
+        <v>104</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5">
+        <v>107</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="5">
+        <v>110</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="5">
+        <v>113</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="5">
+        <v>116</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="5">
+        <v>119</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="5">
+        <v>122</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="5">
+        <v>125</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="5">
+        <v>128</v>
+      </c>
+      <c r="B46" s="6">
         <v>45918.7200925926</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="5">
+        <v>131</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="5">
+        <v>134</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="5">
+        <v>137</v>
+      </c>
+      <c r="B49" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="5">
+        <v>140</v>
+      </c>
+      <c r="B50" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="5">
+        <v>143</v>
+      </c>
+      <c r="B51" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="7">
+      <c r="A52" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>28</v>
+      <c r="C52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="5">
+        <v>147</v>
+      </c>
+      <c r="B53" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="7">
+      <c r="A54" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>28</v>
+      <c r="C54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="5">
+        <v>150</v>
+      </c>
+      <c r="B55" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="5">
+        <v>153</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="5">
+        <v>156</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="5">
+        <v>159</v>
+      </c>
+      <c r="B58" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="5">
+        <v>162</v>
+      </c>
+      <c r="B59" s="6">
         <v>45934.4792592593</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="5">
+        <v>165</v>
+      </c>
+      <c r="B60" s="6">
         <v>45934.9315972222</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="5">
+        <v>168</v>
+      </c>
+      <c r="B61" s="6">
         <v>45938.4237037037</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="5">
+        <v>171</v>
+      </c>
+      <c r="B62" s="6">
         <v>45938.5117361111</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="5">
+        <v>174</v>
+      </c>
+      <c r="B63" s="6">
         <v>45942.5586689815</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="5">
+        <v>95</v>
+      </c>
+      <c r="B64" s="6">
         <v>45944.9451736111</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="5">
+        <v>178</v>
+      </c>
+      <c r="B65" s="6">
         <v>45945.8690162037</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="6">
+        <v>45946.8488657408</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2021,189 +2044,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>182</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>187</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>190</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>192</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>194</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>196</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>198</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>200</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>201</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>204</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>206</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>208</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>210</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>211</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,521 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
+  </si>
+  <si>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
+  </si>
+  <si>
+    <t>不问世事五千载</t>
+  </si>
+  <si>
+    <t>e547507a</t>
+  </si>
+  <si>
+    <t>158216094</t>
+  </si>
+  <si>
+    <t>在梦里见过你</t>
+  </si>
+  <si>
+    <t>dbbe0b14</t>
+  </si>
+  <si>
+    <t>2937797530</t>
+  </si>
+  <si>
+    <t>Satellite.</t>
+  </si>
+  <si>
+    <t>e272cd49</t>
+  </si>
+  <si>
+    <t>1125931910</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>8c09b4b0</t>
+  </si>
+  <si>
+    <t>2014017597</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9bd2e82f</t>
+  </si>
+  <si>
+    <t>169611364</t>
+  </si>
+  <si>
+    <t>一條鹹鱼🐟君</t>
+  </si>
+  <si>
+    <t>c0711cf4</t>
+  </si>
+  <si>
+    <t>750323931</t>
+  </si>
+  <si>
+    <t>卡米诺斯</t>
+  </si>
+  <si>
+    <t>2b6873d7</t>
+  </si>
+  <si>
+    <t>509958501</t>
+  </si>
+  <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
+  </si>
+  <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>eb0f7284</t>
+  </si>
+  <si>
+    <t>781456741</t>
+  </si>
+  <si>
+    <t>文昊</t>
+  </si>
+  <si>
+    <t>883c8e20</t>
+  </si>
+  <si>
+    <t>1243776890</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>6cffec45</t>
+  </si>
+  <si>
+    <t>1007021745</t>
+  </si>
+  <si>
+    <t>Non-numb</t>
+  </si>
+  <si>
+    <t>f8241963</t>
+  </si>
+  <si>
+    <t>1183413694</t>
+  </si>
+  <si>
+    <t>WindGods</t>
+  </si>
+  <si>
+    <t>769cacfe</t>
+  </si>
+  <si>
+    <t>3501494634</t>
+  </si>
+  <si>
+    <t>天亮记得关灯</t>
+  </si>
+  <si>
+    <t>b97d7a30</t>
+  </si>
+  <si>
+    <t>1240538886</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6c198517</t>
+  </si>
+  <si>
+    <t>3291867868</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>a8cec24c</t>
+  </si>
+  <si>
+    <t>721844021</t>
+  </si>
+  <si>
+    <t>6d512350</t>
+  </si>
+  <si>
+    <t>情殇</t>
+  </si>
+  <si>
+    <t>cc8b8e9b</t>
+  </si>
+  <si>
+    <t>481613668</t>
+  </si>
+  <si>
+    <t>喝摩卡的Wiish</t>
+  </si>
+  <si>
+    <t>f4a577e0</t>
+  </si>
+  <si>
+    <t>1114161007</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>f0e7af44</t>
+  </si>
+  <si>
+    <t>1280082251</t>
+  </si>
+  <si>
+    <t>霰雪的天空</t>
+  </si>
+  <si>
+    <t>efb5bf5e</t>
+  </si>
+  <si>
+    <t>395432402</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -76,498 +577,6 @@
     <t>2025年8月26日 23:25</t>
   </si>
   <si>
-    <t>序列号（必填）</t>
-  </si>
-  <si>
-    <t>QQ号（必填）</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>已删除</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
-  </si>
-  <si>
-    <t>二十一</t>
-  </si>
-  <si>
-    <t>e964b1e9</t>
-  </si>
-  <si>
-    <t>820078578</t>
-  </si>
-  <si>
-    <t>帝国守护之守望苍穹</t>
-  </si>
-  <si>
-    <t>3302034a</t>
-  </si>
-  <si>
-    <t>907566442</t>
-  </si>
-  <si>
-    <t>无奈</t>
-  </si>
-  <si>
-    <t>9b41a46b</t>
-  </si>
-  <si>
-    <t>487996763</t>
-  </si>
-  <si>
-    <t>哦</t>
-  </si>
-  <si>
-    <t>fee46bac</t>
-  </si>
-  <si>
-    <t>1730863123</t>
-  </si>
-  <si>
-    <t>落叶</t>
-  </si>
-  <si>
-    <t>6c3bcd6f</t>
-  </si>
-  <si>
-    <t>3382881855</t>
-  </si>
-  <si>
-    <t>我是mc</t>
-  </si>
-  <si>
-    <t>46e4be66</t>
-  </si>
-  <si>
-    <t>2721614772</t>
-  </si>
-  <si>
-    <t>无执T̶o̶n̶z̶y̶</t>
-  </si>
-  <si>
-    <t>72880a09</t>
-  </si>
-  <si>
-    <t>3521425739</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>fd81cb3d</t>
-  </si>
-  <si>
-    <t>908289638</t>
-  </si>
-  <si>
-    <t>YL.</t>
-  </si>
-  <si>
-    <t>a4c3e725</t>
-  </si>
-  <si>
-    <t>918357021</t>
-  </si>
-  <si>
-    <t>Tears.</t>
-  </si>
-  <si>
-    <t>1b30a393</t>
-  </si>
-  <si>
-    <t>3214774599</t>
-  </si>
-  <si>
-    <t>衔花送月到渡口</t>
-  </si>
-  <si>
-    <t>ff109235</t>
-  </si>
-  <si>
-    <t>2283538335</t>
-  </si>
-  <si>
-    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
-  </si>
-  <si>
-    <t>64a075c9</t>
-  </si>
-  <si>
-    <t>1876568293</t>
-  </si>
-  <si>
-    <t>不问世事五千载</t>
-  </si>
-  <si>
-    <t>e547507a</t>
-  </si>
-  <si>
-    <t>158216094</t>
-  </si>
-  <si>
-    <t>在梦里见过你</t>
-  </si>
-  <si>
-    <t>dbbe0b14</t>
-  </si>
-  <si>
-    <t>2937797530</t>
-  </si>
-  <si>
-    <t>Satellite.</t>
-  </si>
-  <si>
-    <t>e272cd49</t>
-  </si>
-  <si>
-    <t>1125931910</t>
-  </si>
-  <si>
-    <t>pots</t>
-  </si>
-  <si>
-    <t>8c09b4b0</t>
-  </si>
-  <si>
-    <t>2014017597</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9bd2e82f</t>
-  </si>
-  <si>
-    <t>169611364</t>
-  </si>
-  <si>
-    <t>一條鹹鱼🐟君</t>
-  </si>
-  <si>
-    <t>c0711cf4</t>
-  </si>
-  <si>
-    <t>750323931</t>
-  </si>
-  <si>
-    <t>卡米诺斯</t>
-  </si>
-  <si>
-    <t>2b6873d7</t>
-  </si>
-  <si>
-    <t>509958501</t>
-  </si>
-  <si>
-    <t>槿桥</t>
-  </si>
-  <si>
-    <t>551e9bbd</t>
-  </si>
-  <si>
-    <t>929535772</t>
-  </si>
-  <si>
-    <t>狐兰朵露</t>
-  </si>
-  <si>
-    <t>e912c56.</t>
-  </si>
-  <si>
-    <t>2242977200</t>
-  </si>
-  <si>
-    <t>a'ゞ苏苏</t>
-  </si>
-  <si>
-    <t>51a71d6b</t>
-  </si>
-  <si>
-    <t>1084629163</t>
-  </si>
-  <si>
-    <t>一切皆有可能</t>
-  </si>
-  <si>
-    <t>3b7dfb5c</t>
-  </si>
-  <si>
-    <t>1312087292</t>
-  </si>
-  <si>
-    <t>彼世节拍</t>
-  </si>
-  <si>
-    <t>fdef3cc8</t>
-  </si>
-  <si>
-    <t>1762488480</t>
-  </si>
-  <si>
-    <t>嘻嘻嘻</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>4b24a6b7</t>
-  </si>
-  <si>
-    <t>2751393486</t>
-  </si>
-  <si>
-    <t>        </t>
-  </si>
-  <si>
-    <t>eb0f7284</t>
-  </si>
-  <si>
-    <t>781456741</t>
-  </si>
-  <si>
-    <t>文昊</t>
-  </si>
-  <si>
-    <t>883c8e20</t>
-  </si>
-  <si>
-    <t>1243776890</t>
-  </si>
-  <si>
-    <t>clh</t>
-  </si>
-  <si>
-    <t>6cffec45</t>
-  </si>
-  <si>
-    <t>1007021745</t>
-  </si>
-  <si>
-    <t>Non-numb</t>
-  </si>
-  <si>
-    <t>f8241963</t>
-  </si>
-  <si>
-    <t>1183413694</t>
-  </si>
-  <si>
-    <t>霰雪的天空</t>
-  </si>
-  <si>
-    <t>f3867948</t>
-  </si>
-  <si>
-    <t>395432402</t>
-  </si>
-  <si>
-    <t>WindGods</t>
-  </si>
-  <si>
-    <t>769cacfe</t>
-  </si>
-  <si>
-    <t>3501494634</t>
-  </si>
-  <si>
-    <t>天亮记得关灯</t>
-  </si>
-  <si>
-    <t>b97d7a30</t>
-  </si>
-  <si>
-    <t>1240538886</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6c198517</t>
-  </si>
-  <si>
-    <t>3291867868</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>a8cec24c</t>
-  </si>
-  <si>
-    <t>721844021</t>
-  </si>
-  <si>
-    <t>6d512350</t>
-  </si>
-  <si>
-    <t>情殇</t>
-  </si>
-  <si>
-    <t>cc8b8e9b</t>
-  </si>
-  <si>
-    <t>481613668</t>
-  </si>
-  <si>
-    <t>喝摩卡的Wiish</t>
-  </si>
-  <si>
-    <t>f4a577e0</t>
-  </si>
-  <si>
-    <t>1114161007</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -606,18 +615,18 @@
   <si>
     <r>
       <rPr/>
+      <t>32c238bf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>初晨</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>32c238bf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>749499fb</t>
     </r>
   </si>
@@ -630,18 +639,18 @@
   <si>
     <r>
       <rPr/>
+      <t>寓庸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>cc54218b</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>寓庸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
@@ -666,18 +675,18 @@
   <si>
     <r>
       <rPr/>
+      <t>晅方</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>8943eb1a</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>晅方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>67d90357</t>
     </r>
   </si>
@@ -738,13 +747,13 @@
   <si>
     <r>
       <rPr/>
+      <t>64307a32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>一个人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>64307a32</t>
     </r>
   </si>
   <si>
@@ -790,10 +799,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
       <strike val="true"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -842,19 +851,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf fontId="3" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,7 +1168,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D66"/>
+  <dimension ref="D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1170,859 +1179,873 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="7" t="s"/>
+      <c r="C20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="6">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="6">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="6">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="6">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="6">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="6">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="6">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="6">
+        <v>72</v>
+      </c>
+      <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="6">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="6">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="6">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="6">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="6">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="6">
+        <v>90</v>
+      </c>
+      <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="6">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="6">
+        <v>96</v>
+      </c>
+      <c r="B41" s="5">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="6">
+        <v>99</v>
+      </c>
+      <c r="B42" s="5">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="6">
+        <v>102</v>
+      </c>
+      <c r="B43" s="5">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="6">
+        <v>105</v>
+      </c>
+      <c r="B44" s="5">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="6">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="6">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5">
         <v>45918.7200925926</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="6">
+        <v>114</v>
+      </c>
+      <c r="B47" s="5">
         <v>45919.3754050926</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="6">
+        <v>117</v>
+      </c>
+      <c r="B48" s="5">
         <v>45919.7420833333</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="6">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5">
         <v>45919.7523495371</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="6">
+        <v>123</v>
+      </c>
+      <c r="B50" s="5">
         <v>45920.4485763889</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="6">
+        <v>126</v>
+      </c>
+      <c r="B51" s="5">
         <v>45921.188587963</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="A52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="7">
         <v>45923.5852662037</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>45</v>
+      <c r="C52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="6">
+        <v>130</v>
+      </c>
+      <c r="B53" s="5">
         <v>45923.7846296296</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="A54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="7">
         <v>45929.8563310185</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>45</v>
+      <c r="C54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="6">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5">
         <v>45929.9812037037</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="6">
+        <v>136</v>
+      </c>
+      <c r="B56" s="5">
         <v>45931.129525463</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="6">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5">
         <v>45931.5039236111</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="6">
+        <v>142</v>
+      </c>
+      <c r="B58" s="5">
         <v>45931.6418634259</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="6">
-        <v>45934.4792592593</v>
+        <v>145</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45934.9315972222</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="6">
-        <v>45934.9315972222</v>
+        <v>148</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45938.4237037037</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="6">
-        <v>45938.4237037037</v>
+        <v>151</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45938.5117361111</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" s="6">
-        <v>45938.5117361111</v>
+        <v>154</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45942.5586689815</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" s="6">
-        <v>45942.5586689815</v>
+        <v>78</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45944.9451736111</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="6">
-        <v>45944.9451736111</v>
+        <v>158</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45945.8690162037</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="6">
-        <v>45945.8690162037</v>
+        <v>161</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45946.8488657408</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" s="6">
-        <v>45946.8488657408</v>
+        <v>164</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45949.0311921296</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45949.0345949074</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2044,189 +2067,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>199</v>
+        <v>178</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>179</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>203</v>
+        <v>180</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>205</v>
+        <v>181</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>207</v>
+        <v>182</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>209</v>
+        <v>183</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>212</v>
+        <v>185</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>215</v>
+        <v>186</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t/>
   </si>
@@ -526,6 +526,33 @@
     <t>395432402</t>
   </si>
   <si>
+    <t>如果</t>
+  </si>
+  <si>
+    <t>f3bb7437</t>
+  </si>
+  <si>
+    <t>2752741520</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>d492fa67</t>
+  </si>
+  <si>
+    <t>571584956</t>
+  </si>
+  <si>
+    <t>隽昊</t>
+  </si>
+  <si>
+    <t>57c84d5.</t>
+  </si>
+  <si>
+    <t>992333681</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -603,18 +630,18 @@
   <si>
     <r>
       <rPr/>
+      <t>1749b33b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>诚</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>1749b33b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>32c238bf</t>
     </r>
   </si>
@@ -639,18 +666,18 @@
   <si>
     <r>
       <rPr/>
+      <t>cc54218b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>寓庸</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>cc54218b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
@@ -675,13 +702,13 @@
   <si>
     <r>
       <rPr/>
+      <t>8943eb1a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>晅方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>8943eb1a</t>
     </r>
   </si>
   <si>
@@ -1168,7 +1195,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D67"/>
+  <dimension ref="D70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2046,6 +2073,48 @@
       </c>
       <c r="D67" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45949.5079398148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45949.5953240741</v>
+      </c>
+      <c r="C69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45949.7996180556</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2078,178 +2147,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,17 +14,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t/>
   </si>
   <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
     <t>序列号（必填）</t>
   </si>
   <si>
@@ -349,259 +400,217 @@
     <t>750323931</t>
   </si>
   <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
+  </si>
+  <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>eb0f7284</t>
+  </si>
+  <si>
+    <t>781456741</t>
+  </si>
+  <si>
+    <t>文昊</t>
+  </si>
+  <si>
+    <t>883c8e20</t>
+  </si>
+  <si>
+    <t>1243776890</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>6cffec45</t>
+  </si>
+  <si>
+    <t>1007021745</t>
+  </si>
+  <si>
+    <t>Non-numb</t>
+  </si>
+  <si>
+    <t>f8241963</t>
+  </si>
+  <si>
+    <t>1183413694</t>
+  </si>
+  <si>
+    <t>WindGods</t>
+  </si>
+  <si>
+    <t>769cacfe</t>
+  </si>
+  <si>
+    <t>3501494634</t>
+  </si>
+  <si>
+    <t>天亮记得关灯</t>
+  </si>
+  <si>
+    <t>b97d7a30</t>
+  </si>
+  <si>
+    <t>1240538886</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6c198517</t>
+  </si>
+  <si>
+    <t>3291867868</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>a8cec24c</t>
+  </si>
+  <si>
+    <t>721844021</t>
+  </si>
+  <si>
+    <t>6d512350</t>
+  </si>
+  <si>
+    <t>情殇</t>
+  </si>
+  <si>
+    <t>cc8b8e9b</t>
+  </si>
+  <si>
+    <t>481613668</t>
+  </si>
+  <si>
+    <t>喝摩卡的Wiish</t>
+  </si>
+  <si>
+    <t>f4a577e0</t>
+  </si>
+  <si>
+    <t>1114161007</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>f0e7af44</t>
+  </si>
+  <si>
+    <t>1280082251</t>
+  </si>
+  <si>
+    <t>霰雪的天空</t>
+  </si>
+  <si>
+    <t>efb5bf5e</t>
+  </si>
+  <si>
+    <t>395432402</t>
+  </si>
+  <si>
+    <t>如果</t>
+  </si>
+  <si>
+    <t>f3bb7437</t>
+  </si>
+  <si>
+    <t>2752741520</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>d492fa67</t>
+  </si>
+  <si>
+    <t>571584956</t>
+  </si>
+  <si>
+    <t>隽昊</t>
+  </si>
+  <si>
+    <t>57c84d5.</t>
+  </si>
+  <si>
+    <t>992333681</t>
+  </si>
+  <si>
     <t>卡米诺斯</t>
   </si>
   <si>
-    <t>2b6873d7</t>
+    <t>224431c7</t>
   </si>
   <si>
     <t>509958501</t>
   </si>
   <si>
-    <t>槿桥</t>
-  </si>
-  <si>
-    <t>551e9bbd</t>
-  </si>
-  <si>
-    <t>929535772</t>
-  </si>
-  <si>
-    <t>狐兰朵露</t>
-  </si>
-  <si>
-    <t>e912c56.</t>
-  </si>
-  <si>
-    <t>2242977200</t>
-  </si>
-  <si>
-    <t>a'ゞ苏苏</t>
-  </si>
-  <si>
-    <t>51a71d6b</t>
-  </si>
-  <si>
-    <t>1084629163</t>
-  </si>
-  <si>
-    <t>一切皆有可能</t>
-  </si>
-  <si>
-    <t>3b7dfb5c</t>
-  </si>
-  <si>
-    <t>1312087292</t>
-  </si>
-  <si>
-    <t>彼世节拍</t>
-  </si>
-  <si>
-    <t>fdef3cc8</t>
-  </si>
-  <si>
-    <t>1762488480</t>
-  </si>
-  <si>
-    <t>嘻嘻嘻</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>4b24a6b7</t>
-  </si>
-  <si>
-    <t>2751393486</t>
-  </si>
-  <si>
-    <t>        </t>
-  </si>
-  <si>
-    <t>eb0f7284</t>
-  </si>
-  <si>
-    <t>781456741</t>
-  </si>
-  <si>
-    <t>文昊</t>
-  </si>
-  <si>
-    <t>883c8e20</t>
-  </si>
-  <si>
-    <t>1243776890</t>
-  </si>
-  <si>
-    <t>clh</t>
-  </si>
-  <si>
-    <t>6cffec45</t>
-  </si>
-  <si>
-    <t>1007021745</t>
-  </si>
-  <si>
-    <t>Non-numb</t>
-  </si>
-  <si>
-    <t>f8241963</t>
-  </si>
-  <si>
-    <t>1183413694</t>
-  </si>
-  <si>
-    <t>WindGods</t>
-  </si>
-  <si>
-    <t>769cacfe</t>
-  </si>
-  <si>
-    <t>3501494634</t>
-  </si>
-  <si>
-    <t>天亮记得关灯</t>
-  </si>
-  <si>
-    <t>b97d7a30</t>
-  </si>
-  <si>
-    <t>1240538886</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6c198517</t>
-  </si>
-  <si>
-    <t>3291867868</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>a8cec24c</t>
-  </si>
-  <si>
-    <t>721844021</t>
-  </si>
-  <si>
-    <t>6d512350</t>
-  </si>
-  <si>
-    <t>情殇</t>
-  </si>
-  <si>
-    <t>cc8b8e9b</t>
-  </si>
-  <si>
-    <t>481613668</t>
-  </si>
-  <si>
-    <t>喝摩卡的Wiish</t>
-  </si>
-  <si>
-    <t>f4a577e0</t>
-  </si>
-  <si>
-    <t>1114161007</t>
-  </si>
-  <si>
-    <t>Saro</t>
-  </si>
-  <si>
-    <t>f0e7af44</t>
-  </si>
-  <si>
-    <t>1280082251</t>
-  </si>
-  <si>
-    <t>霰雪的天空</t>
-  </si>
-  <si>
-    <t>efb5bf5e</t>
-  </si>
-  <si>
-    <t>395432402</t>
-  </si>
-  <si>
-    <t>如果</t>
-  </si>
-  <si>
-    <t>f3bb7437</t>
-  </si>
-  <si>
-    <t>2752741520</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>d492fa67</t>
-  </si>
-  <si>
-    <t>571584956</t>
-  </si>
-  <si>
-    <t>隽昊</t>
-  </si>
-  <si>
-    <t>57c84d5.</t>
-  </si>
-  <si>
-    <t>992333681</t>
-  </si>
-  <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>62b965f4</t>
+  </si>
+  <si>
+    <t>911578662</t>
   </si>
   <si>
     <r>
@@ -654,18 +663,18 @@
   <si>
     <r>
       <rPr/>
+      <t>[$ǿĀD]1212121[$ǿĀD]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>749499fb</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>[$ǿĀD]1212121[$ǿĀD]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>cc54218b</t>
     </r>
   </si>
@@ -690,18 +699,18 @@
   <si>
     <r>
       <rPr/>
+      <t>AY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>7a92bcf8</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>AY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>8943eb1a</t>
     </r>
   </si>
@@ -738,13 +747,13 @@
   <si>
     <r>
       <rPr/>
+      <t>立东</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>e2877443</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>立东</t>
     </r>
   </si>
   <si>
@@ -826,10 +835,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -878,19 +887,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1204,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D70"/>
+  <dimension ref="D71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,915 +1215,929 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5">
+        <v>68</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="5">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="5">
+        <v>74</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5">
+        <v>77</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="5">
+        <v>83</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="5">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="5">
+        <v>89</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="5">
+        <v>92</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="5">
+        <v>95</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="5">
+        <v>98</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="5">
+        <v>101</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="5">
+        <v>104</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5">
+        <v>107</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="5">
+        <v>110</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="5">
+        <v>113</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="5">
+        <v>116</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="5">
+        <v>119</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="5">
+        <v>122</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="5">
+        <v>125</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="5">
-        <v>45918.7200925926</v>
+        <v>128</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="5">
-        <v>45919.3754050926</v>
+        <v>131</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="5">
-        <v>45919.7420833333</v>
+        <v>134</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="5">
-        <v>45919.7523495371</v>
+        <v>137</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="5">
-        <v>45920.4485763889</v>
+        <v>140</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="5">
-        <v>45921.188587963</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
+      <c r="A51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="8">
+        <v>45923.5852662037</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="7">
-        <v>45923.5852662037</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>28</v>
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45923.7846296296</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="5">
-        <v>45923.7846296296</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" t="s">
-        <v>132</v>
+      <c r="A53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="8">
+        <v>45929.8563310185</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="7">
-        <v>45929.8563310185</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>28</v>
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="6">
+        <v>45929.9812037037</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="5">
-        <v>45929.9812037037</v>
+        <v>150</v>
+      </c>
+      <c r="B55" s="6">
+        <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="5">
-        <v>45931.129525463</v>
+        <v>153</v>
+      </c>
+      <c r="B56" s="6">
+        <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="5">
-        <v>45931.5039236111</v>
+        <v>156</v>
+      </c>
+      <c r="B57" s="6">
+        <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="5">
-        <v>45931.6418634259</v>
+        <v>159</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="5">
-        <v>45934.9315972222</v>
+        <v>162</v>
+      </c>
+      <c r="B59" s="6">
+        <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="5">
-        <v>45938.4237037037</v>
+        <v>165</v>
+      </c>
+      <c r="B60" s="6">
+        <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="5">
-        <v>45938.5117361111</v>
+        <v>168</v>
+      </c>
+      <c r="B61" s="6">
+        <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="5">
-        <v>45942.5586689815</v>
+        <v>95</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="5">
-        <v>45944.9451736111</v>
+        <v>172</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="5">
-        <v>45945.8690162037</v>
+        <v>175</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="5">
-        <v>45946.8488657408</v>
+        <v>178</v>
+      </c>
+      <c r="B65" s="6">
+        <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="5">
-        <v>45949.0311921296</v>
+        <v>181</v>
+      </c>
+      <c r="B66" s="6">
+        <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="5">
-        <v>45949.0345949074</v>
+        <v>184</v>
+      </c>
+      <c r="B67" s="6">
+        <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="5">
-        <v>45949.5079398148</v>
+        <v>187</v>
+      </c>
+      <c r="B68" s="6">
+        <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="5">
-        <v>45949.5953240741</v>
+        <v>190</v>
+      </c>
+      <c r="B69" s="6">
+        <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="5">
-        <v>45949.7996180556</v>
+        <v>193</v>
+      </c>
+      <c r="B70" s="6">
+        <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="6">
+        <v>45950.092662037</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2136,189 +2159,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>197</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>199</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>201</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>203</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>205</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>207</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>209</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>211</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>217</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>219</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>221</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>223</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>225</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>227</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,572 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
+  </si>
+  <si>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
+  </si>
+  <si>
+    <t>不问世事五千载</t>
+  </si>
+  <si>
+    <t>e547507a</t>
+  </si>
+  <si>
+    <t>158216094</t>
+  </si>
+  <si>
+    <t>在梦里见过你</t>
+  </si>
+  <si>
+    <t>dbbe0b14</t>
+  </si>
+  <si>
+    <t>2937797530</t>
+  </si>
+  <si>
+    <t>Satellite.</t>
+  </si>
+  <si>
+    <t>e272cd49</t>
+  </si>
+  <si>
+    <t>1125931910</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>8c09b4b0</t>
+  </si>
+  <si>
+    <t>2014017597</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9bd2e82f</t>
+  </si>
+  <si>
+    <t>169611364</t>
+  </si>
+  <si>
+    <t>一條鹹鱼🐟君</t>
+  </si>
+  <si>
+    <t>c0711cf4</t>
+  </si>
+  <si>
+    <t>750323931</t>
+  </si>
+  <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
+  </si>
+  <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>eb0f7284</t>
+  </si>
+  <si>
+    <t>781456741</t>
+  </si>
+  <si>
+    <t>文昊</t>
+  </si>
+  <si>
+    <t>883c8e20</t>
+  </si>
+  <si>
+    <t>1243776890</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>6cffec45</t>
+  </si>
+  <si>
+    <t>1007021745</t>
+  </si>
+  <si>
+    <t>Non-numb</t>
+  </si>
+  <si>
+    <t>f8241963</t>
+  </si>
+  <si>
+    <t>1183413694</t>
+  </si>
+  <si>
+    <t>WindGods</t>
+  </si>
+  <si>
+    <t>769cacfe</t>
+  </si>
+  <si>
+    <t>3501494634</t>
+  </si>
+  <si>
+    <t>天亮记得关灯</t>
+  </si>
+  <si>
+    <t>b97d7a30</t>
+  </si>
+  <si>
+    <t>1240538886</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6c198517</t>
+  </si>
+  <si>
+    <t>3291867868</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>a8cec24c</t>
+  </si>
+  <si>
+    <t>721844021</t>
+  </si>
+  <si>
+    <t>6d512350</t>
+  </si>
+  <si>
+    <t>情殇</t>
+  </si>
+  <si>
+    <t>cc8b8e9b</t>
+  </si>
+  <si>
+    <t>481613668</t>
+  </si>
+  <si>
+    <t>喝摩卡的Wiish</t>
+  </si>
+  <si>
+    <t>f4a577e0</t>
+  </si>
+  <si>
+    <t>1114161007</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>f0e7af44</t>
+  </si>
+  <si>
+    <t>1280082251</t>
+  </si>
+  <si>
+    <t>霰雪的天空</t>
+  </si>
+  <si>
+    <t>efb5bf5e</t>
+  </si>
+  <si>
+    <t>395432402</t>
+  </si>
+  <si>
+    <t>如果</t>
+  </si>
+  <si>
+    <t>f3bb7437</t>
+  </si>
+  <si>
+    <t>2752741520</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>d492fa67</t>
+  </si>
+  <si>
+    <t>571584956</t>
+  </si>
+  <si>
+    <t>隽昊</t>
+  </si>
+  <si>
+    <t>57c84d5.</t>
+  </si>
+  <si>
+    <t>992333681</t>
+  </si>
+  <si>
+    <t>卡米诺斯</t>
+  </si>
+  <si>
+    <t>224431c7</t>
+  </si>
+  <si>
+    <t>509958501</t>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>62b965f4</t>
+  </si>
+  <si>
+    <t>911578662</t>
+  </si>
+  <si>
+    <t>望川秋水</t>
+  </si>
+  <si>
+    <t>ce8133cc</t>
+  </si>
+  <si>
+    <t>2042243985</t>
+  </si>
+  <si>
+    <t>a8102a90</t>
+  </si>
+  <si>
+    <t>1554015133</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
-    <t>提交时间（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -76,543 +628,6 @@
     <t>2025年8月26日 23:25</t>
   </si>
   <si>
-    <t>序列号（必填）</t>
-  </si>
-  <si>
-    <t>QQ号（必填）</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>已删除</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
-  </si>
-  <si>
-    <t>二十一</t>
-  </si>
-  <si>
-    <t>e964b1e9</t>
-  </si>
-  <si>
-    <t>820078578</t>
-  </si>
-  <si>
-    <t>帝国守护之守望苍穹</t>
-  </si>
-  <si>
-    <t>3302034a</t>
-  </si>
-  <si>
-    <t>907566442</t>
-  </si>
-  <si>
-    <t>无奈</t>
-  </si>
-  <si>
-    <t>9b41a46b</t>
-  </si>
-  <si>
-    <t>487996763</t>
-  </si>
-  <si>
-    <t>哦</t>
-  </si>
-  <si>
-    <t>fee46bac</t>
-  </si>
-  <si>
-    <t>1730863123</t>
-  </si>
-  <si>
-    <t>落叶</t>
-  </si>
-  <si>
-    <t>6c3bcd6f</t>
-  </si>
-  <si>
-    <t>3382881855</t>
-  </si>
-  <si>
-    <t>我是mc</t>
-  </si>
-  <si>
-    <t>46e4be66</t>
-  </si>
-  <si>
-    <t>2721614772</t>
-  </si>
-  <si>
-    <t>无执T̶o̶n̶z̶y̶</t>
-  </si>
-  <si>
-    <t>72880a09</t>
-  </si>
-  <si>
-    <t>3521425739</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>fd81cb3d</t>
-  </si>
-  <si>
-    <t>908289638</t>
-  </si>
-  <si>
-    <t>YL.</t>
-  </si>
-  <si>
-    <t>a4c3e725</t>
-  </si>
-  <si>
-    <t>918357021</t>
-  </si>
-  <si>
-    <t>Tears.</t>
-  </si>
-  <si>
-    <t>1b30a393</t>
-  </si>
-  <si>
-    <t>3214774599</t>
-  </si>
-  <si>
-    <t>衔花送月到渡口</t>
-  </si>
-  <si>
-    <t>ff109235</t>
-  </si>
-  <si>
-    <t>2283538335</t>
-  </si>
-  <si>
-    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
-  </si>
-  <si>
-    <t>64a075c9</t>
-  </si>
-  <si>
-    <t>1876568293</t>
-  </si>
-  <si>
-    <t>不问世事五千载</t>
-  </si>
-  <si>
-    <t>e547507a</t>
-  </si>
-  <si>
-    <t>158216094</t>
-  </si>
-  <si>
-    <t>在梦里见过你</t>
-  </si>
-  <si>
-    <t>dbbe0b14</t>
-  </si>
-  <si>
-    <t>2937797530</t>
-  </si>
-  <si>
-    <t>Satellite.</t>
-  </si>
-  <si>
-    <t>e272cd49</t>
-  </si>
-  <si>
-    <t>1125931910</t>
-  </si>
-  <si>
-    <t>pots</t>
-  </si>
-  <si>
-    <t>8c09b4b0</t>
-  </si>
-  <si>
-    <t>2014017597</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9bd2e82f</t>
-  </si>
-  <si>
-    <t>169611364</t>
-  </si>
-  <si>
-    <t>一條鹹鱼🐟君</t>
-  </si>
-  <si>
-    <t>c0711cf4</t>
-  </si>
-  <si>
-    <t>750323931</t>
-  </si>
-  <si>
-    <t>槿桥</t>
-  </si>
-  <si>
-    <t>551e9bbd</t>
-  </si>
-  <si>
-    <t>929535772</t>
-  </si>
-  <si>
-    <t>狐兰朵露</t>
-  </si>
-  <si>
-    <t>e912c56.</t>
-  </si>
-  <si>
-    <t>2242977200</t>
-  </si>
-  <si>
-    <t>a'ゞ苏苏</t>
-  </si>
-  <si>
-    <t>51a71d6b</t>
-  </si>
-  <si>
-    <t>1084629163</t>
-  </si>
-  <si>
-    <t>一切皆有可能</t>
-  </si>
-  <si>
-    <t>3b7dfb5c</t>
-  </si>
-  <si>
-    <t>1312087292</t>
-  </si>
-  <si>
-    <t>彼世节拍</t>
-  </si>
-  <si>
-    <t>fdef3cc8</t>
-  </si>
-  <si>
-    <t>1762488480</t>
-  </si>
-  <si>
-    <t>嘻嘻嘻</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>4b24a6b7</t>
-  </si>
-  <si>
-    <t>2751393486</t>
-  </si>
-  <si>
-    <t>        </t>
-  </si>
-  <si>
-    <t>eb0f7284</t>
-  </si>
-  <si>
-    <t>781456741</t>
-  </si>
-  <si>
-    <t>文昊</t>
-  </si>
-  <si>
-    <t>883c8e20</t>
-  </si>
-  <si>
-    <t>1243776890</t>
-  </si>
-  <si>
-    <t>clh</t>
-  </si>
-  <si>
-    <t>6cffec45</t>
-  </si>
-  <si>
-    <t>1007021745</t>
-  </si>
-  <si>
-    <t>Non-numb</t>
-  </si>
-  <si>
-    <t>f8241963</t>
-  </si>
-  <si>
-    <t>1183413694</t>
-  </si>
-  <si>
-    <t>WindGods</t>
-  </si>
-  <si>
-    <t>769cacfe</t>
-  </si>
-  <si>
-    <t>3501494634</t>
-  </si>
-  <si>
-    <t>天亮记得关灯</t>
-  </si>
-  <si>
-    <t>b97d7a30</t>
-  </si>
-  <si>
-    <t>1240538886</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6c198517</t>
-  </si>
-  <si>
-    <t>3291867868</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>a8cec24c</t>
-  </si>
-  <si>
-    <t>721844021</t>
-  </si>
-  <si>
-    <t>6d512350</t>
-  </si>
-  <si>
-    <t>情殇</t>
-  </si>
-  <si>
-    <t>cc8b8e9b</t>
-  </si>
-  <si>
-    <t>481613668</t>
-  </si>
-  <si>
-    <t>喝摩卡的Wiish</t>
-  </si>
-  <si>
-    <t>f4a577e0</t>
-  </si>
-  <si>
-    <t>1114161007</t>
-  </si>
-  <si>
-    <t>Saro</t>
-  </si>
-  <si>
-    <t>f0e7af44</t>
-  </si>
-  <si>
-    <t>1280082251</t>
-  </si>
-  <si>
-    <t>霰雪的天空</t>
-  </si>
-  <si>
-    <t>efb5bf5e</t>
-  </si>
-  <si>
-    <t>395432402</t>
-  </si>
-  <si>
-    <t>如果</t>
-  </si>
-  <si>
-    <t>f3bb7437</t>
-  </si>
-  <si>
-    <t>2752741520</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>d492fa67</t>
-  </si>
-  <si>
-    <t>571584956</t>
-  </si>
-  <si>
-    <t>隽昊</t>
-  </si>
-  <si>
-    <t>57c84d5.</t>
-  </si>
-  <si>
-    <t>992333681</t>
-  </si>
-  <si>
-    <t>卡米诺斯</t>
-  </si>
-  <si>
-    <t>224431c7</t>
-  </si>
-  <si>
-    <t>509958501</t>
-  </si>
-  <si>
-    <t>流星</t>
-  </si>
-  <si>
-    <t>62b965f4</t>
-  </si>
-  <si>
-    <t>911578662</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -663,18 +678,18 @@
   <si>
     <r>
       <rPr/>
+      <t>749499fb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>[$ǿĀD]1212121[$ǿĀD]</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>749499fb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>cc54218b</t>
     </r>
   </si>
@@ -699,18 +714,18 @@
   <si>
     <r>
       <rPr/>
+      <t>7a92bcf8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>AY</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>7a92bcf8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>8943eb1a</t>
     </r>
   </si>
@@ -747,25 +762,25 @@
   <si>
     <r>
       <rPr/>
+      <t>e2877443</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>立东</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>e2877443</t>
+      <t>CyanCity</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
       <t>74cc9a81</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>CyanCity</t>
     </r>
   </si>
   <si>
@@ -835,10 +850,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
       <strike val="true"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -887,19 +902,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf fontId="3" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,7 +1219,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D71"/>
+  <dimension ref="D73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1215,929 +1230,957 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="7" t="s"/>
+      <c r="C20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="6">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="6">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="6">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="6">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="6">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="6">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="6">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="6">
+        <v>72</v>
+      </c>
+      <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="6">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="6">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="6">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="6">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="6">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="6">
+        <v>90</v>
+      </c>
+      <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="6">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="6">
+        <v>96</v>
+      </c>
+      <c r="B41" s="5">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="6">
+        <v>99</v>
+      </c>
+      <c r="B42" s="5">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="6">
+        <v>102</v>
+      </c>
+      <c r="B43" s="5">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="6">
+        <v>105</v>
+      </c>
+      <c r="B44" s="5">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="6">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="6">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="6">
+        <v>114</v>
+      </c>
+      <c r="B47" s="5">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="6">
+        <v>117</v>
+      </c>
+      <c r="B48" s="5">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="6">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="6">
+        <v>123</v>
+      </c>
+      <c r="B50" s="5">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="A51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="7">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>45</v>
+      <c r="C51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="6">
+        <v>127</v>
+      </c>
+      <c r="B52" s="5">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="A53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="7">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>45</v>
+      <c r="C53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="6">
+        <v>130</v>
+      </c>
+      <c r="B54" s="5">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="6">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="6">
+        <v>136</v>
+      </c>
+      <c r="B56" s="5">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="6">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="6">
+        <v>142</v>
+      </c>
+      <c r="B58" s="5">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="6">
+        <v>145</v>
+      </c>
+      <c r="B59" s="5">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="6">
+        <v>148</v>
+      </c>
+      <c r="B60" s="5">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="6">
+        <v>151</v>
+      </c>
+      <c r="B61" s="5">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="6">
+        <v>78</v>
+      </c>
+      <c r="B62" s="5">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="6">
+        <v>155</v>
+      </c>
+      <c r="B63" s="5">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="6">
+        <v>158</v>
+      </c>
+      <c r="B64" s="5">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="6">
+        <v>161</v>
+      </c>
+      <c r="B65" s="5">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" s="6">
+        <v>164</v>
+      </c>
+      <c r="B66" s="5">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="6">
+        <v>167</v>
+      </c>
+      <c r="B67" s="5">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="6">
+        <v>170</v>
+      </c>
+      <c r="B68" s="5">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="6">
+        <v>173</v>
+      </c>
+      <c r="B69" s="5">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" s="6">
+        <v>176</v>
+      </c>
+      <c r="B70" s="5">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="6">
+        <v>179</v>
+      </c>
+      <c r="B71" s="5">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45951.8336689815</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45951.9326967593</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2159,189 +2202,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>210</v>
+        <v>193</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>212</v>
+        <v>194</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>220</v>
+        <v>198</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>226</v>
+        <v>201</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>228</v>
+        <v>202</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>230</v>
+        <v>203</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,15 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
   </si>
   <si>
     <t>序列号（必填）</t>
@@ -571,63 +622,48 @@
     <t>2042243985</t>
   </si>
   <si>
-    <t>a8102a90</t>
+    <t>不二·唯翊</t>
+  </si>
+  <si>
+    <t>99cc9bd.</t>
+  </si>
+  <si>
+    <t>17381507</t>
+  </si>
+  <si>
+    <t>ㅤ虚舟渡</t>
+  </si>
+  <si>
+    <t>2180ae09</t>
+  </si>
+  <si>
+    <t>122070046</t>
+  </si>
+  <si>
+    <t>稻田已被犁尽</t>
+  </si>
+  <si>
+    <t>613be8a1</t>
+  </si>
+  <si>
+    <t>1307077732</t>
+  </si>
+  <si>
+    <t>k.</t>
+  </si>
+  <si>
+    <t>bb0ed330</t>
+  </si>
+  <si>
+    <t>3099720782</t>
+  </si>
+  <si>
+    <t>a8102a9.</t>
   </si>
   <si>
     <t>1554015133</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -642,18 +678,18 @@
   <si>
     <r>
       <rPr/>
+      <t>秋落北</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>d0fdfab0</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>秋落北</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>1749b33b</t>
     </r>
   </si>
@@ -702,18 +738,18 @@
   <si>
     <r>
       <rPr/>
+      <t>终若.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>终若.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>7a92bcf8</t>
     </r>
   </si>
@@ -726,18 +762,18 @@
   <si>
     <r>
       <rPr/>
+      <t>晅方</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>8943eb1a</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>晅方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>67d90357</t>
     </r>
   </si>
@@ -750,18 +786,18 @@
   <si>
     <r>
       <rPr/>
+      <t>Sakiio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>e42e7687</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>Sakiio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>e2877443</t>
     </r>
   </si>
@@ -774,18 +810,18 @@
   <si>
     <r>
       <rPr/>
+      <t>74cc9a81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>CyanCity</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>74cc9a81</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>67d0c2f4</t>
     </r>
   </si>
@@ -798,13 +834,13 @@
   <si>
     <r>
       <rPr/>
+      <t>一个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>64307a32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>一个人</t>
     </r>
   </si>
   <si>
@@ -850,10 +886,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -902,19 +938,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,7 +1255,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D73"/>
+  <dimension ref="D78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1230,957 +1266,1027 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5">
+        <v>68</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="5">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="5">
+        <v>74</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5">
+        <v>77</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="5">
+        <v>83</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="5">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="5">
+        <v>89</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="5">
+        <v>92</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="5">
+        <v>95</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="5">
+        <v>98</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="5">
+        <v>101</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="5">
+        <v>104</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5">
+        <v>107</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="5">
+        <v>110</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="5">
+        <v>113</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="5">
+        <v>116</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="5">
+        <v>119</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="5">
+        <v>122</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="5">
+        <v>125</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="5">
+        <v>128</v>
+      </c>
+      <c r="B46" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="5">
+        <v>131</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="5">
+        <v>134</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="5">
+        <v>137</v>
+      </c>
+      <c r="B49" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="5">
+        <v>140</v>
+      </c>
+      <c r="B50" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>28</v>
+      <c r="C51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="5">
+        <v>144</v>
+      </c>
+      <c r="B52" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>28</v>
+      <c r="C53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="5">
+        <v>147</v>
+      </c>
+      <c r="B54" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="5">
+        <v>150</v>
+      </c>
+      <c r="B55" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="5">
+        <v>153</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="5">
+        <v>156</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="5">
+        <v>159</v>
+      </c>
+      <c r="B58" s="6">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="5">
+        <v>162</v>
+      </c>
+      <c r="B59" s="6">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="5">
+        <v>165</v>
+      </c>
+      <c r="B60" s="6">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="5">
+        <v>168</v>
+      </c>
+      <c r="B61" s="6">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="5">
+        <v>95</v>
+      </c>
+      <c r="B62" s="6">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" s="5">
+        <v>172</v>
+      </c>
+      <c r="B63" s="6">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="5">
+        <v>175</v>
+      </c>
+      <c r="B64" s="6">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="5">
+        <v>178</v>
+      </c>
+      <c r="B65" s="6">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="5">
+        <v>181</v>
+      </c>
+      <c r="B66" s="6">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="5">
+        <v>184</v>
+      </c>
+      <c r="B67" s="6">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="5">
+        <v>187</v>
+      </c>
+      <c r="B68" s="6">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="5">
+        <v>190</v>
+      </c>
+      <c r="B69" s="6">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="5">
+        <v>193</v>
+      </c>
+      <c r="B70" s="6">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="5">
+        <v>196</v>
+      </c>
+      <c r="B71" s="6">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>182</v>
-      </c>
-      <c r="B72" s="5">
+        <v>199</v>
+      </c>
+      <c r="B72" s="6">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="5">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="8">
         <v>45951.9326967593</v>
       </c>
-      <c r="C73" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" t="s">
-        <v>186</v>
+      <c r="C73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="6">
+        <v>45952.0478472222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="6">
+        <v>45952.2558796296</v>
+      </c>
+      <c r="C75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="6">
+        <v>45952.7540625</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="6">
+        <v>45953.0750694445</v>
+      </c>
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6">
+        <v>45953.3749652778</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2202,189 +2308,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>187</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>205</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>207</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>211</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>213</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>215</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>217</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>219</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>221</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>223</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>225</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>227</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>228</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>231</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>233</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>235</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t/>
   </si>
@@ -664,6 +664,102 @@
     <t>1554015133</t>
   </si>
   <si>
+    <t>3d66f1c1</t>
+  </si>
+  <si>
+    <t>2425167078</t>
+  </si>
+  <si>
+    <t>大声发</t>
+  </si>
+  <si>
+    <t>6e70d1ea</t>
+  </si>
+  <si>
+    <t>176324771</t>
+  </si>
+  <si>
+    <t>盛师傅</t>
+  </si>
+  <si>
+    <t>8a0ddaac</t>
+  </si>
+  <si>
+    <t>1470740944</t>
+  </si>
+  <si>
+    <t>江東.</t>
+  </si>
+  <si>
+    <t>35557dba</t>
+  </si>
+  <si>
+    <t>1508574214</t>
+  </si>
+  <si>
+    <t>℘̶敗̶給̶鐘̶意</t>
+  </si>
+  <si>
+    <t>e3a9c24f</t>
+  </si>
+  <si>
+    <t>1718358607</t>
+  </si>
+  <si>
+    <t>🐏如画</t>
+  </si>
+  <si>
+    <t>ec74cad7</t>
+  </si>
+  <si>
+    <t>1828429965</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>7d895744</t>
+  </si>
+  <si>
+    <t>1542303450</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>60527ee0</t>
+  </si>
+  <si>
+    <t>3579627143</t>
+  </si>
+  <si>
+    <t>391111874</t>
+  </si>
+  <si>
+    <t>哭</t>
+  </si>
+  <si>
+    <t>2564982476</t>
+  </si>
+  <si>
+    <t>Voyager 1</t>
+  </si>
+  <si>
+    <t>c720d4f6</t>
+  </si>
+  <si>
+    <t>1508392412</t>
+  </si>
+  <si>
+    <t>shmily</t>
+  </si>
+  <si>
+    <t>f25dfbe5</t>
+  </si>
+  <si>
+    <t>3202344808</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -678,18 +774,18 @@
   <si>
     <r>
       <rPr/>
+      <t>d0fdfab0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>秋落北</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>d0fdfab0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>1749b33b</t>
     </r>
   </si>
@@ -702,18 +798,18 @@
   <si>
     <r>
       <rPr/>
+      <t>初晨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>32c238bf</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>初晨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>749499fb</t>
     </r>
   </si>
@@ -738,18 +834,18 @@
   <si>
     <r>
       <rPr/>
+      <t>f738671.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>终若.</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>f738671.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>7a92bcf8</t>
     </r>
   </si>
@@ -762,18 +858,18 @@
   <si>
     <r>
       <rPr/>
+      <t>8943eb1a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>晅方</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>8943eb1a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>67d90357</t>
     </r>
   </si>
@@ -786,13 +882,19 @@
   <si>
     <r>
       <rPr/>
+      <t>e42e7687</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>Sakiio</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>e42e7687</t>
+      <t>立东</t>
     </r>
   </si>
   <si>
@@ -804,12 +906,6 @@
   <si>
     <r>
       <rPr/>
-      <t>立东</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>74cc9a81</t>
     </r>
   </si>
@@ -834,13 +930,13 @@
   <si>
     <r>
       <rPr/>
+      <t>64307a32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>一个人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>64307a32</t>
     </r>
   </si>
   <si>
@@ -1255,7 +1351,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D78"/>
+  <dimension ref="D90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2287,6 +2383,174 @@
       </c>
       <c r="D78" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="6">
+        <v>45954.9465046296</v>
+      </c>
+      <c r="C79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="6">
+        <v>45955.4026851852</v>
+      </c>
+      <c r="C80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="6">
+        <v>45955.4330092593</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="6">
+        <v>45955.8014467593</v>
+      </c>
+      <c r="C82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="6">
+        <v>45955.8967476852</v>
+      </c>
+      <c r="C83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="6">
+        <v>45957.8094444445</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" s="6">
+        <v>45957.9504050926</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="6">
+        <v>45959.1914583333</v>
+      </c>
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6">
+        <v>45959.3531481482</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="6">
+        <v>45960.4028356482</v>
+      </c>
+      <c r="C88" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="6">
+        <v>45961.5695833333</v>
+      </c>
+      <c r="C89" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" s="6">
+        <v>45961.5820138889</v>
+      </c>
+      <c r="C90" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2322,10 +2586,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -2333,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -2344,10 +2608,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -2355,10 +2619,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -2366,10 +2630,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -2377,10 +2641,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -2388,10 +2652,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -2399,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -2410,10 +2674,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -2421,10 +2685,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -2432,10 +2696,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -2443,10 +2707,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -2454,10 +2718,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -2465,10 +2729,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -2476,10 +2740,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -2487,10 +2751,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t/>
   </si>
@@ -760,6 +760,15 @@
     <t>3202344808</t>
   </si>
   <si>
+    <t>　　　</t>
+  </si>
+  <si>
+    <t>c11baad8</t>
+  </si>
+  <si>
+    <t>2136639273</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -798,18 +807,18 @@
   <si>
     <r>
       <rPr/>
+      <t>32c238bf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>初晨</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>32c238bf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>749499fb</t>
     </r>
   </si>
@@ -822,18 +831,18 @@
   <si>
     <r>
       <rPr/>
+      <t>寓庸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>cc54218b</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>寓庸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
@@ -846,18 +855,18 @@
   <si>
     <r>
       <rPr/>
+      <t>AY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>7a92bcf8</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>AY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>8943eb1a</t>
     </r>
   </si>
@@ -894,18 +903,18 @@
   <si>
     <r>
       <rPr/>
+      <t>e2877443</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>立东</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>e2877443</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>74cc9a81</t>
     </r>
   </si>
@@ -918,13 +927,13 @@
   <si>
     <r>
       <rPr/>
+      <t>Over</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>67d0c2f4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>Over</t>
     </r>
   </si>
   <si>
@@ -1351,7 +1360,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D90"/>
+  <dimension ref="D91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2551,6 +2560,20 @@
       </c>
       <c r="D90" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="6">
+        <v>45962.8563425926</v>
+      </c>
+      <c r="C91" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2586,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -2597,10 +2620,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -2608,10 +2631,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -2619,10 +2642,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -2630,10 +2653,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -2641,10 +2664,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -2652,10 +2675,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -2663,10 +2686,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -2674,10 +2697,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -2685,10 +2708,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -2696,10 +2719,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -2707,10 +2730,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -2718,10 +2741,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -2729,10 +2752,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -2740,10 +2763,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -2751,10 +2774,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,740 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>序列号（必填）</t>
+  </si>
+  <si>
+    <t>QQ号（必填）</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
+  </si>
+  <si>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
+  </si>
+  <si>
+    <t>不问世事五千载</t>
+  </si>
+  <si>
+    <t>e547507a</t>
+  </si>
+  <si>
+    <t>158216094</t>
+  </si>
+  <si>
+    <t>在梦里见过你</t>
+  </si>
+  <si>
+    <t>dbbe0b14</t>
+  </si>
+  <si>
+    <t>2937797530</t>
+  </si>
+  <si>
+    <t>Satellite.</t>
+  </si>
+  <si>
+    <t>e272cd49</t>
+  </si>
+  <si>
+    <t>1125931910</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>8c09b4b0</t>
+  </si>
+  <si>
+    <t>2014017597</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9bd2e82f</t>
+  </si>
+  <si>
+    <t>169611364</t>
+  </si>
+  <si>
+    <t>一條鹹鱼🐟君</t>
+  </si>
+  <si>
+    <t>c0711cf4</t>
+  </si>
+  <si>
+    <t>750323931</t>
+  </si>
+  <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
+  </si>
+  <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>eb0f7284</t>
+  </si>
+  <si>
+    <t>781456741</t>
+  </si>
+  <si>
+    <t>文昊</t>
+  </si>
+  <si>
+    <t>883c8e20</t>
+  </si>
+  <si>
+    <t>1243776890</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>6cffec45</t>
+  </si>
+  <si>
+    <t>1007021745</t>
+  </si>
+  <si>
+    <t>Non-numb</t>
+  </si>
+  <si>
+    <t>f8241963</t>
+  </si>
+  <si>
+    <t>1183413694</t>
+  </si>
+  <si>
+    <t>WindGods</t>
+  </si>
+  <si>
+    <t>769cacfe</t>
+  </si>
+  <si>
+    <t>3501494634</t>
+  </si>
+  <si>
+    <t>天亮记得关灯</t>
+  </si>
+  <si>
+    <t>b97d7a30</t>
+  </si>
+  <si>
+    <t>1240538886</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6c198517</t>
+  </si>
+  <si>
+    <t>3291867868</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>a8cec24c</t>
+  </si>
+  <si>
+    <t>721844021</t>
+  </si>
+  <si>
+    <t>6d512350</t>
+  </si>
+  <si>
+    <t>情殇</t>
+  </si>
+  <si>
+    <t>cc8b8e9b</t>
+  </si>
+  <si>
+    <t>481613668</t>
+  </si>
+  <si>
+    <t>喝摩卡的Wiish</t>
+  </si>
+  <si>
+    <t>f4a577e0</t>
+  </si>
+  <si>
+    <t>1114161007</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>f0e7af44</t>
+  </si>
+  <si>
+    <t>1280082251</t>
+  </si>
+  <si>
+    <t>霰雪的天空</t>
+  </si>
+  <si>
+    <t>efb5bf5e</t>
+  </si>
+  <si>
+    <t>395432402</t>
+  </si>
+  <si>
+    <t>如果</t>
+  </si>
+  <si>
+    <t>f3bb7437</t>
+  </si>
+  <si>
+    <t>2752741520</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>d492fa67</t>
+  </si>
+  <si>
+    <t>571584956</t>
+  </si>
+  <si>
+    <t>隽昊</t>
+  </si>
+  <si>
+    <t>57c84d5.</t>
+  </si>
+  <si>
+    <t>992333681</t>
+  </si>
+  <si>
+    <t>卡米诺斯</t>
+  </si>
+  <si>
+    <t>224431c7</t>
+  </si>
+  <si>
+    <t>509958501</t>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>62b965f4</t>
+  </si>
+  <si>
+    <t>911578662</t>
+  </si>
+  <si>
+    <t>望川秋水</t>
+  </si>
+  <si>
+    <t>ce8133cc</t>
+  </si>
+  <si>
+    <t>2042243985</t>
+  </si>
+  <si>
+    <t>不二·唯翊</t>
+  </si>
+  <si>
+    <t>99cc9bd.</t>
+  </si>
+  <si>
+    <t>17381507</t>
+  </si>
+  <si>
+    <t>ㅤ虚舟渡</t>
+  </si>
+  <si>
+    <t>2180ae09</t>
+  </si>
+  <si>
+    <t>122070046</t>
+  </si>
+  <si>
+    <t>稻田已被犁尽</t>
+  </si>
+  <si>
+    <t>613be8a1</t>
+  </si>
+  <si>
+    <t>1307077732</t>
+  </si>
+  <si>
+    <t>k.</t>
+  </si>
+  <si>
+    <t>bb0ed330</t>
+  </si>
+  <si>
+    <t>3099720782</t>
+  </si>
+  <si>
+    <t>a8102a9.</t>
+  </si>
+  <si>
+    <t>1554015133</t>
+  </si>
+  <si>
+    <t>3d66f1c1</t>
+  </si>
+  <si>
+    <t>2425167078</t>
+  </si>
+  <si>
+    <t>大声发</t>
+  </si>
+  <si>
+    <t>6e70d1ea</t>
+  </si>
+  <si>
+    <t>176324771</t>
+  </si>
+  <si>
+    <t>盛师傅</t>
+  </si>
+  <si>
+    <t>8a0ddaac</t>
+  </si>
+  <si>
+    <t>1470740944</t>
+  </si>
+  <si>
+    <t>江東.</t>
+  </si>
+  <si>
+    <t>35557dba</t>
+  </si>
+  <si>
+    <t>1508574214</t>
+  </si>
+  <si>
+    <t>℘̶敗̶給̶鐘̶意</t>
+  </si>
+  <si>
+    <t>e3a9c24f</t>
+  </si>
+  <si>
+    <t>1718358607</t>
+  </si>
+  <si>
+    <t>🐏如画</t>
+  </si>
+  <si>
+    <t>ec74cad7</t>
+  </si>
+  <si>
+    <t>1828429965</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>7d895744</t>
+  </si>
+  <si>
+    <t>1542303450</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>60527ee0</t>
+  </si>
+  <si>
+    <t>3579627143</t>
+  </si>
+  <si>
+    <t>391111874</t>
+  </si>
+  <si>
+    <t>哭</t>
+  </si>
+  <si>
+    <t>2564982476</t>
+  </si>
+  <si>
+    <t>Voyager 1</t>
+  </si>
+  <si>
+    <t>c720d4f6</t>
+  </si>
+  <si>
+    <t>1508392412</t>
+  </si>
+  <si>
+    <t>shmily</t>
+  </si>
+  <si>
+    <t>f25dfbe5</t>
+  </si>
+  <si>
+    <t>3202344808</t>
+  </si>
+  <si>
+    <t>　　　</t>
+  </si>
+  <si>
+    <t>c11baad8</t>
+  </si>
+  <si>
+    <t>2136639273</t>
+  </si>
+  <si>
+    <t>゛习惯了ぃ想你づ</t>
+  </si>
+  <si>
+    <t>ada1e361</t>
+  </si>
+  <si>
+    <t>1516016627</t>
+  </si>
+  <si>
+    <t>祸水</t>
+  </si>
+  <si>
+    <t>807c37da</t>
+  </si>
+  <si>
+    <t>3130806109</t>
+  </si>
+  <si>
+    <t>虾仁</t>
+  </si>
+  <si>
+    <t>4c2e5a43</t>
+  </si>
+  <si>
+    <t>2336762643</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -76,699 +796,6 @@
     <t>2025年8月26日 23:25</t>
   </si>
   <si>
-    <t>序列号（必填）</t>
-  </si>
-  <si>
-    <t>QQ号（必填）</t>
-  </si>
-  <si>
-    <t>陆十柒（羽翼春秋）</t>
-  </si>
-  <si>
-    <t>2b937519</t>
-  </si>
-  <si>
-    <t>秋落北</t>
-  </si>
-  <si>
-    <t>d0fdfab0</t>
-  </si>
-  <si>
-    <t>诚</t>
-  </si>
-  <si>
-    <t>1749b33b</t>
-  </si>
-  <si>
-    <t>初晨</t>
-  </si>
-  <si>
-    <t>32c238bf</t>
-  </si>
-  <si>
-    <t>[$ǿĀD]1212121[$ǿĀD]</t>
-  </si>
-  <si>
-    <t>749499fb</t>
-  </si>
-  <si>
-    <t>寓庸</t>
-  </si>
-  <si>
-    <t>cc54218b</t>
-  </si>
-  <si>
-    <t>终若.</t>
-  </si>
-  <si>
-    <t>f738671.</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>67d90357</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>已删除</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
-  </si>
-  <si>
-    <t>二十一</t>
-  </si>
-  <si>
-    <t>e964b1e9</t>
-  </si>
-  <si>
-    <t>820078578</t>
-  </si>
-  <si>
-    <t>帝国守护之守望苍穹</t>
-  </si>
-  <si>
-    <t>3302034a</t>
-  </si>
-  <si>
-    <t>907566442</t>
-  </si>
-  <si>
-    <t>无奈</t>
-  </si>
-  <si>
-    <t>9b41a46b</t>
-  </si>
-  <si>
-    <t>487996763</t>
-  </si>
-  <si>
-    <t>哦</t>
-  </si>
-  <si>
-    <t>fee46bac</t>
-  </si>
-  <si>
-    <t>1730863123</t>
-  </si>
-  <si>
-    <t>落叶</t>
-  </si>
-  <si>
-    <t>6c3bcd6f</t>
-  </si>
-  <si>
-    <t>3382881855</t>
-  </si>
-  <si>
-    <t>我是mc</t>
-  </si>
-  <si>
-    <t>46e4be66</t>
-  </si>
-  <si>
-    <t>2721614772</t>
-  </si>
-  <si>
-    <t>无执T̶o̶n̶z̶y̶</t>
-  </si>
-  <si>
-    <t>72880a09</t>
-  </si>
-  <si>
-    <t>3521425739</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>fd81cb3d</t>
-  </si>
-  <si>
-    <t>908289638</t>
-  </si>
-  <si>
-    <t>YL.</t>
-  </si>
-  <si>
-    <t>a4c3e725</t>
-  </si>
-  <si>
-    <t>918357021</t>
-  </si>
-  <si>
-    <t>Tears.</t>
-  </si>
-  <si>
-    <t>1b30a393</t>
-  </si>
-  <si>
-    <t>3214774599</t>
-  </si>
-  <si>
-    <t>衔花送月到渡口</t>
-  </si>
-  <si>
-    <t>ff109235</t>
-  </si>
-  <si>
-    <t>2283538335</t>
-  </si>
-  <si>
-    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
-  </si>
-  <si>
-    <t>64a075c9</t>
-  </si>
-  <si>
-    <t>1876568293</t>
-  </si>
-  <si>
-    <t>不问世事五千载</t>
-  </si>
-  <si>
-    <t>e547507a</t>
-  </si>
-  <si>
-    <t>158216094</t>
-  </si>
-  <si>
-    <t>在梦里见过你</t>
-  </si>
-  <si>
-    <t>dbbe0b14</t>
-  </si>
-  <si>
-    <t>2937797530</t>
-  </si>
-  <si>
-    <t>Satellite.</t>
-  </si>
-  <si>
-    <t>e272cd49</t>
-  </si>
-  <si>
-    <t>1125931910</t>
-  </si>
-  <si>
-    <t>pots</t>
-  </si>
-  <si>
-    <t>8c09b4b0</t>
-  </si>
-  <si>
-    <t>2014017597</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9bd2e82f</t>
-  </si>
-  <si>
-    <t>169611364</t>
-  </si>
-  <si>
-    <t>一條鹹鱼🐟君</t>
-  </si>
-  <si>
-    <t>c0711cf4</t>
-  </si>
-  <si>
-    <t>750323931</t>
-  </si>
-  <si>
-    <t>槿桥</t>
-  </si>
-  <si>
-    <t>551e9bbd</t>
-  </si>
-  <si>
-    <t>929535772</t>
-  </si>
-  <si>
-    <t>狐兰朵露</t>
-  </si>
-  <si>
-    <t>e912c56.</t>
-  </si>
-  <si>
-    <t>2242977200</t>
-  </si>
-  <si>
-    <t>a'ゞ苏苏</t>
-  </si>
-  <si>
-    <t>51a71d6b</t>
-  </si>
-  <si>
-    <t>1084629163</t>
-  </si>
-  <si>
-    <t>一切皆有可能</t>
-  </si>
-  <si>
-    <t>3b7dfb5c</t>
-  </si>
-  <si>
-    <t>1312087292</t>
-  </si>
-  <si>
-    <t>彼世节拍</t>
-  </si>
-  <si>
-    <t>fdef3cc8</t>
-  </si>
-  <si>
-    <t>1762488480</t>
-  </si>
-  <si>
-    <t>嘻嘻嘻</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>4b24a6b7</t>
-  </si>
-  <si>
-    <t>2751393486</t>
-  </si>
-  <si>
-    <t>        </t>
-  </si>
-  <si>
-    <t>eb0f7284</t>
-  </si>
-  <si>
-    <t>781456741</t>
-  </si>
-  <si>
-    <t>文昊</t>
-  </si>
-  <si>
-    <t>883c8e20</t>
-  </si>
-  <si>
-    <t>1243776890</t>
-  </si>
-  <si>
-    <t>clh</t>
-  </si>
-  <si>
-    <t>6cffec45</t>
-  </si>
-  <si>
-    <t>1007021745</t>
-  </si>
-  <si>
-    <t>Non-numb</t>
-  </si>
-  <si>
-    <t>f8241963</t>
-  </si>
-  <si>
-    <t>1183413694</t>
-  </si>
-  <si>
-    <t>WindGods</t>
-  </si>
-  <si>
-    <t>769cacfe</t>
-  </si>
-  <si>
-    <t>3501494634</t>
-  </si>
-  <si>
-    <t>天亮记得关灯</t>
-  </si>
-  <si>
-    <t>b97d7a30</t>
-  </si>
-  <si>
-    <t>1240538886</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6c198517</t>
-  </si>
-  <si>
-    <t>3291867868</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>a8cec24c</t>
-  </si>
-  <si>
-    <t>721844021</t>
-  </si>
-  <si>
-    <t>6d512350</t>
-  </si>
-  <si>
-    <t>情殇</t>
-  </si>
-  <si>
-    <t>cc8b8e9b</t>
-  </si>
-  <si>
-    <t>481613668</t>
-  </si>
-  <si>
-    <t>喝摩卡的Wiish</t>
-  </si>
-  <si>
-    <t>f4a577e0</t>
-  </si>
-  <si>
-    <t>1114161007</t>
-  </si>
-  <si>
-    <t>Saro</t>
-  </si>
-  <si>
-    <t>f0e7af44</t>
-  </si>
-  <si>
-    <t>1280082251</t>
-  </si>
-  <si>
-    <t>霰雪的天空</t>
-  </si>
-  <si>
-    <t>efb5bf5e</t>
-  </si>
-  <si>
-    <t>395432402</t>
-  </si>
-  <si>
-    <t>如果</t>
-  </si>
-  <si>
-    <t>f3bb7437</t>
-  </si>
-  <si>
-    <t>2752741520</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>d492fa67</t>
-  </si>
-  <si>
-    <t>571584956</t>
-  </si>
-  <si>
-    <t>隽昊</t>
-  </si>
-  <si>
-    <t>57c84d5.</t>
-  </si>
-  <si>
-    <t>992333681</t>
-  </si>
-  <si>
-    <t>卡米诺斯</t>
-  </si>
-  <si>
-    <t>224431c7</t>
-  </si>
-  <si>
-    <t>509958501</t>
-  </si>
-  <si>
-    <t>流星</t>
-  </si>
-  <si>
-    <t>62b965f4</t>
-  </si>
-  <si>
-    <t>911578662</t>
-  </si>
-  <si>
-    <t>望川秋水</t>
-  </si>
-  <si>
-    <t>ce8133cc</t>
-  </si>
-  <si>
-    <t>2042243985</t>
-  </si>
-  <si>
-    <t>不二·唯翊</t>
-  </si>
-  <si>
-    <t>99cc9bd.</t>
-  </si>
-  <si>
-    <t>17381507</t>
-  </si>
-  <si>
-    <t>ㅤ虚舟渡</t>
-  </si>
-  <si>
-    <t>2180ae09</t>
-  </si>
-  <si>
-    <t>122070046</t>
-  </si>
-  <si>
-    <t>稻田已被犁尽</t>
-  </si>
-  <si>
-    <t>613be8a1</t>
-  </si>
-  <si>
-    <t>1307077732</t>
-  </si>
-  <si>
-    <t>k.</t>
-  </si>
-  <si>
-    <t>bb0ed330</t>
-  </si>
-  <si>
-    <t>3099720782</t>
-  </si>
-  <si>
-    <t>a8102a9.</t>
-  </si>
-  <si>
-    <t>1554015133</t>
-  </si>
-  <si>
-    <t>3d66f1c1</t>
-  </si>
-  <si>
-    <t>2425167078</t>
-  </si>
-  <si>
-    <t>大声发</t>
-  </si>
-  <si>
-    <t>6e70d1ea</t>
-  </si>
-  <si>
-    <t>176324771</t>
-  </si>
-  <si>
-    <t>盛师傅</t>
-  </si>
-  <si>
-    <t>8a0ddaac</t>
-  </si>
-  <si>
-    <t>1470740944</t>
-  </si>
-  <si>
-    <t>江東.</t>
-  </si>
-  <si>
-    <t>35557dba</t>
-  </si>
-  <si>
-    <t>1508574214</t>
-  </si>
-  <si>
-    <t>℘̶敗̶給̶鐘̶意</t>
-  </si>
-  <si>
-    <t>e3a9c24f</t>
-  </si>
-  <si>
-    <t>1718358607</t>
-  </si>
-  <si>
-    <t>🐏如画</t>
-  </si>
-  <si>
-    <t>ec74cad7</t>
-  </si>
-  <si>
-    <t>1828429965</t>
-  </si>
-  <si>
-    <t>ly</t>
-  </si>
-  <si>
-    <t>7d895744</t>
-  </si>
-  <si>
-    <t>1542303450</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>60527ee0</t>
-  </si>
-  <si>
-    <t>3579627143</t>
-  </si>
-  <si>
-    <t>391111874</t>
-  </si>
-  <si>
-    <t>哭</t>
-  </si>
-  <si>
-    <t>2564982476</t>
-  </si>
-  <si>
-    <t>Voyager 1</t>
-  </si>
-  <si>
-    <t>c720d4f6</t>
-  </si>
-  <si>
-    <t>1508392412</t>
-  </si>
-  <si>
-    <t>shmily</t>
-  </si>
-  <si>
-    <t>f25dfbe5</t>
-  </si>
-  <si>
-    <t>3202344808</t>
-  </si>
-  <si>
-    <t>　　　</t>
-  </si>
-  <si>
-    <t>c11baad8</t>
-  </si>
-  <si>
-    <t>2136639273</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>2b937519</t>
@@ -831,18 +858,18 @@
   <si>
     <r>
       <rPr/>
+      <t>cc54218b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>寓庸</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>cc54218b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
@@ -855,18 +882,18 @@
   <si>
     <r>
       <rPr/>
+      <t>7a92bcf8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>AY</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>7a92bcf8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>8943eb1a</t>
     </r>
   </si>
@@ -927,13 +954,13 @@
   <si>
     <r>
       <rPr/>
+      <t>67d0c2f4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>Over</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>67d0c2f4</t>
     </r>
   </si>
   <si>
@@ -991,10 +1018,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
       <strike val="true"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -1043,19 +1070,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf fontId="3" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1387,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D91"/>
+  <dimension ref="D94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1371,1209 +1398,1251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
         <v>45893.4208101852</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="7" t="s"/>
+      <c r="C20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="6">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="6">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="6">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="6">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="6">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="6">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="6">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="6">
+        <v>72</v>
+      </c>
+      <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="6">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="6">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="6">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="6">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="6">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="6">
+        <v>90</v>
+      </c>
+      <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="6">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="6">
+        <v>96</v>
+      </c>
+      <c r="B41" s="5">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="6">
+        <v>99</v>
+      </c>
+      <c r="B42" s="5">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="6">
+        <v>102</v>
+      </c>
+      <c r="B43" s="5">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="6">
+        <v>105</v>
+      </c>
+      <c r="B44" s="5">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="6">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="6">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="6">
+        <v>114</v>
+      </c>
+      <c r="B47" s="5">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="6">
+        <v>117</v>
+      </c>
+      <c r="B48" s="5">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="6">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="6">
+        <v>123</v>
+      </c>
+      <c r="B50" s="5">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="A51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="7">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>45</v>
+      <c r="C51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="6">
+        <v>127</v>
+      </c>
+      <c r="B52" s="5">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="A53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="7">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>45</v>
+      <c r="C53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="6">
+        <v>130</v>
+      </c>
+      <c r="B54" s="5">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="6">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="6">
+        <v>136</v>
+      </c>
+      <c r="B56" s="5">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="6">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="6">
+        <v>142</v>
+      </c>
+      <c r="B58" s="5">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="6">
+        <v>145</v>
+      </c>
+      <c r="B59" s="5">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="6">
+        <v>148</v>
+      </c>
+      <c r="B60" s="5">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="6">
+        <v>151</v>
+      </c>
+      <c r="B61" s="5">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="6">
+        <v>78</v>
+      </c>
+      <c r="B62" s="5">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="6">
+        <v>155</v>
+      </c>
+      <c r="B63" s="5">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="6">
+        <v>158</v>
+      </c>
+      <c r="B64" s="5">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="6">
+        <v>161</v>
+      </c>
+      <c r="B65" s="5">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" s="6">
+        <v>164</v>
+      </c>
+      <c r="B66" s="5">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="6">
+        <v>167</v>
+      </c>
+      <c r="B67" s="5">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="6">
+        <v>170</v>
+      </c>
+      <c r="B68" s="5">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="6">
+        <v>173</v>
+      </c>
+      <c r="B69" s="5">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" s="6">
+        <v>176</v>
+      </c>
+      <c r="B70" s="5">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="6">
+        <v>179</v>
+      </c>
+      <c r="B71" s="5">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="6">
+        <v>182</v>
+      </c>
+      <c r="B72" s="5">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="8">
+      <c r="A73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="7">
         <v>45951.9326967593</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>45</v>
+      <c r="C73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" s="6">
+        <v>185</v>
+      </c>
+      <c r="B74" s="5">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="6">
+        <v>188</v>
+      </c>
+      <c r="B75" s="5">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>208</v>
-      </c>
-      <c r="B76" s="6">
+        <v>191</v>
+      </c>
+      <c r="B76" s="5">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>211</v>
-      </c>
-      <c r="B77" s="6">
+        <v>194</v>
+      </c>
+      <c r="B77" s="5">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="6">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5">
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6">
+        <v>5</v>
+      </c>
+      <c r="B79" s="5">
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="6">
+        <v>201</v>
+      </c>
+      <c r="B80" s="5">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="6">
+        <v>204</v>
+      </c>
+      <c r="B81" s="5">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" s="6">
+        <v>207</v>
+      </c>
+      <c r="B82" s="5">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>227</v>
-      </c>
-      <c r="B83" s="6">
+        <v>210</v>
+      </c>
+      <c r="B83" s="5">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" s="6">
+        <v>213</v>
+      </c>
+      <c r="B84" s="5">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>233</v>
-      </c>
-      <c r="B85" s="6">
+        <v>216</v>
+      </c>
+      <c r="B85" s="5">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" s="6">
+        <v>219</v>
+      </c>
+      <c r="B86" s="5">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="6">
+        <v>17</v>
+      </c>
+      <c r="B87" s="5">
         <v>45959.3531481482</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" s="6">
+        <v>223</v>
+      </c>
+      <c r="B88" s="5">
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>242</v>
-      </c>
-      <c r="B89" s="6">
+        <v>225</v>
+      </c>
+      <c r="B89" s="5">
         <v>45961.5695833333</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>245</v>
-      </c>
-      <c r="B90" s="6">
+        <v>228</v>
+      </c>
+      <c r="B90" s="5">
         <v>45961.5820138889</v>
       </c>
       <c r="C90" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" s="6">
+        <v>231</v>
+      </c>
+      <c r="B91" s="5">
         <v>45962.8563425926</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" s="5">
+        <v>45963.3198611111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45963.4459375</v>
+      </c>
+      <c r="C93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>240</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45963.4798842593</v>
+      </c>
+      <c r="C94" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2595,189 +2664,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>264</v>
+        <v>250</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>265</v>
+        <v>251</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>268</v>
+        <v>252</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>276</v>
+        <v>256</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>277</v>
+        <v>257</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>280</v>
+        <v>258</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>282</v>
+        <v>259</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t/>
   </si>
@@ -745,6 +745,24 @@
     <t>2336762643</t>
   </si>
   <si>
+    <t>锡纸上的忧伤</t>
+  </si>
+  <si>
+    <t>5efd1616</t>
+  </si>
+  <si>
+    <t>1039972313</t>
+  </si>
+  <si>
+    <t>Promise.</t>
+  </si>
+  <si>
+    <t>3cbc7e91</t>
+  </si>
+  <si>
+    <t>2926886958</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -906,18 +924,18 @@
   <si>
     <r>
       <rPr/>
+      <t>Hydro_Gen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>67d90357</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>Hydro_Gen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>e42e7687</t>
     </r>
   </si>
@@ -930,13 +948,13 @@
   <si>
     <r>
       <rPr/>
+      <t>立东</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>e2877443</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>立东</t>
     </r>
   </si>
   <si>
@@ -1387,7 +1405,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D94"/>
+  <dimension ref="D96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2643,6 +2661,34 @@
       </c>
       <c r="D94" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>243</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45963.5821064815</v>
+      </c>
+      <c r="C95" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>246</v>
+      </c>
+      <c r="B96" s="5">
+        <v>45963.7414467593</v>
+      </c>
+      <c r="C96" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2675,178 +2721,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t/>
   </si>
@@ -88,7 +88,7 @@
     <t>Hydro_Gen</t>
   </si>
   <si>
-    <t>67d90357</t>
+    <t>已删除</t>
   </si>
   <si>
     <t>Sakiio</t>
@@ -100,9 +100,6 @@
     <t>立东</t>
   </si>
   <si>
-    <t>已删除</t>
-  </si>
-  <si>
     <t>CyanCity</t>
   </si>
   <si>
@@ -763,6 +760,42 @@
     <t>2926886958</t>
   </si>
   <si>
+    <t>愤怒的多多罗</t>
+  </si>
+  <si>
+    <t>f360f9de</t>
+  </si>
+  <si>
+    <t>1801868669</t>
+  </si>
+  <si>
+    <t>二拾三.</t>
+  </si>
+  <si>
+    <t>8ecc4844</t>
+  </si>
+  <si>
+    <t>317729168</t>
+  </si>
+  <si>
+    <t>明天</t>
+  </si>
+  <si>
+    <t>f54cb0ab</t>
+  </si>
+  <si>
+    <t>404339201</t>
+  </si>
+  <si>
+    <t>Lotte</t>
+  </si>
+  <si>
+    <t>c936b4ee</t>
+  </si>
+  <si>
+    <t>1367351226</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -924,18 +957,18 @@
   <si>
     <r>
       <rPr/>
+      <t>67d90357</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>Hydro_Gen</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>67d90357</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>e42e7687</t>
     </r>
   </si>
@@ -948,13 +981,13 @@
   <si>
     <r>
       <rPr/>
+      <t>e2877443</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>立东</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>e2877443</t>
     </r>
   </si>
   <si>
@@ -1405,7 +1438,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D96"/>
+  <dimension ref="D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1528,14 +1561,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>45893.4208101852</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1558,81 +1594,81 @@
         <v>45894.77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7">
         <v>45896.8489236111</v>
@@ -1641,718 +1677,718 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7">
         <v>45897.9370717593</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
         <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
         <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
         <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
         <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
         <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
         <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
         <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
         <v>94</v>
-      </c>
-      <c r="D40" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="5">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
         <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="5">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
         <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="5">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
         <v>103</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="5">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
         <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="5">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
         <v>109</v>
-      </c>
-      <c r="D45" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="5">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
         <v>112</v>
-      </c>
-      <c r="D46" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="5">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
         <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="5">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
         <v>118</v>
-      </c>
-      <c r="D48" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="5">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
         <v>121</v>
-      </c>
-      <c r="D49" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="5">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
         <v>124</v>
-      </c>
-      <c r="D50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="7">
         <v>45923.5852662037</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="5">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
         <v>128</v>
-      </c>
-      <c r="D52" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="7">
         <v>45929.8563310185</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="5">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
         <v>131</v>
-      </c>
-      <c r="D54" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="5">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
         <v>134</v>
-      </c>
-      <c r="D55" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="5">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" t="s">
         <v>137</v>
-      </c>
-      <c r="D56" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" s="5">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
         <v>140</v>
-      </c>
-      <c r="D57" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" s="5">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
         <v>143</v>
-      </c>
-      <c r="D58" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="5">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
         <v>146</v>
-      </c>
-      <c r="D59" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="5">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
         <v>149</v>
-      </c>
-      <c r="D60" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" s="5">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
         <v>152</v>
-      </c>
-      <c r="D61" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="5">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="5">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" t="s">
         <v>156</v>
-      </c>
-      <c r="D63" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="5">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
         <v>159</v>
-      </c>
-      <c r="D64" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="5">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" t="s">
         <v>162</v>
-      </c>
-      <c r="D65" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" s="5">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="s">
         <v>165</v>
-      </c>
-      <c r="D66" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B67" s="5">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
         <v>168</v>
-      </c>
-      <c r="D67" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="5">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" t="s">
         <v>171</v>
-      </c>
-      <c r="D68" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" s="5">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" t="s">
         <v>174</v>
-      </c>
-      <c r="D69" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="5">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s">
         <v>177</v>
-      </c>
-      <c r="D70" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B71" s="5">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" t="s">
         <v>180</v>
-      </c>
-      <c r="D71" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" s="5">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
         <v>183</v>
-      </c>
-      <c r="D72" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2363,66 +2399,66 @@
         <v>45951.9326967593</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B74" s="5">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" t="s">
         <v>186</v>
-      </c>
-      <c r="D74" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B75" s="5">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" t="s">
         <v>189</v>
-      </c>
-      <c r="D75" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B76" s="5">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" t="s">
         <v>192</v>
-      </c>
-      <c r="D76" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77" s="5">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" t="s">
         <v>195</v>
-      </c>
-      <c r="D77" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2433,10 +2469,10 @@
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" t="s">
         <v>197</v>
-      </c>
-      <c r="D78" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2447,108 +2483,108 @@
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" t="s">
         <v>199</v>
-      </c>
-      <c r="D79" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="5">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" t="s">
         <v>202</v>
-      </c>
-      <c r="D80" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="5">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" t="s">
         <v>205</v>
-      </c>
-      <c r="D81" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82" s="5">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" t="s">
         <v>208</v>
-      </c>
-      <c r="D82" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83" s="5">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" t="s">
         <v>211</v>
-      </c>
-      <c r="D83" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B84" s="5">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" t="s">
         <v>214</v>
-      </c>
-      <c r="D84" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B85" s="5">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" t="s">
         <v>217</v>
-      </c>
-      <c r="D85" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B86" s="5">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" t="s">
         <v>220</v>
-      </c>
-      <c r="D86" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2562,133 +2598,189 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" s="5">
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B89" s="5">
         <v>45961.5695833333</v>
       </c>
       <c r="C89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" t="s">
         <v>226</v>
-      </c>
-      <c r="D89" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B90" s="5">
         <v>45961.5820138889</v>
       </c>
       <c r="C90" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" t="s">
         <v>229</v>
-      </c>
-      <c r="D90" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B91" s="5">
         <v>45962.8563425926</v>
       </c>
       <c r="C91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" t="s">
         <v>232</v>
-      </c>
-      <c r="D91" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B92" s="5">
         <v>45963.3198611111</v>
       </c>
       <c r="C92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" t="s">
         <v>235</v>
-      </c>
-      <c r="D92" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B93" s="5">
         <v>45963.4459375</v>
       </c>
       <c r="C93" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" t="s">
         <v>238</v>
-      </c>
-      <c r="D93" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B94" s="5">
         <v>45963.4798842593</v>
       </c>
       <c r="C94" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" t="s">
         <v>241</v>
-      </c>
-      <c r="D94" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95" s="5">
         <v>45963.5821064815</v>
       </c>
       <c r="C95" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" t="s">
         <v>244</v>
-      </c>
-      <c r="D95" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B96" s="5">
         <v>45963.7414467593</v>
       </c>
       <c r="C96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" t="s">
         <v>247</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
         <v>248</v>
+      </c>
+      <c r="B97" s="5">
+        <v>45965.950474537</v>
+      </c>
+      <c r="C97" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" s="5">
+        <v>45966.5753009259</v>
+      </c>
+      <c r="C98" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99" s="5">
+        <v>45968.8870138889</v>
+      </c>
+      <c r="C99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>257</v>
+      </c>
+      <c r="B100" s="5">
+        <v>45968.9302199074</v>
+      </c>
+      <c r="C100" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2721,178 +2813,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t/>
   </si>
@@ -796,6 +796,42 @@
     <t>1367351226</t>
   </si>
   <si>
+    <t>Kakarot.</t>
+  </si>
+  <si>
+    <t>46278631</t>
+  </si>
+  <si>
+    <t>3446480369</t>
+  </si>
+  <si>
+    <t>譚</t>
+  </si>
+  <si>
+    <t>bfa75387</t>
+  </si>
+  <si>
+    <t>2936566799</t>
+  </si>
+  <si>
+    <t>　  萌虎出没</t>
+  </si>
+  <si>
+    <t>b9cab845</t>
+  </si>
+  <si>
+    <t>2980931837</t>
+  </si>
+  <si>
+    <t>iiixxxx-7.</t>
+  </si>
+  <si>
+    <t>53dfa103</t>
+  </si>
+  <si>
+    <t>1427967793</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -849,18 +885,18 @@
   <si>
     <r>
       <rPr/>
+      <t>陆十柒（羽翼春秋）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>2b937519</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>陆十柒（羽翼春秋）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>d0fdfab0</t>
     </r>
   </si>
@@ -945,13 +981,13 @@
   <si>
     <r>
       <rPr/>
+      <t>晅方</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>8943eb1a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>晅方</t>
     </r>
   </si>
   <si>
@@ -1438,7 +1474,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D100"/>
+  <dimension ref="D104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2781,6 +2817,62 @@
       </c>
       <c r="D100" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>260</v>
+      </c>
+      <c r="B101" s="5">
+        <v>45969.5273842593</v>
+      </c>
+      <c r="C101" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="5">
+        <v>45969.6453819445</v>
+      </c>
+      <c r="C102" t="s">
+        <v>264</v>
+      </c>
+      <c r="D102" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" s="5">
+        <v>45969.8944328704</v>
+      </c>
+      <c r="C103" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" s="5">
+        <v>45969.9042361111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2813,178 +2905,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t/>
   </si>
@@ -830,6 +830,33 @@
   </si>
   <si>
     <t>1427967793</t>
+  </si>
+  <si>
+    <t>刻</t>
+  </si>
+  <si>
+    <t>ba3ef151</t>
+  </si>
+  <si>
+    <t>2512200699</t>
+  </si>
+  <si>
+    <t>⁦⁦</t>
+  </si>
+  <si>
+    <t>5525cf80</t>
+  </si>
+  <si>
+    <t>2628639578</t>
+  </si>
+  <si>
+    <t>鱼丸粗面</t>
+  </si>
+  <si>
+    <t>d2051fdf</t>
+  </si>
+  <si>
+    <t>2942666153</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
@@ -981,13 +1008,13 @@
   <si>
     <r>
       <rPr/>
-      <t>晅方</t>
+      <t>8943eb1a</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>8943eb1a</t>
+      <t>晅方</t>
     </r>
   </si>
   <si>
@@ -1474,7 +1501,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D104"/>
+  <dimension ref="D107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2873,6 +2900,48 @@
       </c>
       <c r="D104" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="5">
+        <v>45973.8885185185</v>
+      </c>
+      <c r="C105" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="5">
+        <v>45973.9549305556</v>
+      </c>
+      <c r="C106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" s="5">
+        <v>45974.0308449074</v>
+      </c>
+      <c r="C107" t="s">
+        <v>279</v>
+      </c>
+      <c r="D107" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2905,178 +2974,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t/>
   </si>
@@ -857,6 +857,15 @@
   </si>
   <si>
     <t>2942666153</t>
+  </si>
+  <si>
+    <t>　　　　　　　　</t>
+  </si>
+  <si>
+    <t>80c240b6</t>
+  </si>
+  <si>
+    <t>1623546551</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
@@ -1501,7 +1510,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D107"/>
+  <dimension ref="D108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2942,6 +2951,20 @@
       </c>
       <c r="D107" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" s="5">
+        <v>45976.9116898148</v>
+      </c>
+      <c r="C108" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2974,178 +2997,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,15 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
   </si>
   <si>
     <t>序列号（必填）</t>
@@ -868,55 +919,25 @@
     <t>1623546551</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>4c2cc8c6</t>
+  </si>
+  <si>
+    <t>1503403546</t>
+  </si>
+  <si>
+    <t>cyc</t>
+  </si>
+  <si>
+    <t>cdec554d</t>
+  </si>
+  <si>
+    <t>2648616816</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>2b937519</t>
+    </r>
   </si>
   <si>
     <r>
@@ -927,7 +948,7 @@
   <si>
     <r>
       <rPr/>
-      <t>2b937519</t>
+      <t>秋落北</t>
     </r>
   </si>
   <si>
@@ -939,12 +960,6 @@
   <si>
     <r>
       <rPr/>
-      <t>秋落北</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>1749b33b</t>
     </r>
   </si>
@@ -969,13 +984,13 @@
   <si>
     <r>
       <rPr/>
-      <t>749499fb</t>
+      <t>[$ǿĀD]1212121[$ǿĀD]</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>[$ǿĀD]1212121[$ǿĀD]</t>
+      <t>749499fb</t>
     </r>
   </si>
   <si>
@@ -1041,13 +1056,13 @@
   <si>
     <r>
       <rPr/>
-      <t>e42e7687</t>
+      <t>Sakiio</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>Sakiio</t>
+      <t>e42e7687</t>
     </r>
   </si>
   <si>
@@ -1065,13 +1080,13 @@
   <si>
     <r>
       <rPr/>
-      <t>74cc9a81</t>
+      <t>CyanCity</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>CyanCity</t>
+      <t>74cc9a81</t>
     </r>
   </si>
   <si>
@@ -1141,10 +1156,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -1193,19 +1208,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1510,7 +1525,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D108"/>
+  <dimension ref="D110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1521,1450 +1536,1478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8">
         <v>45893.4208101852</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="5">
+        <v>64</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>24</v>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="5">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5">
+        <v>76</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="5">
+        <v>79</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="5">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="5">
+        <v>85</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="5">
+        <v>88</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="5">
+        <v>91</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5">
+        <v>94</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="5">
+        <v>97</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="5">
+        <v>100</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5">
+        <v>103</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5">
+        <v>106</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="5">
+        <v>109</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="5">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="5">
+        <v>118</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="5">
+        <v>121</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="5">
+        <v>124</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="5">
+        <v>127</v>
+      </c>
+      <c r="B46" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="5">
+        <v>130</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="5">
+        <v>133</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5">
+        <v>136</v>
+      </c>
+      <c r="B49" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="5">
+        <v>139</v>
+      </c>
+      <c r="B50" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>24</v>
+      <c r="C51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="5">
+        <v>143</v>
+      </c>
+      <c r="B52" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>24</v>
+      <c r="C53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="5">
+        <v>146</v>
+      </c>
+      <c r="B54" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="5">
+        <v>149</v>
+      </c>
+      <c r="B55" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="5">
+        <v>152</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="5">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="5">
+        <v>158</v>
+      </c>
+      <c r="B58" s="6">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="5">
+        <v>161</v>
+      </c>
+      <c r="B59" s="6">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="5">
+        <v>164</v>
+      </c>
+      <c r="B60" s="6">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="5">
+        <v>167</v>
+      </c>
+      <c r="B61" s="6">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="5">
+        <v>94</v>
+      </c>
+      <c r="B62" s="6">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="5">
+        <v>171</v>
+      </c>
+      <c r="B63" s="6">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="5">
+        <v>174</v>
+      </c>
+      <c r="B64" s="6">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="5">
+        <v>177</v>
+      </c>
+      <c r="B65" s="6">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="5">
+        <v>180</v>
+      </c>
+      <c r="B66" s="6">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="5">
+        <v>183</v>
+      </c>
+      <c r="B67" s="6">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="5">
+        <v>186</v>
+      </c>
+      <c r="B68" s="6">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="5">
+        <v>189</v>
+      </c>
+      <c r="B69" s="6">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" s="5">
+        <v>192</v>
+      </c>
+      <c r="B70" s="6">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="5">
+        <v>195</v>
+      </c>
+      <c r="B71" s="6">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="5">
+        <v>198</v>
+      </c>
+      <c r="B72" s="6">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="8">
         <v>45951.9326967593</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>24</v>
+      <c r="C73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="5">
+        <v>201</v>
+      </c>
+      <c r="B74" s="6">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="5">
+        <v>204</v>
+      </c>
+      <c r="B75" s="6">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="5">
+        <v>207</v>
+      </c>
+      <c r="B76" s="6">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>193</v>
-      </c>
-      <c r="B77" s="5">
+        <v>210</v>
+      </c>
+      <c r="B77" s="6">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6">
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5">
+        <v>22</v>
+      </c>
+      <c r="B79" s="6">
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="5">
+        <v>217</v>
+      </c>
+      <c r="B80" s="6">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" s="5">
+        <v>220</v>
+      </c>
+      <c r="B81" s="6">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="5">
+        <v>223</v>
+      </c>
+      <c r="B82" s="6">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="5">
+        <v>226</v>
+      </c>
+      <c r="B83" s="6">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="5">
+        <v>229</v>
+      </c>
+      <c r="B84" s="6">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" s="5">
+        <v>232</v>
+      </c>
+      <c r="B85" s="6">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>218</v>
-      </c>
-      <c r="B86" s="5">
+        <v>235</v>
+      </c>
+      <c r="B86" s="6">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="5">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6">
         <v>45959.3531481482</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="5">
+        <v>239</v>
+      </c>
+      <c r="B88" s="6">
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="5">
+        <v>241</v>
+      </c>
+      <c r="B89" s="6">
         <v>45961.5695833333</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="5">
+        <v>244</v>
+      </c>
+      <c r="B90" s="6">
         <v>45961.5820138889</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>230</v>
-      </c>
-      <c r="B91" s="5">
+        <v>247</v>
+      </c>
+      <c r="B91" s="6">
         <v>45962.8563425926</v>
       </c>
       <c r="C91" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>233</v>
-      </c>
-      <c r="B92" s="5">
+        <v>250</v>
+      </c>
+      <c r="B92" s="6">
         <v>45963.3198611111</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>236</v>
-      </c>
-      <c r="B93" s="5">
+        <v>253</v>
+      </c>
+      <c r="B93" s="6">
         <v>45963.4459375</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>239</v>
-      </c>
-      <c r="B94" s="5">
+        <v>256</v>
+      </c>
+      <c r="B94" s="6">
         <v>45963.4798842593</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>242</v>
-      </c>
-      <c r="B95" s="5">
+        <v>259</v>
+      </c>
+      <c r="B95" s="6">
         <v>45963.5821064815</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="5">
+        <v>262</v>
+      </c>
+      <c r="B96" s="6">
         <v>45963.7414467593</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>248</v>
-      </c>
-      <c r="B97" s="5">
+        <v>265</v>
+      </c>
+      <c r="B97" s="6">
         <v>45965.950474537</v>
       </c>
       <c r="C97" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>251</v>
-      </c>
-      <c r="B98" s="5">
+        <v>268</v>
+      </c>
+      <c r="B98" s="6">
         <v>45966.5753009259</v>
       </c>
       <c r="C98" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>254</v>
-      </c>
-      <c r="B99" s="5">
+        <v>271</v>
+      </c>
+      <c r="B99" s="6">
         <v>45968.8870138889</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>257</v>
-      </c>
-      <c r="B100" s="5">
+        <v>274</v>
+      </c>
+      <c r="B100" s="6">
         <v>45968.9302199074</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="D100" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>260</v>
-      </c>
-      <c r="B101" s="5">
+        <v>277</v>
+      </c>
+      <c r="B101" s="6">
         <v>45969.5273842593</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>263</v>
-      </c>
-      <c r="B102" s="5">
+        <v>280</v>
+      </c>
+      <c r="B102" s="6">
         <v>45969.6453819445</v>
       </c>
       <c r="C102" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>266</v>
-      </c>
-      <c r="B103" s="5">
+        <v>283</v>
+      </c>
+      <c r="B103" s="6">
         <v>45969.8944328704</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104" s="5">
+        <v>286</v>
+      </c>
+      <c r="B104" s="6">
         <v>45969.9042361111</v>
       </c>
       <c r="C104" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>272</v>
-      </c>
-      <c r="B105" s="5">
+        <v>289</v>
+      </c>
+      <c r="B105" s="6">
         <v>45973.8885185185</v>
       </c>
       <c r="C105" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D105" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>275</v>
-      </c>
-      <c r="B106" s="5">
+        <v>292</v>
+      </c>
+      <c r="B106" s="6">
         <v>45973.9549305556</v>
       </c>
       <c r="C106" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="5">
+        <v>295</v>
+      </c>
+      <c r="B107" s="6">
         <v>45974.0308449074</v>
       </c>
       <c r="C107" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>281</v>
-      </c>
-      <c r="B108" s="5">
+        <v>298</v>
+      </c>
+      <c r="B108" s="6">
         <v>45976.9116898148</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D108" t="s">
-        <v>283</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="6">
+        <v>45977.5766319445</v>
+      </c>
+      <c r="C109" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="6">
+        <v>45977.8849652778</v>
+      </c>
+      <c r="C110" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2986,189 +3029,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>284</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>301</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>304</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>306</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>308</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>310</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>312</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>314</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>316</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>318</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>320</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>322</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>324</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>326</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>328</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>330</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>332</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
     <t/>
   </si>
   <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
+    <t>提交者（自动）</t>
+  </si>
+  <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -932,6 +932,15 @@
   </si>
   <si>
     <t>2648616816</t>
+  </si>
+  <si>
+    <t>孤霜傲雪T_T</t>
+  </si>
+  <si>
+    <t>7fc683ba</t>
+  </si>
+  <si>
+    <t>2377548565</t>
   </si>
   <si>
     <r>
@@ -948,13 +957,13 @@
   <si>
     <r>
       <rPr/>
-      <t>秋落北</t>
+      <t>d0fdfab0</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>d0fdfab0</t>
+      <t>秋落北</t>
     </r>
   </si>
   <si>
@@ -984,13 +993,13 @@
   <si>
     <r>
       <rPr/>
-      <t>[$ǿĀD]1212121[$ǿĀD]</t>
+      <t>749499fb</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>749499fb</t>
+      <t>[$ǿĀD]1212121[$ǿĀD]</t>
     </r>
   </si>
   <si>
@@ -1056,13 +1065,13 @@
   <si>
     <r>
       <rPr/>
-      <t>Sakiio</t>
+      <t>e42e7687</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>e42e7687</t>
+      <t>Sakiio</t>
     </r>
   </si>
   <si>
@@ -1080,13 +1089,13 @@
   <si>
     <r>
       <rPr/>
-      <t>CyanCity</t>
+      <t>74cc9a81</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>74cc9a81</t>
+      <t>CyanCity</t>
     </r>
   </si>
   <si>
@@ -1525,7 +1534,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D110"/>
+  <dimension ref="D111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1537,10 +1546,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>20</v>
@@ -3008,6 +3017,20 @@
       </c>
       <c r="D110" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" s="6">
+        <v>45978.8267013889</v>
+      </c>
+      <c r="C111" t="s">
+        <v>307</v>
+      </c>
+      <c r="D111" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3029,13 +3052,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
@@ -3043,10 +3066,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -3054,10 +3077,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -3065,10 +3088,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -3076,10 +3099,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -3087,10 +3110,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -3098,10 +3121,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -3109,10 +3132,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -3120,10 +3143,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -3131,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -3142,10 +3165,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -3153,10 +3176,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -3164,10 +3187,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -3175,10 +3198,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -3186,10 +3209,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -3197,10 +3220,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -3208,10 +3231,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -941,6 +941,24 @@
   </si>
   <si>
     <t>2377548565</t>
+  </si>
+  <si>
+    <t>lemontree</t>
+  </si>
+  <si>
+    <t>5b697994</t>
+  </si>
+  <si>
+    <t>1121363209</t>
+  </si>
+  <si>
+    <t>阿飞飞</t>
+  </si>
+  <si>
+    <t>23bc595e</t>
+  </si>
+  <si>
+    <t>879632264</t>
   </si>
   <si>
     <r>
@@ -969,13 +987,13 @@
   <si>
     <r>
       <rPr/>
-      <t>1749b33b</t>
+      <t>诚</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>诚</t>
+      <t>1749b33b</t>
     </r>
   </si>
   <si>
@@ -993,13 +1011,13 @@
   <si>
     <r>
       <rPr/>
-      <t>749499fb</t>
+      <t>[$ǿĀD]1212121[$ǿĀD]</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>[$ǿĀD]1212121[$ǿĀD]</t>
+      <t>749499fb</t>
     </r>
   </si>
   <si>
@@ -1077,13 +1095,13 @@
   <si>
     <r>
       <rPr/>
-      <t>e2877443</t>
+      <t>立东</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>立东</t>
+      <t>e2877443</t>
     </r>
   </si>
   <si>
@@ -1534,7 +1552,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D111"/>
+  <dimension ref="D113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1546,10 +1564,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>20</v>
@@ -3031,6 +3049,34 @@
       </c>
       <c r="D111" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+      <c r="B112" s="6">
+        <v>45980.8867592593</v>
+      </c>
+      <c r="C112" t="s">
+        <v>310</v>
+      </c>
+      <c r="D112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>312</v>
+      </c>
+      <c r="B113" s="6">
+        <v>45980.9207986111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3052,13 +3098,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
@@ -3066,10 +3112,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
@@ -3077,10 +3123,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
@@ -3088,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
@@ -3099,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
@@ -3110,10 +3156,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
@@ -3121,10 +3167,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
@@ -3132,10 +3178,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
@@ -3143,10 +3189,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
@@ -3154,10 +3200,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
@@ -3165,10 +3211,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
@@ -3176,10 +3222,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
@@ -3187,10 +3233,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
@@ -3198,10 +3244,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
@@ -3209,10 +3255,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
@@ -3220,10 +3266,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
@@ -3231,10 +3277,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t/>
   </si>
@@ -926,6 +926,51 @@
   </si>
   <si>
     <t>2715511296</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>652eb97a</t>
+  </si>
+  <si>
+    <t>3435585501</t>
+  </si>
+  <si>
+    <t>空白</t>
+  </si>
+  <si>
+    <t>38effb59</t>
+  </si>
+  <si>
+    <t>2274948450</t>
+  </si>
+  <si>
+    <t>唯我所爱</t>
+  </si>
+  <si>
+    <t>57ded35e</t>
+  </si>
+  <si>
+    <t>2583566531</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>7eac9117</t>
+  </si>
+  <si>
+    <t>1092129794</t>
+  </si>
+  <si>
+    <t>伪装 🅥</t>
+  </si>
+  <si>
+    <t>f8b9590f</t>
+  </si>
+  <si>
+    <t>85229794</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
@@ -993,13 +1038,13 @@
   <si>
     <r>
       <rPr/>
-      <t>d0fdfab0</t>
+      <t>秋落北</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>秋落北</t>
+      <t>d0fdfab0</t>
     </r>
   </si>
   <si>
@@ -1101,13 +1146,13 @@
   <si>
     <r>
       <rPr/>
-      <t>Sakiio</t>
+      <t>e42e7687</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>e42e7687</t>
+      <t>Sakiio</t>
     </r>
   </si>
   <si>
@@ -1570,7 +1615,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D115"/>
+  <dimension ref="D120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3123,6 +3168,76 @@
       </c>
       <c r="D115" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" s="5">
+        <v>45983.3904861111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45983.913900463</v>
+      </c>
+      <c r="C117" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>310</v>
+      </c>
+      <c r="B118" s="5">
+        <v>45983.9352662037</v>
+      </c>
+      <c r="C118" t="s">
+        <v>311</v>
+      </c>
+      <c r="D118" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>313</v>
+      </c>
+      <c r="B119" s="5">
+        <v>45984.485150463</v>
+      </c>
+      <c r="C119" t="s">
+        <v>314</v>
+      </c>
+      <c r="D119" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>316</v>
+      </c>
+      <c r="B120" s="5">
+        <v>45984.6307291667</v>
+      </c>
+      <c r="C120" t="s">
+        <v>317</v>
+      </c>
+      <c r="D120" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3155,178 +3270,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t/>
   </si>
@@ -25,6 +25,57 @@
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
     <t>序列号（必填）</t>
   </si>
   <si>
@@ -709,12 +760,6 @@
     <t>　　　</t>
   </si>
   <si>
-    <t>c11baad8</t>
-  </si>
-  <si>
-    <t>2136639273</t>
-  </si>
-  <si>
     <t>゛习惯了ぃ想你づ</t>
   </si>
   <si>
@@ -971,57 +1016,6 @@
   </si>
   <si>
     <t>85229794</t>
-  </si>
-  <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
   </si>
   <si>
     <r>
@@ -1038,13 +1032,13 @@
   <si>
     <r>
       <rPr/>
-      <t>秋落北</t>
+      <t>d0fdfab0</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>d0fdfab0</t>
+      <t>秋落北</t>
     </r>
   </si>
   <si>
@@ -1098,13 +1092,13 @@
   <si>
     <r>
       <rPr/>
-      <t>f738671.</t>
+      <t>终若.</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>终若.</t>
+      <t>f738671.</t>
     </r>
   </si>
   <si>
@@ -1158,13 +1152,13 @@
   <si>
     <r>
       <rPr/>
-      <t>e2877443</t>
+      <t>立东</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>立东</t>
+      <t>e2877443</t>
     </r>
   </si>
   <si>
@@ -1246,10 +1240,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -1298,19 +1292,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1626,1618 +1620,1618 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8">
         <v>45893.4208101852</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="5">
+        <v>64</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>24</v>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="5">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5">
+        <v>76</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="5">
+        <v>79</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="5">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="5">
+        <v>85</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="5">
+        <v>88</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="5">
+        <v>91</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5">
+        <v>94</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="5">
+        <v>97</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="5">
+        <v>100</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5">
+        <v>103</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5">
+        <v>106</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="5">
+        <v>109</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="5">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="5">
+        <v>118</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="5">
+        <v>121</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="5">
+        <v>124</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="5">
+        <v>127</v>
+      </c>
+      <c r="B46" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="5">
+        <v>130</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="5">
+        <v>133</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5">
+        <v>136</v>
+      </c>
+      <c r="B49" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="5">
+        <v>139</v>
+      </c>
+      <c r="B50" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>24</v>
+      <c r="C51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="5">
+        <v>143</v>
+      </c>
+      <c r="B52" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>24</v>
+      <c r="C53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="5">
+        <v>146</v>
+      </c>
+      <c r="B54" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="5">
+        <v>149</v>
+      </c>
+      <c r="B55" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="5">
+        <v>152</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="5">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="5">
+        <v>158</v>
+      </c>
+      <c r="B58" s="6">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="5">
+        <v>161</v>
+      </c>
+      <c r="B59" s="6">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="5">
+        <v>164</v>
+      </c>
+      <c r="B60" s="6">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="5">
+        <v>167</v>
+      </c>
+      <c r="B61" s="6">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="5">
+        <v>94</v>
+      </c>
+      <c r="B62" s="6">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="5">
+        <v>171</v>
+      </c>
+      <c r="B63" s="6">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="5">
+        <v>174</v>
+      </c>
+      <c r="B64" s="6">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="5">
+        <v>177</v>
+      </c>
+      <c r="B65" s="6">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="5">
+        <v>180</v>
+      </c>
+      <c r="B66" s="6">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="5">
+        <v>183</v>
+      </c>
+      <c r="B67" s="6">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="5">
+        <v>186</v>
+      </c>
+      <c r="B68" s="6">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="5">
+        <v>189</v>
+      </c>
+      <c r="B69" s="6">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" s="5">
+        <v>192</v>
+      </c>
+      <c r="B70" s="6">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="5">
+        <v>195</v>
+      </c>
+      <c r="B71" s="6">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="5">
+        <v>198</v>
+      </c>
+      <c r="B72" s="6">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="8">
         <v>45951.9326967593</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>24</v>
+      <c r="C73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="5">
+        <v>201</v>
+      </c>
+      <c r="B74" s="6">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="5">
+        <v>204</v>
+      </c>
+      <c r="B75" s="6">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="5">
+        <v>207</v>
+      </c>
+      <c r="B76" s="6">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>193</v>
-      </c>
-      <c r="B77" s="5">
+        <v>210</v>
+      </c>
+      <c r="B77" s="6">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6">
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5">
+        <v>22</v>
+      </c>
+      <c r="B79" s="6">
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="5">
+        <v>217</v>
+      </c>
+      <c r="B80" s="6">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" s="5">
+        <v>220</v>
+      </c>
+      <c r="B81" s="6">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="5">
+        <v>223</v>
+      </c>
+      <c r="B82" s="6">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="5">
+        <v>226</v>
+      </c>
+      <c r="B83" s="6">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="5">
+        <v>229</v>
+      </c>
+      <c r="B84" s="6">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" s="5">
+        <v>232</v>
+      </c>
+      <c r="B85" s="6">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>218</v>
-      </c>
-      <c r="B86" s="5">
+        <v>235</v>
+      </c>
+      <c r="B86" s="6">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="5">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6">
         <v>45959.3531481482</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="5">
+        <v>239</v>
+      </c>
+      <c r="B88" s="6">
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="5">
+        <v>241</v>
+      </c>
+      <c r="B89" s="6">
         <v>45961.5695833333</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="5">
+        <v>244</v>
+      </c>
+      <c r="B90" s="6">
         <v>45961.5820138889</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>230</v>
-      </c>
-      <c r="B91" s="5">
+      <c r="A91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="8">
         <v>45962.8563425926</v>
       </c>
-      <c r="C91" t="s">
-        <v>231</v>
-      </c>
-      <c r="D91" t="s">
-        <v>232</v>
+      <c r="C91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>233</v>
-      </c>
-      <c r="B92" s="5">
+        <v>248</v>
+      </c>
+      <c r="B92" s="6">
         <v>45963.3198611111</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>236</v>
-      </c>
-      <c r="B93" s="5">
+        <v>251</v>
+      </c>
+      <c r="B93" s="6">
         <v>45963.4459375</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>239</v>
-      </c>
-      <c r="B94" s="5">
+        <v>254</v>
+      </c>
+      <c r="B94" s="6">
         <v>45963.4798842593</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>242</v>
-      </c>
-      <c r="B95" s="5">
+        <v>257</v>
+      </c>
+      <c r="B95" s="6">
         <v>45963.5821064815</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="5">
+        <v>260</v>
+      </c>
+      <c r="B96" s="6">
         <v>45963.7414467593</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>248</v>
-      </c>
-      <c r="B97" s="5">
+        <v>263</v>
+      </c>
+      <c r="B97" s="6">
         <v>45965.950474537</v>
       </c>
       <c r="C97" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D97" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>251</v>
-      </c>
-      <c r="B98" s="5">
+        <v>266</v>
+      </c>
+      <c r="B98" s="6">
         <v>45966.5753009259</v>
       </c>
       <c r="C98" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>254</v>
-      </c>
-      <c r="B99" s="5">
+        <v>269</v>
+      </c>
+      <c r="B99" s="6">
         <v>45968.8870138889</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>257</v>
-      </c>
-      <c r="B100" s="5">
+        <v>272</v>
+      </c>
+      <c r="B100" s="6">
         <v>45968.9302199074</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D100" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>260</v>
-      </c>
-      <c r="B101" s="5">
+        <v>275</v>
+      </c>
+      <c r="B101" s="6">
         <v>45969.5273842593</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>263</v>
-      </c>
-      <c r="B102" s="5">
+        <v>278</v>
+      </c>
+      <c r="B102" s="6">
         <v>45969.6453819445</v>
       </c>
       <c r="C102" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>266</v>
-      </c>
-      <c r="B103" s="5">
+        <v>281</v>
+      </c>
+      <c r="B103" s="6">
         <v>45969.8944328704</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104" s="5">
+        <v>284</v>
+      </c>
+      <c r="B104" s="6">
         <v>45969.9042361111</v>
       </c>
       <c r="C104" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>272</v>
-      </c>
-      <c r="B105" s="5">
+        <v>287</v>
+      </c>
+      <c r="B105" s="6">
         <v>45973.8885185185</v>
       </c>
       <c r="C105" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>275</v>
-      </c>
-      <c r="B106" s="5">
+        <v>290</v>
+      </c>
+      <c r="B106" s="6">
         <v>45973.9549305556</v>
       </c>
       <c r="C106" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="5">
+        <v>293</v>
+      </c>
+      <c r="B107" s="6">
         <v>45974.0308449074</v>
       </c>
       <c r="C107" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>281</v>
-      </c>
-      <c r="B108" s="5">
+        <v>296</v>
+      </c>
+      <c r="B108" s="6">
         <v>45976.9116898148</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="5">
+        <v>67</v>
+      </c>
+      <c r="B109" s="6">
         <v>45977.5766319445</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D109" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>286</v>
-      </c>
-      <c r="B110" s="5">
+        <v>301</v>
+      </c>
+      <c r="B110" s="6">
         <v>45977.8849652778</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>289</v>
-      </c>
-      <c r="B111" s="5">
+        <v>304</v>
+      </c>
+      <c r="B111" s="6">
         <v>45978.8267013889</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>292</v>
-      </c>
-      <c r="B112" s="5">
+        <v>307</v>
+      </c>
+      <c r="B112" s="6">
         <v>45980.8867592593</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>295</v>
-      </c>
-      <c r="B113" s="5">
+        <v>310</v>
+      </c>
+      <c r="B113" s="6">
         <v>45980.9207986111</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>298</v>
-      </c>
-      <c r="B114" s="5">
+        <v>313</v>
+      </c>
+      <c r="B114" s="6">
         <v>45982.0552199074</v>
       </c>
       <c r="C114" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>301</v>
-      </c>
-      <c r="B115" s="5">
+        <v>316</v>
+      </c>
+      <c r="B115" s="6">
         <v>45982.8740740741</v>
       </c>
       <c r="C115" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>304</v>
-      </c>
-      <c r="B116" s="5">
+        <v>319</v>
+      </c>
+      <c r="B116" s="6">
         <v>45983.3904861111</v>
       </c>
       <c r="C116" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>307</v>
-      </c>
-      <c r="B117" s="5">
+        <v>322</v>
+      </c>
+      <c r="B117" s="6">
         <v>45983.913900463</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D117" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>310</v>
-      </c>
-      <c r="B118" s="5">
+        <v>325</v>
+      </c>
+      <c r="B118" s="6">
         <v>45983.9352662037</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D118" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>313</v>
-      </c>
-      <c r="B119" s="5">
+        <v>328</v>
+      </c>
+      <c r="B119" s="6">
         <v>45984.485150463</v>
       </c>
       <c r="C119" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D119" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>316</v>
-      </c>
-      <c r="B120" s="5">
+        <v>331</v>
+      </c>
+      <c r="B120" s="6">
         <v>45984.6307291667</v>
       </c>
       <c r="C120" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D120" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>319</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3270,178 +3264,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>337</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>338</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>341</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>343</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>345</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>347</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>349</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>351</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>353</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>355</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>357</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>359</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>332</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>361</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>363</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>365</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>335</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>367</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,15 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t/>
   </si>
   <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
   </si>
   <si>
     <t>序列号（必填）</t>
@@ -994,55 +1045,40 @@
     <t>2792215491</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>*〜€〜皇帝范er</t>
+  </si>
+  <si>
+    <t>10073dfa</t>
+  </si>
+  <si>
+    <t>617840780</t>
+  </si>
+  <si>
+    <t>我爱💰💰爱我</t>
+  </si>
+  <si>
+    <t>d6c685af</t>
+  </si>
+  <si>
+    <t>1411123447</t>
+  </si>
+  <si>
+    <t>蓝桉ෆ ͒</t>
+  </si>
+  <si>
+    <t>2ba6b5a9</t>
+  </si>
+  <si>
+    <t>1931445109</t>
+  </si>
+  <si>
+    <t>我的名字十二个字不信你数</t>
+  </si>
+  <si>
+    <t>3b4b8c6a</t>
+  </si>
+  <si>
+    <t>1241105653</t>
   </si>
   <si>
     <r>
@@ -1071,13 +1107,13 @@
   <si>
     <r>
       <rPr/>
-      <t>诚</t>
+      <t>1749b33b</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>1749b33b</t>
+      <t>诚</t>
     </r>
   </si>
   <si>
@@ -1107,13 +1143,19 @@
   <si>
     <r>
       <rPr/>
+      <t>寓庸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>cc54218b</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>寓庸</t>
+      <t>终若.</t>
     </r>
   </si>
   <si>
@@ -1125,12 +1167,6 @@
   <si>
     <r>
       <rPr/>
-      <t>终若.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>7a92bcf8</t>
     </r>
   </si>
@@ -1227,13 +1263,13 @@
   <si>
     <r>
       <rPr/>
-      <t>cacdbfed</t>
+      <t>时·逝</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>时·逝</t>
+      <t>cacdbfed</t>
     </r>
   </si>
 </sst>
@@ -1267,10 +1303,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -1319,19 +1355,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,7 +1672,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D124"/>
+  <dimension ref="D128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,1674 +1683,1730 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8">
         <v>45893.4208101852</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="5">
+        <v>64</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>24</v>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="5">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5">
+        <v>76</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="5">
+        <v>79</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="5">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="5">
+        <v>85</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="5">
+        <v>88</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="5">
+        <v>91</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5">
+        <v>94</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="5">
+        <v>97</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="5">
+        <v>100</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5">
+        <v>103</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5">
+        <v>106</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="5">
+        <v>109</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="5">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="5">
+        <v>118</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="5">
+        <v>121</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="5">
+        <v>124</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="5">
+        <v>127</v>
+      </c>
+      <c r="B46" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="5">
+        <v>130</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="5">
+        <v>133</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5">
+        <v>136</v>
+      </c>
+      <c r="B49" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="5">
+        <v>139</v>
+      </c>
+      <c r="B50" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>24</v>
+      <c r="C51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="5">
+        <v>143</v>
+      </c>
+      <c r="B52" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>24</v>
+      <c r="C53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="5">
+        <v>146</v>
+      </c>
+      <c r="B54" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="5">
+        <v>149</v>
+      </c>
+      <c r="B55" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="5">
+        <v>152</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="5">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="5">
+        <v>158</v>
+      </c>
+      <c r="B58" s="6">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="5">
+        <v>161</v>
+      </c>
+      <c r="B59" s="6">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="5">
+        <v>164</v>
+      </c>
+      <c r="B60" s="6">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="5">
+        <v>167</v>
+      </c>
+      <c r="B61" s="6">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="5">
+        <v>94</v>
+      </c>
+      <c r="B62" s="6">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="5">
+        <v>171</v>
+      </c>
+      <c r="B63" s="6">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="5">
+        <v>174</v>
+      </c>
+      <c r="B64" s="6">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="5">
+        <v>177</v>
+      </c>
+      <c r="B65" s="6">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="5">
+        <v>180</v>
+      </c>
+      <c r="B66" s="6">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="5">
+        <v>183</v>
+      </c>
+      <c r="B67" s="6">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="5">
+        <v>186</v>
+      </c>
+      <c r="B68" s="6">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="5">
+        <v>189</v>
+      </c>
+      <c r="B69" s="6">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" s="5">
+        <v>192</v>
+      </c>
+      <c r="B70" s="6">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="5">
+        <v>195</v>
+      </c>
+      <c r="B71" s="6">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="5">
+        <v>198</v>
+      </c>
+      <c r="B72" s="6">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="8">
         <v>45951.9326967593</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>24</v>
+      <c r="C73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="5">
+        <v>201</v>
+      </c>
+      <c r="B74" s="6">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="5">
+        <v>204</v>
+      </c>
+      <c r="B75" s="6">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="5">
+        <v>207</v>
+      </c>
+      <c r="B76" s="6">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>193</v>
-      </c>
-      <c r="B77" s="5">
+        <v>210</v>
+      </c>
+      <c r="B77" s="6">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6">
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5">
+        <v>22</v>
+      </c>
+      <c r="B79" s="6">
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="5">
+        <v>217</v>
+      </c>
+      <c r="B80" s="6">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" s="5">
+        <v>220</v>
+      </c>
+      <c r="B81" s="6">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="5">
+        <v>223</v>
+      </c>
+      <c r="B82" s="6">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="5">
+        <v>226</v>
+      </c>
+      <c r="B83" s="6">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="5">
+        <v>229</v>
+      </c>
+      <c r="B84" s="6">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" s="5">
+        <v>232</v>
+      </c>
+      <c r="B85" s="6">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>218</v>
-      </c>
-      <c r="B86" s="5">
+        <v>235</v>
+      </c>
+      <c r="B86" s="6">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="5">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6">
         <v>45959.3531481482</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="5">
+        <v>239</v>
+      </c>
+      <c r="B88" s="6">
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="5">
+        <v>241</v>
+      </c>
+      <c r="B89" s="6">
         <v>45961.5695833333</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="5">
+        <v>244</v>
+      </c>
+      <c r="B90" s="6">
         <v>45961.5820138889</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B91" s="7">
+      <c r="A91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="8">
         <v>45962.8563425926</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>24</v>
+      <c r="C91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>231</v>
-      </c>
-      <c r="B92" s="5">
+        <v>248</v>
+      </c>
+      <c r="B92" s="6">
         <v>45963.3198611111</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>234</v>
-      </c>
-      <c r="B93" s="5">
+        <v>251</v>
+      </c>
+      <c r="B93" s="6">
         <v>45963.4459375</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B94" s="5">
+        <v>254</v>
+      </c>
+      <c r="B94" s="6">
         <v>45963.4798842593</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>240</v>
-      </c>
-      <c r="B95" s="5">
+        <v>257</v>
+      </c>
+      <c r="B95" s="6">
         <v>45963.5821064815</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96" s="5">
+        <v>260</v>
+      </c>
+      <c r="B96" s="6">
         <v>45963.7414467593</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>246</v>
-      </c>
-      <c r="B97" s="5">
+        <v>263</v>
+      </c>
+      <c r="B97" s="6">
         <v>45965.950474537</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>249</v>
-      </c>
-      <c r="B98" s="5">
+        <v>266</v>
+      </c>
+      <c r="B98" s="6">
         <v>45966.5753009259</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>252</v>
-      </c>
-      <c r="B99" s="5">
+        <v>269</v>
+      </c>
+      <c r="B99" s="6">
         <v>45968.8870138889</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>255</v>
-      </c>
-      <c r="B100" s="5">
+        <v>272</v>
+      </c>
+      <c r="B100" s="6">
         <v>45968.9302199074</v>
       </c>
       <c r="C100" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>258</v>
-      </c>
-      <c r="B101" s="5">
+        <v>275</v>
+      </c>
+      <c r="B101" s="6">
         <v>45969.5273842593</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>261</v>
-      </c>
-      <c r="B102" s="5">
+        <v>278</v>
+      </c>
+      <c r="B102" s="6">
         <v>45969.6453819445</v>
       </c>
       <c r="C102" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D102" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>264</v>
-      </c>
-      <c r="B103" s="5">
+        <v>281</v>
+      </c>
+      <c r="B103" s="6">
         <v>45969.8944328704</v>
       </c>
       <c r="C103" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>267</v>
-      </c>
-      <c r="B104" s="5">
+        <v>284</v>
+      </c>
+      <c r="B104" s="6">
         <v>45969.9042361111</v>
       </c>
       <c r="C104" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>270</v>
-      </c>
-      <c r="B105" s="5">
+        <v>287</v>
+      </c>
+      <c r="B105" s="6">
         <v>45973.8885185185</v>
       </c>
       <c r="C105" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>273</v>
-      </c>
-      <c r="B106" s="5">
+        <v>290</v>
+      </c>
+      <c r="B106" s="6">
         <v>45973.9549305556</v>
       </c>
       <c r="C106" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>276</v>
-      </c>
-      <c r="B107" s="5">
+        <v>293</v>
+      </c>
+      <c r="B107" s="6">
         <v>45974.0308449074</v>
       </c>
       <c r="C107" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>279</v>
-      </c>
-      <c r="B108" s="5">
+        <v>296</v>
+      </c>
+      <c r="B108" s="6">
         <v>45976.9116898148</v>
       </c>
       <c r="C108" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="5">
+        <v>67</v>
+      </c>
+      <c r="B109" s="6">
         <v>45977.5766319445</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D109" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>284</v>
-      </c>
-      <c r="B110" s="5">
+        <v>301</v>
+      </c>
+      <c r="B110" s="6">
         <v>45977.8849652778</v>
       </c>
       <c r="C110" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D110" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>287</v>
-      </c>
-      <c r="B111" s="5">
+        <v>304</v>
+      </c>
+      <c r="B111" s="6">
         <v>45978.8267013889</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="D111" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>290</v>
-      </c>
-      <c r="B112" s="5">
+        <v>307</v>
+      </c>
+      <c r="B112" s="6">
         <v>45980.8867592593</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="D112" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>293</v>
-      </c>
-      <c r="B113" s="5">
+        <v>310</v>
+      </c>
+      <c r="B113" s="6">
         <v>45980.9207986111</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="D113" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>296</v>
-      </c>
-      <c r="B114" s="5">
+        <v>313</v>
+      </c>
+      <c r="B114" s="6">
         <v>45982.0552199074</v>
       </c>
       <c r="C114" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>299</v>
-      </c>
-      <c r="B115" s="5">
+        <v>316</v>
+      </c>
+      <c r="B115" s="6">
         <v>45982.8740740741</v>
       </c>
       <c r="C115" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>302</v>
-      </c>
-      <c r="B116" s="5">
+        <v>319</v>
+      </c>
+      <c r="B116" s="6">
         <v>45983.3904861111</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>305</v>
-      </c>
-      <c r="B117" s="5">
+        <v>322</v>
+      </c>
+      <c r="B117" s="6">
         <v>45983.913900463</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D117" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>308</v>
-      </c>
-      <c r="B118" s="5">
+        <v>325</v>
+      </c>
+      <c r="B118" s="6">
         <v>45983.9352662037</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="D118" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>311</v>
-      </c>
-      <c r="B119" s="5">
+        <v>328</v>
+      </c>
+      <c r="B119" s="6">
         <v>45984.485150463</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D119" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>314</v>
-      </c>
-      <c r="B120" s="5">
+        <v>331</v>
+      </c>
+      <c r="B120" s="6">
         <v>45984.6307291667</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="D120" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>317</v>
-      </c>
-      <c r="B121" s="5">
+        <v>334</v>
+      </c>
+      <c r="B121" s="6">
         <v>45989.522025463</v>
       </c>
       <c r="C121" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>320</v>
-      </c>
-      <c r="B122" s="5">
+      <c r="A122" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122" s="8">
         <v>45990.0689583333</v>
       </c>
-      <c r="C122" t="s">
-        <v>321</v>
-      </c>
-      <c r="D122" t="s">
-        <v>322</v>
+      <c r="C122" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>320</v>
-      </c>
-      <c r="B123" s="5">
+        <v>337</v>
+      </c>
+      <c r="B123" s="6">
         <v>45990.1143865741</v>
       </c>
       <c r="C123" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>323</v>
-      </c>
-      <c r="B124" s="5">
+        <v>340</v>
+      </c>
+      <c r="B124" s="6">
         <v>45991.862025463</v>
       </c>
       <c r="C124" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="D124" t="s">
-        <v>325</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>343</v>
+      </c>
+      <c r="B125" s="6">
+        <v>45992.4657638889</v>
+      </c>
+      <c r="C125" t="s">
+        <v>344</v>
+      </c>
+      <c r="D125" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>346</v>
+      </c>
+      <c r="B126" s="6">
+        <v>45993.4214351852</v>
+      </c>
+      <c r="C126" t="s">
+        <v>347</v>
+      </c>
+      <c r="D126" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>349</v>
+      </c>
+      <c r="B127" s="6">
+        <v>45994.7843402778</v>
+      </c>
+      <c r="C127" t="s">
+        <v>350</v>
+      </c>
+      <c r="D127" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>352</v>
+      </c>
+      <c r="B128" s="6">
+        <v>45997.6046412037</v>
+      </c>
+      <c r="C128" t="s">
+        <v>353</v>
+      </c>
+      <c r="D128" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3336,189 +3428,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>326</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>344</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>346</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>347</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>350</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>352</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>354</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>356</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>358</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>362</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>364</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>366</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>368</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>370</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>372</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>374</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t/>
   </si>
@@ -955,12 +955,6 @@
     <t>伪装 🅥</t>
   </si>
   <si>
-    <t>f8b9590f</t>
-  </si>
-  <si>
-    <t>85229794</t>
-  </si>
-  <si>
     <t>分享半袋狗粮🐶</t>
   </si>
   <si>
@@ -1027,12 +1021,6 @@
     <t>木</t>
   </si>
   <si>
-    <t>c135e5d8</t>
-  </si>
-  <si>
-    <t>2358733176</t>
-  </si>
-  <si>
     <t>木三分</t>
   </si>
   <si>
@@ -1049,6 +1037,30 @@
   </si>
   <si>
     <t>1716817690</t>
+  </si>
+  <si>
+    <t>一念天堂</t>
+  </si>
+  <si>
+    <t>c4ecc993</t>
+  </si>
+  <si>
+    <t>906688527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb8e559 </t>
+  </si>
+  <si>
+    <t>2358733476</t>
+  </si>
+  <si>
+    <t>🦊🐼😺🐯🦁</t>
+  </si>
+  <si>
+    <t>51B51EB5</t>
+  </si>
+  <si>
+    <t>851865221</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
@@ -1152,13 +1164,13 @@
   <si>
     <r>
       <rPr/>
-      <t>749499fb</t>
+      <t>[$ǿĀD]1212121[$ǿĀD]</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>[$ǿĀD]1212121[$ǿĀD]</t>
+      <t>749499fb</t>
     </r>
   </si>
   <si>
@@ -1693,7 +1705,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D131"/>
+  <dimension ref="D134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3305,36 +3317,36 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" t="s">
+      <c r="A120" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="7">
         <v>45984.6307291667</v>
       </c>
-      <c r="C120" t="s">
-        <v>313</v>
-      </c>
-      <c r="D120" t="s">
-        <v>314</v>
+      <c r="C120" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B121" s="5">
         <v>45989.522025463</v>
       </c>
       <c r="C121" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D121" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B122" s="7">
         <v>45990.0689583333</v>
@@ -3348,128 +3360,170 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B123" s="5">
         <v>45990.1143865741</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D123" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B124" s="5">
         <v>45991.862025463</v>
       </c>
       <c r="C124" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B125" s="5">
         <v>45992.4657638889</v>
       </c>
       <c r="C125" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D125" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B126" s="5">
         <v>45993.4214351852</v>
       </c>
       <c r="C126" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D126" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B127" s="5">
         <v>45994.7843402778</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D127" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B128" s="5">
         <v>45997.6046412037</v>
       </c>
       <c r="C128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D128" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>336</v>
-      </c>
-      <c r="B129" s="5">
+      <c r="B129" s="7">
         <v>46001.8632407408</v>
       </c>
-      <c r="C129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D129" t="s">
-        <v>338</v>
+      <c r="C129" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B130" s="5">
         <v>46002.6178587963</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D130" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B131" s="5">
         <v>46003.6876851852</v>
       </c>
       <c r="C131" t="s">
+        <v>339</v>
+      </c>
+      <c r="D131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" s="5">
+        <v>46005.4341203704</v>
+      </c>
+      <c r="C132" t="s">
+        <v>342</v>
+      </c>
+      <c r="D132" t="s">
         <v>343</v>
       </c>
-      <c r="D131" t="s">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" s="5">
+        <v>46007.244837963</v>
+      </c>
+      <c r="C133" t="s">
         <v>344</v>
+      </c>
+      <c r="D133" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>346</v>
+      </c>
+      <c r="B134" s="5">
+        <v>46010.5293981482</v>
+      </c>
+      <c r="C134" t="s">
+        <v>347</v>
+      </c>
+      <c r="D134" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3494,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3502,178 +3556,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,17 +14,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t/>
   </si>
   <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
     <t>提交者（自动）</t>
   </si>
   <si>
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
     <t>序列号（必填）</t>
   </si>
   <si>
@@ -1063,55 +1114,28 @@
     <t>851865221</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>390e4e15</t>
+  </si>
+  <si>
+    <t>2113362931</t>
+  </si>
+  <si>
+    <t>小天</t>
+  </si>
+  <si>
+    <t>1480a607</t>
+  </si>
+  <si>
+    <t>603716468</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>2b937519</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1122,12 +1146,6 @@
   <si>
     <r>
       <rPr/>
-      <t>2b937519</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>d0fdfab0</t>
     </r>
   </si>
@@ -1140,13 +1158,13 @@
   <si>
     <r>
       <rPr/>
-      <t>1749b33b</t>
+      <t>诚</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>诚</t>
+      <t>1749b33b</t>
     </r>
   </si>
   <si>
@@ -1164,13 +1182,19 @@
   <si>
     <r>
       <rPr/>
+      <t>749499fb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>[$ǿĀD]1212121[$ǿĀD]</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>749499fb</t>
+      <t>寓庸</t>
     </r>
   </si>
   <si>
@@ -1182,12 +1206,6 @@
   <si>
     <r>
       <rPr/>
-      <t>寓庸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>f738671.</t>
     </r>
   </si>
@@ -1200,13 +1218,13 @@
   <si>
     <r>
       <rPr/>
-      <t>AY</t>
+      <t>7a92bcf8</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>7a92bcf8</t>
+      <t>AY</t>
     </r>
   </si>
   <si>
@@ -1336,10 +1354,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -1388,19 +1406,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,7 +1723,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D134"/>
+  <dimension ref="D136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1716,1814 +1734,1842 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
         <v>45892.464525463</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8">
         <v>45893.4208101852</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="5">
+        <v>64</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>24</v>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="5">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5">
+        <v>76</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="5">
+        <v>79</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="5">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="5">
+        <v>85</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="5">
+        <v>88</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="5">
+        <v>91</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5">
+        <v>94</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="5">
+        <v>97</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="5">
+        <v>100</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5">
+        <v>103</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5">
+        <v>106</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="5">
+        <v>109</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="5">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="5">
+        <v>118</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="5">
+        <v>121</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="5">
+        <v>124</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="5">
+        <v>127</v>
+      </c>
+      <c r="B46" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="5">
+        <v>130</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="5">
+        <v>133</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5">
+        <v>136</v>
+      </c>
+      <c r="B49" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="5">
+        <v>139</v>
+      </c>
+      <c r="B50" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>24</v>
+      <c r="C51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="5">
+        <v>143</v>
+      </c>
+      <c r="B52" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>24</v>
+      <c r="C53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="5">
+        <v>146</v>
+      </c>
+      <c r="B54" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="5">
+        <v>149</v>
+      </c>
+      <c r="B55" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="5">
+        <v>152</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="5">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="5">
+        <v>158</v>
+      </c>
+      <c r="B58" s="6">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="5">
+        <v>161</v>
+      </c>
+      <c r="B59" s="6">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="5">
+        <v>164</v>
+      </c>
+      <c r="B60" s="6">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="5">
+        <v>167</v>
+      </c>
+      <c r="B61" s="6">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="5">
+        <v>94</v>
+      </c>
+      <c r="B62" s="6">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="5">
+        <v>171</v>
+      </c>
+      <c r="B63" s="6">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="5">
+        <v>174</v>
+      </c>
+      <c r="B64" s="6">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="5">
+        <v>177</v>
+      </c>
+      <c r="B65" s="6">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="5">
+        <v>180</v>
+      </c>
+      <c r="B66" s="6">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="5">
+        <v>183</v>
+      </c>
+      <c r="B67" s="6">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="5">
+        <v>186</v>
+      </c>
+      <c r="B68" s="6">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="5">
+        <v>189</v>
+      </c>
+      <c r="B69" s="6">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" s="5">
+        <v>192</v>
+      </c>
+      <c r="B70" s="6">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="5">
+        <v>195</v>
+      </c>
+      <c r="B71" s="6">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="5">
+        <v>198</v>
+      </c>
+      <c r="B72" s="6">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="8">
         <v>45951.9326967593</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>24</v>
+      <c r="C73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="5">
+        <v>201</v>
+      </c>
+      <c r="B74" s="6">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="5">
+        <v>204</v>
+      </c>
+      <c r="B75" s="6">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="5">
+        <v>207</v>
+      </c>
+      <c r="B76" s="6">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>193</v>
-      </c>
-      <c r="B77" s="5">
+        <v>210</v>
+      </c>
+      <c r="B77" s="6">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6">
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5">
+        <v>22</v>
+      </c>
+      <c r="B79" s="6">
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="5">
+        <v>217</v>
+      </c>
+      <c r="B80" s="6">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" s="5">
+        <v>220</v>
+      </c>
+      <c r="B81" s="6">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="5">
+        <v>223</v>
+      </c>
+      <c r="B82" s="6">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="5">
+        <v>226</v>
+      </c>
+      <c r="B83" s="6">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="5">
+        <v>229</v>
+      </c>
+      <c r="B84" s="6">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" s="5">
+        <v>232</v>
+      </c>
+      <c r="B85" s="6">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>218</v>
-      </c>
-      <c r="B86" s="5">
+        <v>235</v>
+      </c>
+      <c r="B86" s="6">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="5">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6">
         <v>45959.3531481482</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="5">
+        <v>239</v>
+      </c>
+      <c r="B88" s="6">
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="5">
+        <v>241</v>
+      </c>
+      <c r="B89" s="6">
         <v>45961.5695833333</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="5">
+        <v>244</v>
+      </c>
+      <c r="B90" s="6">
         <v>45961.5820138889</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B91" s="7">
+      <c r="A91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="8">
         <v>45962.8563425926</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>24</v>
+      <c r="C91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>231</v>
-      </c>
-      <c r="B92" s="5">
+        <v>248</v>
+      </c>
+      <c r="B92" s="6">
         <v>45963.3198611111</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>234</v>
-      </c>
-      <c r="B93" s="5">
+        <v>251</v>
+      </c>
+      <c r="B93" s="6">
         <v>45963.4459375</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B94" s="5">
+        <v>254</v>
+      </c>
+      <c r="B94" s="6">
         <v>45963.4798842593</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>240</v>
-      </c>
-      <c r="B95" s="5">
+        <v>257</v>
+      </c>
+      <c r="B95" s="6">
         <v>45963.5821064815</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96" s="5">
+        <v>260</v>
+      </c>
+      <c r="B96" s="6">
         <v>45963.7414467593</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>246</v>
-      </c>
-      <c r="B97" s="5">
+        <v>263</v>
+      </c>
+      <c r="B97" s="6">
         <v>45965.950474537</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>249</v>
-      </c>
-      <c r="B98" s="5">
+        <v>266</v>
+      </c>
+      <c r="B98" s="6">
         <v>45966.5753009259</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>252</v>
-      </c>
-      <c r="B99" s="5">
+        <v>269</v>
+      </c>
+      <c r="B99" s="6">
         <v>45968.8870138889</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B100" s="7">
+      <c r="A100" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="8">
         <v>45968.9302199074</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>24</v>
+      <c r="C100" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>256</v>
-      </c>
-      <c r="B101" s="5">
+        <v>273</v>
+      </c>
+      <c r="B101" s="6">
         <v>45969.5273842593</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D101" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>259</v>
-      </c>
-      <c r="B102" s="5">
+        <v>276</v>
+      </c>
+      <c r="B102" s="6">
         <v>45969.6453819445</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>262</v>
-      </c>
-      <c r="B103" s="5">
+        <v>279</v>
+      </c>
+      <c r="B103" s="6">
         <v>45969.8944328704</v>
       </c>
       <c r="C103" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="D103" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>265</v>
-      </c>
-      <c r="B104" s="5">
+        <v>282</v>
+      </c>
+      <c r="B104" s="6">
         <v>45969.9042361111</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>268</v>
-      </c>
-      <c r="B105" s="5">
+        <v>285</v>
+      </c>
+      <c r="B105" s="6">
         <v>45973.8885185185</v>
       </c>
       <c r="C105" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>271</v>
-      </c>
-      <c r="B106" s="5">
+        <v>288</v>
+      </c>
+      <c r="B106" s="6">
         <v>45973.9549305556</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>274</v>
-      </c>
-      <c r="B107" s="5">
+        <v>291</v>
+      </c>
+      <c r="B107" s="6">
         <v>45974.0308449074</v>
       </c>
       <c r="C107" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>277</v>
-      </c>
-      <c r="B108" s="5">
+        <v>294</v>
+      </c>
+      <c r="B108" s="6">
         <v>45976.9116898148</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D108" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="5">
+        <v>67</v>
+      </c>
+      <c r="B109" s="6">
         <v>45977.5766319445</v>
       </c>
       <c r="C109" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="D109" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>282</v>
-      </c>
-      <c r="B110" s="5">
+        <v>299</v>
+      </c>
+      <c r="B110" s="6">
         <v>45977.8849652778</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>285</v>
-      </c>
-      <c r="B111" s="5">
+        <v>302</v>
+      </c>
+      <c r="B111" s="6">
         <v>45978.8267013889</v>
       </c>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D111" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>288</v>
-      </c>
-      <c r="B112" s="5">
+        <v>305</v>
+      </c>
+      <c r="B112" s="6">
         <v>45980.8867592593</v>
       </c>
       <c r="C112" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D112" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>291</v>
-      </c>
-      <c r="B113" s="5">
+        <v>308</v>
+      </c>
+      <c r="B113" s="6">
         <v>45980.9207986111</v>
       </c>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D113" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>294</v>
-      </c>
-      <c r="B114" s="5">
+        <v>311</v>
+      </c>
+      <c r="B114" s="6">
         <v>45982.0552199074</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>297</v>
-      </c>
-      <c r="B115" s="5">
+        <v>314</v>
+      </c>
+      <c r="B115" s="6">
         <v>45982.8740740741</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>300</v>
-      </c>
-      <c r="B116" s="5">
+        <v>317</v>
+      </c>
+      <c r="B116" s="6">
         <v>45983.3904861111</v>
       </c>
       <c r="C116" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>303</v>
-      </c>
-      <c r="B117" s="5">
+        <v>320</v>
+      </c>
+      <c r="B117" s="6">
         <v>45983.913900463</v>
       </c>
       <c r="C117" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D117" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>306</v>
-      </c>
-      <c r="B118" s="5">
+        <v>323</v>
+      </c>
+      <c r="B118" s="6">
         <v>45983.9352662037</v>
       </c>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>309</v>
-      </c>
-      <c r="B119" s="5">
+        <v>326</v>
+      </c>
+      <c r="B119" s="6">
         <v>45984.485150463</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B120" s="7">
+      <c r="A120" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="8">
         <v>45984.6307291667</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>24</v>
+      <c r="C120" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>313</v>
-      </c>
-      <c r="B121" s="5">
+        <v>330</v>
+      </c>
+      <c r="B121" s="6">
         <v>45989.522025463</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D121" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B122" s="7">
+      <c r="A122" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B122" s="8">
         <v>45990.0689583333</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>24</v>
+      <c r="C122" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>316</v>
-      </c>
-      <c r="B123" s="5">
+        <v>333</v>
+      </c>
+      <c r="B123" s="6">
         <v>45990.1143865741</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D123" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>319</v>
-      </c>
-      <c r="B124" s="5">
+        <v>336</v>
+      </c>
+      <c r="B124" s="6">
         <v>45991.862025463</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D124" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>322</v>
-      </c>
-      <c r="B125" s="5">
+        <v>339</v>
+      </c>
+      <c r="B125" s="6">
         <v>45992.4657638889</v>
       </c>
       <c r="C125" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="D125" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>325</v>
-      </c>
-      <c r="B126" s="5">
+        <v>342</v>
+      </c>
+      <c r="B126" s="6">
         <v>45993.4214351852</v>
       </c>
       <c r="C126" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>328</v>
-      </c>
-      <c r="B127" s="5">
+        <v>345</v>
+      </c>
+      <c r="B127" s="6">
         <v>45994.7843402778</v>
       </c>
       <c r="C127" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="D127" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>331</v>
-      </c>
-      <c r="B128" s="5">
+        <v>348</v>
+      </c>
+      <c r="B128" s="6">
         <v>45997.6046412037</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B129" s="7">
+      <c r="A129" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129" s="8">
         <v>46001.8632407408</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>24</v>
+      <c r="C129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>335</v>
-      </c>
-      <c r="B130" s="5">
+        <v>352</v>
+      </c>
+      <c r="B130" s="6">
         <v>46002.6178587963</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="D130" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>338</v>
-      </c>
-      <c r="B131" s="5">
+        <v>355</v>
+      </c>
+      <c r="B131" s="6">
         <v>46003.6876851852</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D131" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>341</v>
-      </c>
-      <c r="B132" s="5">
+        <v>358</v>
+      </c>
+      <c r="B132" s="6">
         <v>46005.4341203704</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D132" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>334</v>
-      </c>
-      <c r="B133" s="5">
+        <v>351</v>
+      </c>
+      <c r="B133" s="6">
         <v>46007.244837963</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>346</v>
-      </c>
-      <c r="B134" s="5">
+        <v>363</v>
+      </c>
+      <c r="B134" s="6">
         <v>46010.5293981482</v>
       </c>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D134" t="s">
-        <v>348</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>366</v>
+      </c>
+      <c r="B135" s="6">
+        <v>46011.935775463</v>
+      </c>
+      <c r="C135" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" s="6">
+        <v>46013.8826967593</v>
+      </c>
+      <c r="C136" t="s">
+        <v>370</v>
+      </c>
+      <c r="D136" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3545,189 +3591,189 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="false">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>366</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>369</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>371</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>373</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>374</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>377</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>379</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>380</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>383</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>385</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>387</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>389</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>391</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>393</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>395</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>397</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t/>
   </si>
@@ -1099,6 +1099,15 @@
     <t>1494258630</t>
   </si>
   <si>
+    <t>懒癌晚期患者</t>
+  </si>
+  <si>
+    <t>ddd98965</t>
+  </si>
+  <si>
+    <t>2816393061</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -1148,17 +1157,17 @@
   </si>
   <si>
     <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>陆十柒（羽翼春秋）</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr/>
       <t>2b937519</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>陆十柒（羽翼春秋）</t>
     </r>
   </si>
   <si>
@@ -1741,7 +1750,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D138"/>
+  <dimension ref="D139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3616,6 +3625,20 @@
       </c>
       <c r="D138" t="s">
         <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" s="5">
+        <v>46016.7304282408</v>
+      </c>
+      <c r="C139" t="s">
+        <v>362</v>
+      </c>
+      <c r="D139" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3648,178 +3671,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t/>
   </si>
@@ -1108,6 +1108,24 @@
     <t>2816393061</t>
   </si>
   <si>
+    <t>1219丶X</t>
+  </si>
+  <si>
+    <t>12a6b740</t>
+  </si>
+  <si>
+    <t>1833704413</t>
+  </si>
+  <si>
+    <t>不因如此</t>
+  </si>
+  <si>
+    <t>887ae519</t>
+  </si>
+  <si>
+    <t>2399377548</t>
+  </si>
+  <si>
     <t>此处填写（必填）</t>
   </si>
   <si>
@@ -1157,6 +1175,12 @@
   </si>
   <si>
     <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>2b937519</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1167,12 +1191,6 @@
   <si>
     <r>
       <rPr/>
-      <t>2b937519</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>d0fdfab0</t>
     </r>
   </si>
@@ -1221,13 +1239,13 @@
   <si>
     <r>
       <rPr/>
-      <t>cc54218b</t>
+      <t>寓庸</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>寓庸</t>
+      <t>cc54218b</t>
     </r>
   </si>
   <si>
@@ -1281,13 +1299,13 @@
   <si>
     <r>
       <rPr/>
-      <t>e42e7687</t>
+      <t>Sakiio</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>Sakiio</t>
+      <t>e42e7687</t>
     </r>
   </si>
   <si>
@@ -1341,13 +1359,13 @@
   <si>
     <r>
       <rPr/>
-      <t>cacdbfed</t>
+      <t>时·逝</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>时·逝</t>
+      <t>cacdbfed</t>
     </r>
   </si>
 </sst>
@@ -1750,7 +1768,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D139"/>
+  <dimension ref="D141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3639,6 +3657,34 @@
       </c>
       <c r="D139" t="s">
         <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>364</v>
+      </c>
+      <c r="B140" s="5">
+        <v>46018.6778587963</v>
+      </c>
+      <c r="C140" t="s">
+        <v>365</v>
+      </c>
+      <c r="D140" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>367</v>
+      </c>
+      <c r="B141" s="5">
+        <v>46018.8404050926</v>
+      </c>
+      <c r="C141" t="s">
+        <v>368</v>
+      </c>
+      <c r="D141" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3663,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3671,178 +3717,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -9,12 +9,12 @@
     <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId3"/>
     <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
   <si>
     <t/>
   </si>
@@ -70,615 +70,615 @@
     <t>终若.</t>
   </si>
   <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>时·逝</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>峥嵘岁月</t>
+  </si>
+  <si>
+    <t>7f45142e</t>
+  </si>
+  <si>
+    <t>湫寻℡</t>
+  </si>
+  <si>
+    <t>c40fbc80</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>知道分子.</t>
+  </si>
+  <si>
+    <t>2b5431f5</t>
+  </si>
+  <si>
+    <t>MEING</t>
+  </si>
+  <si>
+    <t>44d0e155</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a04f3a54</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>590320c9</t>
+  </si>
+  <si>
+    <t>李智杰</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>737c6559</t>
+  </si>
+  <si>
+    <t>1535752313</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>87227784</t>
+  </si>
+  <si>
+    <t>1123084248</t>
+  </si>
+  <si>
+    <t>二十一</t>
+  </si>
+  <si>
+    <t>e964b1e9</t>
+  </si>
+  <si>
+    <t>820078578</t>
+  </si>
+  <si>
+    <t>帝国守护之守望苍穹</t>
+  </si>
+  <si>
+    <t>3302034a</t>
+  </si>
+  <si>
+    <t>907566442</t>
+  </si>
+  <si>
+    <t>无奈</t>
+  </si>
+  <si>
+    <t>9b41a46b</t>
+  </si>
+  <si>
+    <t>487996763</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>fee46bac</t>
+  </si>
+  <si>
+    <t>1730863123</t>
+  </si>
+  <si>
+    <t>落叶</t>
+  </si>
+  <si>
+    <t>6c3bcd6f</t>
+  </si>
+  <si>
+    <t>3382881855</t>
+  </si>
+  <si>
+    <t>我是mc</t>
+  </si>
+  <si>
+    <t>46e4be66</t>
+  </si>
+  <si>
+    <t>2721614772</t>
+  </si>
+  <si>
+    <t>无执T̶o̶n̶z̶y̶</t>
+  </si>
+  <si>
+    <t>72880a09</t>
+  </si>
+  <si>
+    <t>3521425739</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>fd81cb3d</t>
+  </si>
+  <si>
+    <t>908289638</t>
+  </si>
+  <si>
+    <t>YL.</t>
+  </si>
+  <si>
+    <t>a4c3e725</t>
+  </si>
+  <si>
+    <t>918357021</t>
+  </si>
+  <si>
+    <t>Tears.</t>
+  </si>
+  <si>
+    <t>1b30a393</t>
+  </si>
+  <si>
+    <t>3214774599</t>
+  </si>
+  <si>
+    <t>衔花送月到渡口</t>
+  </si>
+  <si>
+    <t>ff109235</t>
+  </si>
+  <si>
+    <t>2283538335</t>
+  </si>
+  <si>
+    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
+  </si>
+  <si>
+    <t>64a075c9</t>
+  </si>
+  <si>
+    <t>1876568293</t>
+  </si>
+  <si>
+    <t>不问世事五千载</t>
+  </si>
+  <si>
+    <t>e547507a</t>
+  </si>
+  <si>
+    <t>158216094</t>
+  </si>
+  <si>
+    <t>在梦里见过你</t>
+  </si>
+  <si>
+    <t>dbbe0b14</t>
+  </si>
+  <si>
+    <t>2937797530</t>
+  </si>
+  <si>
+    <t>Satellite.</t>
+  </si>
+  <si>
+    <t>e272cd49</t>
+  </si>
+  <si>
+    <t>1125931910</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>8c09b4b0</t>
+  </si>
+  <si>
+    <t>2014017597</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9bd2e82f</t>
+  </si>
+  <si>
+    <t>169611364</t>
+  </si>
+  <si>
+    <t>一條鹹鱼🐟君</t>
+  </si>
+  <si>
+    <t>c0711cf4</t>
+  </si>
+  <si>
+    <t>750323931</t>
+  </si>
+  <si>
+    <t>槿桥</t>
+  </si>
+  <si>
+    <t>551e9bbd</t>
+  </si>
+  <si>
+    <t>929535772</t>
+  </si>
+  <si>
+    <t>狐兰朵露</t>
+  </si>
+  <si>
+    <t>e912c56.</t>
+  </si>
+  <si>
+    <t>2242977200</t>
+  </si>
+  <si>
+    <t>a'ゞ苏苏</t>
+  </si>
+  <si>
+    <t>51a71d6b</t>
+  </si>
+  <si>
+    <t>1084629163</t>
+  </si>
+  <si>
+    <t>一切皆有可能</t>
+  </si>
+  <si>
+    <t>3b7dfb5c</t>
+  </si>
+  <si>
+    <t>1312087292</t>
+  </si>
+  <si>
+    <t>彼世节拍</t>
+  </si>
+  <si>
+    <t>fdef3cc8</t>
+  </si>
+  <si>
+    <t>1762488480</t>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>4b24a6b7</t>
+  </si>
+  <si>
+    <t>2751393486</t>
+  </si>
+  <si>
+    <t>        </t>
+  </si>
+  <si>
+    <t>eb0f7284</t>
+  </si>
+  <si>
+    <t>781456741</t>
+  </si>
+  <si>
+    <t>文昊</t>
+  </si>
+  <si>
+    <t>883c8e20</t>
+  </si>
+  <si>
+    <t>1243776890</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>6cffec45</t>
+  </si>
+  <si>
+    <t>1007021745</t>
+  </si>
+  <si>
+    <t>Non-numb</t>
+  </si>
+  <si>
+    <t>f8241963</t>
+  </si>
+  <si>
+    <t>1183413694</t>
+  </si>
+  <si>
+    <t>WindGods</t>
+  </si>
+  <si>
+    <t>769cacfe</t>
+  </si>
+  <si>
+    <t>3501494634</t>
+  </si>
+  <si>
+    <t>天亮记得关灯</t>
+  </si>
+  <si>
+    <t>b97d7a30</t>
+  </si>
+  <si>
+    <t>1240538886</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6c198517</t>
+  </si>
+  <si>
+    <t>3291867868</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>a8cec24c</t>
+  </si>
+  <si>
+    <t>721844021</t>
+  </si>
+  <si>
+    <t>6d512350</t>
+  </si>
+  <si>
+    <t>情殇</t>
+  </si>
+  <si>
+    <t>cc8b8e9b</t>
+  </si>
+  <si>
+    <t>481613668</t>
+  </si>
+  <si>
+    <t>喝摩卡的Wiish</t>
+  </si>
+  <si>
+    <t>f4a577e0</t>
+  </si>
+  <si>
+    <t>1114161007</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>f0e7af44</t>
+  </si>
+  <si>
+    <t>1280082251</t>
+  </si>
+  <si>
+    <t>霰雪的天空</t>
+  </si>
+  <si>
+    <t>efb5bf5e</t>
+  </si>
+  <si>
+    <t>395432402</t>
+  </si>
+  <si>
+    <t>如果</t>
+  </si>
+  <si>
+    <t>f3bb7437</t>
+  </si>
+  <si>
+    <t>2752741520</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>d492fa67</t>
+  </si>
+  <si>
+    <t>571584956</t>
+  </si>
+  <si>
+    <t>隽昊</t>
+  </si>
+  <si>
+    <t>57c84d5.</t>
+  </si>
+  <si>
+    <t>992333681</t>
+  </si>
+  <si>
+    <t>卡米诺斯</t>
+  </si>
+  <si>
+    <t>224431c7</t>
+  </si>
+  <si>
+    <t>509958501</t>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>62b965f4</t>
+  </si>
+  <si>
+    <t>911578662</t>
+  </si>
+  <si>
+    <t>望川秋水</t>
+  </si>
+  <si>
+    <t>ce8133cc</t>
+  </si>
+  <si>
+    <t>2042243985</t>
+  </si>
+  <si>
+    <t>不二·唯翊</t>
+  </si>
+  <si>
+    <t>99cc9bd.</t>
+  </si>
+  <si>
+    <t>17381507</t>
+  </si>
+  <si>
+    <t>ㅤ虚舟渡</t>
+  </si>
+  <si>
+    <t>2180ae09</t>
+  </si>
+  <si>
+    <t>122070046</t>
+  </si>
+  <si>
+    <t>稻田已被犁尽</t>
+  </si>
+  <si>
+    <t>613be8a1</t>
+  </si>
+  <si>
+    <t>1307077732</t>
+  </si>
+  <si>
+    <t>k.</t>
+  </si>
+  <si>
+    <t>bb0ed330</t>
+  </si>
+  <si>
+    <t>3099720782</t>
+  </si>
+  <si>
+    <t>a8102a9.</t>
+  </si>
+  <si>
+    <t>1554015133</t>
+  </si>
+  <si>
+    <t>3d66f1c1</t>
+  </si>
+  <si>
+    <t>2425167078</t>
+  </si>
+  <si>
+    <t>大声发</t>
+  </si>
+  <si>
+    <t>6e70d1ea</t>
+  </si>
+  <si>
+    <t>176324771</t>
+  </si>
+  <si>
+    <t>盛师傅</t>
+  </si>
+  <si>
+    <t>8a0ddaac</t>
+  </si>
+  <si>
+    <t>1470740944</t>
+  </si>
+  <si>
+    <t>江東.</t>
+  </si>
+  <si>
+    <t>35557dba</t>
+  </si>
+  <si>
+    <t>1508574214</t>
+  </si>
+  <si>
+    <t>℘̶敗̶給̶鐘̶意</t>
+  </si>
+  <si>
+    <t>e3a9c24f</t>
+  </si>
+  <si>
+    <t>1718358607</t>
+  </si>
+  <si>
+    <t>🐏如画</t>
+  </si>
+  <si>
+    <t>ec74cad7</t>
+  </si>
+  <si>
+    <t>1828429965</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>7d895744</t>
+  </si>
+  <si>
+    <t>1542303450</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>60527ee0</t>
+  </si>
+  <si>
+    <t>3579627143</t>
+  </si>
+  <si>
     <t>f738671.</t>
   </si>
   <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>7a92bcf8</t>
-  </si>
-  <si>
-    <t>晅方</t>
-  </si>
-  <si>
-    <t>8943eb1a</t>
-  </si>
-  <si>
-    <t>Hydro_Gen</t>
-  </si>
-  <si>
-    <t>已删除</t>
-  </si>
-  <si>
-    <t>Sakiio</t>
-  </si>
-  <si>
-    <t>e42e7687</t>
-  </si>
-  <si>
-    <t>立东</t>
-  </si>
-  <si>
-    <t>CyanCity</t>
-  </si>
-  <si>
-    <t>74cc9a81</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>67d0c2f4</t>
-  </si>
-  <si>
-    <t>一个人</t>
-  </si>
-  <si>
-    <t>64307a32</t>
-  </si>
-  <si>
-    <t>时·逝</t>
-  </si>
-  <si>
-    <t>cacdbfed</t>
-  </si>
-  <si>
-    <t>峥嵘岁月</t>
-  </si>
-  <si>
-    <t>7f45142e</t>
-  </si>
-  <si>
-    <t>湫寻℡</t>
-  </si>
-  <si>
-    <t>c40fbc80</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>知道分子.</t>
-  </si>
-  <si>
-    <t>2b5431f5</t>
-  </si>
-  <si>
-    <t>MEING</t>
-  </si>
-  <si>
-    <t>44d0e155</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a04f3a54</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>590320c9</t>
-  </si>
-  <si>
-    <t>李智杰</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>737c6559</t>
-  </si>
-  <si>
-    <t>1535752313</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>87227784</t>
-  </si>
-  <si>
-    <t>1123084248</t>
-  </si>
-  <si>
-    <t>二十一</t>
-  </si>
-  <si>
-    <t>e964b1e9</t>
-  </si>
-  <si>
-    <t>820078578</t>
-  </si>
-  <si>
-    <t>帝国守护之守望苍穹</t>
-  </si>
-  <si>
-    <t>3302034a</t>
-  </si>
-  <si>
-    <t>907566442</t>
-  </si>
-  <si>
-    <t>无奈</t>
-  </si>
-  <si>
-    <t>9b41a46b</t>
-  </si>
-  <si>
-    <t>487996763</t>
-  </si>
-  <si>
-    <t>哦</t>
-  </si>
-  <si>
-    <t>fee46bac</t>
-  </si>
-  <si>
-    <t>1730863123</t>
-  </si>
-  <si>
-    <t>落叶</t>
-  </si>
-  <si>
-    <t>6c3bcd6f</t>
-  </si>
-  <si>
-    <t>3382881855</t>
-  </si>
-  <si>
-    <t>我是mc</t>
-  </si>
-  <si>
-    <t>46e4be66</t>
-  </si>
-  <si>
-    <t>2721614772</t>
-  </si>
-  <si>
-    <t>无执T̶o̶n̶z̶y̶</t>
-  </si>
-  <si>
-    <t>72880a09</t>
-  </si>
-  <si>
-    <t>3521425739</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>fd81cb3d</t>
-  </si>
-  <si>
-    <t>908289638</t>
-  </si>
-  <si>
-    <t>YL.</t>
-  </si>
-  <si>
-    <t>a4c3e725</t>
-  </si>
-  <si>
-    <t>918357021</t>
-  </si>
-  <si>
-    <t>Tears.</t>
-  </si>
-  <si>
-    <t>1b30a393</t>
-  </si>
-  <si>
-    <t>3214774599</t>
-  </si>
-  <si>
-    <t>衔花送月到渡口</t>
-  </si>
-  <si>
-    <t>ff109235</t>
-  </si>
-  <si>
-    <t>2283538335</t>
-  </si>
-  <si>
-    <t>PrefacedCorg &amp; 梁家源 ⁧😋~喵⁧</t>
-  </si>
-  <si>
-    <t>64a075c9</t>
-  </si>
-  <si>
-    <t>1876568293</t>
-  </si>
-  <si>
-    <t>不问世事五千载</t>
-  </si>
-  <si>
-    <t>e547507a</t>
-  </si>
-  <si>
-    <t>158216094</t>
-  </si>
-  <si>
-    <t>在梦里见过你</t>
-  </si>
-  <si>
-    <t>dbbe0b14</t>
-  </si>
-  <si>
-    <t>2937797530</t>
-  </si>
-  <si>
-    <t>Satellite.</t>
-  </si>
-  <si>
-    <t>e272cd49</t>
-  </si>
-  <si>
-    <t>1125931910</t>
-  </si>
-  <si>
-    <t>pots</t>
-  </si>
-  <si>
-    <t>8c09b4b0</t>
-  </si>
-  <si>
-    <t>2014017597</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9bd2e82f</t>
-  </si>
-  <si>
-    <t>169611364</t>
-  </si>
-  <si>
-    <t>一條鹹鱼🐟君</t>
-  </si>
-  <si>
-    <t>c0711cf4</t>
-  </si>
-  <si>
-    <t>750323931</t>
-  </si>
-  <si>
-    <t>槿桥</t>
-  </si>
-  <si>
-    <t>551e9bbd</t>
-  </si>
-  <si>
-    <t>929535772</t>
-  </si>
-  <si>
-    <t>狐兰朵露</t>
-  </si>
-  <si>
-    <t>e912c56.</t>
-  </si>
-  <si>
-    <t>2242977200</t>
-  </si>
-  <si>
-    <t>a'ゞ苏苏</t>
-  </si>
-  <si>
-    <t>51a71d6b</t>
-  </si>
-  <si>
-    <t>1084629163</t>
-  </si>
-  <si>
-    <t>一切皆有可能</t>
-  </si>
-  <si>
-    <t>3b7dfb5c</t>
-  </si>
-  <si>
-    <t>1312087292</t>
-  </si>
-  <si>
-    <t>彼世节拍</t>
-  </si>
-  <si>
-    <t>fdef3cc8</t>
-  </si>
-  <si>
-    <t>1762488480</t>
-  </si>
-  <si>
-    <t>嘻嘻嘻</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>4b24a6b7</t>
-  </si>
-  <si>
-    <t>2751393486</t>
-  </si>
-  <si>
-    <t>        </t>
-  </si>
-  <si>
-    <t>eb0f7284</t>
-  </si>
-  <si>
-    <t>781456741</t>
-  </si>
-  <si>
-    <t>文昊</t>
-  </si>
-  <si>
-    <t>883c8e20</t>
-  </si>
-  <si>
-    <t>1243776890</t>
-  </si>
-  <si>
-    <t>clh</t>
-  </si>
-  <si>
-    <t>6cffec45</t>
-  </si>
-  <si>
-    <t>1007021745</t>
-  </si>
-  <si>
-    <t>Non-numb</t>
-  </si>
-  <si>
-    <t>f8241963</t>
-  </si>
-  <si>
-    <t>1183413694</t>
-  </si>
-  <si>
-    <t>WindGods</t>
-  </si>
-  <si>
-    <t>769cacfe</t>
-  </si>
-  <si>
-    <t>3501494634</t>
-  </si>
-  <si>
-    <t>天亮记得关灯</t>
-  </si>
-  <si>
-    <t>b97d7a30</t>
-  </si>
-  <si>
-    <t>1240538886</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6c198517</t>
-  </si>
-  <si>
-    <t>3291867868</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>a8cec24c</t>
-  </si>
-  <si>
-    <t>721844021</t>
-  </si>
-  <si>
-    <t>6d512350</t>
-  </si>
-  <si>
-    <t>情殇</t>
-  </si>
-  <si>
-    <t>cc8b8e9b</t>
-  </si>
-  <si>
-    <t>481613668</t>
-  </si>
-  <si>
-    <t>喝摩卡的Wiish</t>
-  </si>
-  <si>
-    <t>f4a577e0</t>
-  </si>
-  <si>
-    <t>1114161007</t>
-  </si>
-  <si>
-    <t>Saro</t>
-  </si>
-  <si>
-    <t>f0e7af44</t>
-  </si>
-  <si>
-    <t>1280082251</t>
-  </si>
-  <si>
-    <t>霰雪的天空</t>
-  </si>
-  <si>
-    <t>efb5bf5e</t>
-  </si>
-  <si>
-    <t>395432402</t>
-  </si>
-  <si>
-    <t>如果</t>
-  </si>
-  <si>
-    <t>f3bb7437</t>
-  </si>
-  <si>
-    <t>2752741520</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>d492fa67</t>
-  </si>
-  <si>
-    <t>571584956</t>
-  </si>
-  <si>
-    <t>隽昊</t>
-  </si>
-  <si>
-    <t>57c84d5.</t>
-  </si>
-  <si>
-    <t>992333681</t>
-  </si>
-  <si>
-    <t>卡米诺斯</t>
-  </si>
-  <si>
-    <t>224431c7</t>
-  </si>
-  <si>
-    <t>509958501</t>
-  </si>
-  <si>
-    <t>流星</t>
-  </si>
-  <si>
-    <t>62b965f4</t>
-  </si>
-  <si>
-    <t>911578662</t>
-  </si>
-  <si>
-    <t>望川秋水</t>
-  </si>
-  <si>
-    <t>ce8133cc</t>
-  </si>
-  <si>
-    <t>2042243985</t>
-  </si>
-  <si>
-    <t>不二·唯翊</t>
-  </si>
-  <si>
-    <t>99cc9bd.</t>
-  </si>
-  <si>
-    <t>17381507</t>
-  </si>
-  <si>
-    <t>ㅤ虚舟渡</t>
-  </si>
-  <si>
-    <t>2180ae09</t>
-  </si>
-  <si>
-    <t>122070046</t>
-  </si>
-  <si>
-    <t>稻田已被犁尽</t>
-  </si>
-  <si>
-    <t>613be8a1</t>
-  </si>
-  <si>
-    <t>1307077732</t>
-  </si>
-  <si>
-    <t>k.</t>
-  </si>
-  <si>
-    <t>bb0ed330</t>
-  </si>
-  <si>
-    <t>3099720782</t>
-  </si>
-  <si>
-    <t>a8102a9.</t>
-  </si>
-  <si>
-    <t>1554015133</t>
-  </si>
-  <si>
-    <t>3d66f1c1</t>
-  </si>
-  <si>
-    <t>2425167078</t>
-  </si>
-  <si>
-    <t>大声发</t>
-  </si>
-  <si>
-    <t>6e70d1ea</t>
-  </si>
-  <si>
-    <t>176324771</t>
-  </si>
-  <si>
-    <t>盛师傅</t>
-  </si>
-  <si>
-    <t>8a0ddaac</t>
-  </si>
-  <si>
-    <t>1470740944</t>
-  </si>
-  <si>
-    <t>江東.</t>
-  </si>
-  <si>
-    <t>35557dba</t>
-  </si>
-  <si>
-    <t>1508574214</t>
-  </si>
-  <si>
-    <t>℘̶敗̶給̶鐘̶意</t>
-  </si>
-  <si>
-    <t>e3a9c24f</t>
-  </si>
-  <si>
-    <t>1718358607</t>
-  </si>
-  <si>
-    <t>🐏如画</t>
-  </si>
-  <si>
-    <t>ec74cad7</t>
-  </si>
-  <si>
-    <t>1828429965</t>
-  </si>
-  <si>
-    <t>ly</t>
-  </si>
-  <si>
-    <t>7d895744</t>
-  </si>
-  <si>
-    <t>1542303450</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>60527ee0</t>
-  </si>
-  <si>
-    <t>3579627143</t>
-  </si>
-  <si>
     <t>391111874</t>
   </si>
   <si>
@@ -1124,6 +1124,36 @@
   </si>
   <si>
     <t>2399377548</t>
+  </si>
+  <si>
+    <t>明月清风</t>
+  </si>
+  <si>
+    <t>99d2d864</t>
+  </si>
+  <si>
+    <t>1170136452</t>
+  </si>
+  <si>
+    <t>林楠笙</t>
+  </si>
+  <si>
+    <t>818fcd8b</t>
+  </si>
+  <si>
+    <t>2254560544</t>
+  </si>
+  <si>
+    <t>2873366a</t>
+  </si>
+  <si>
+    <t>🌕Slava</t>
+  </si>
+  <si>
+    <t>4845d2f5</t>
+  </si>
+  <si>
+    <t>815043960</t>
   </si>
   <si>
     <t>此处填写（必填）</t>
@@ -1191,13 +1221,19 @@
   <si>
     <r>
       <rPr/>
+      <t>秋落北</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>d0fdfab0</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>秋落北</t>
+      <t>诚</t>
     </r>
   </si>
   <si>
@@ -1209,12 +1245,6 @@
   <si>
     <r>
       <rPr/>
-      <t>诚</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>32c238bf</t>
     </r>
   </si>
@@ -1239,13 +1269,13 @@
   <si>
     <r>
       <rPr/>
-      <t>寓庸</t>
+      <t>cc54218b</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>cc54218b</t>
+      <t>寓庸</t>
     </r>
   </si>
   <si>
@@ -1299,13 +1329,13 @@
   <si>
     <r>
       <rPr/>
-      <t>Sakiio</t>
+      <t>e42e7687</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>e42e7687</t>
+      <t>Sakiio</t>
     </r>
   </si>
   <si>
@@ -1347,25 +1377,25 @@
   <si>
     <r>
       <rPr/>
+      <t>一个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>64307a32</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>一个人</t>
+      <t>cacdbfed</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
       <t>时·逝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>cacdbfed</t>
     </r>
   </si>
 </sst>
@@ -1768,7 +1798,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D141"/>
+  <dimension ref="D145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1858,14 +1888,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>45892.464525463</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1899,106 +1932,106 @@
         <v>45893.4208101852</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7">
         <v>45894.77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7">
         <v>45896.8489236111</v>
@@ -2007,718 +2040,718 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7">
         <v>45897.9370717593</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="5">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
         <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
         <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
         <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="5">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
         <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="5">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
         <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="5">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
         <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="5">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
         <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
         <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
         <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="5">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
         <v>90</v>
-      </c>
-      <c r="D39" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="5">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
         <v>93</v>
-      </c>
-      <c r="D40" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="5">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
         <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="5">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
         <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="5">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
         <v>102</v>
-      </c>
-      <c r="D43" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="5">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
         <v>105</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="5">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
         <v>108</v>
-      </c>
-      <c r="D45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="5">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
         <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="5">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
         <v>114</v>
-      </c>
-      <c r="D47" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="5">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
         <v>117</v>
-      </c>
-      <c r="D48" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="5">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s">
         <v>120</v>
-      </c>
-      <c r="D49" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="5">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
         <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="7">
         <v>45923.5852662037</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="5">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
         <v>127</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="7">
         <v>45929.8563310185</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="5">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
         <v>130</v>
-      </c>
-      <c r="D54" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="5">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
         <v>133</v>
-      </c>
-      <c r="D55" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="5">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
         <v>136</v>
-      </c>
-      <c r="D56" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="5">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
         <v>139</v>
-      </c>
-      <c r="D57" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" s="5">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
         <v>142</v>
-      </c>
-      <c r="D58" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="5">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" t="s">
         <v>145</v>
-      </c>
-      <c r="D59" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" s="5">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
         <v>148</v>
-      </c>
-      <c r="D60" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61" s="5">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
         <v>151</v>
-      </c>
-      <c r="D61" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="5">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" s="5">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" t="s">
         <v>155</v>
-      </c>
-      <c r="D63" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="5">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
         <v>158</v>
-      </c>
-      <c r="D64" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="5">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" t="s">
         <v>161</v>
-      </c>
-      <c r="D65" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="5">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" t="s">
         <v>164</v>
-      </c>
-      <c r="D66" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="5">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" t="s">
         <v>167</v>
-      </c>
-      <c r="D67" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" s="5">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
         <v>170</v>
-      </c>
-      <c r="D68" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" s="5">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
         <v>173</v>
-      </c>
-      <c r="D69" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="5">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" t="s">
         <v>176</v>
-      </c>
-      <c r="D70" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" s="5">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" t="s">
         <v>179</v>
-      </c>
-      <c r="D71" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B72" s="5">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" t="s">
         <v>182</v>
-      </c>
-      <c r="D72" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2729,66 +2762,66 @@
         <v>45951.9326967593</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="5">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" t="s">
         <v>185</v>
-      </c>
-      <c r="D74" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" s="5">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
         <v>188</v>
-      </c>
-      <c r="D75" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B76" s="5">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" t="s">
         <v>191</v>
-      </c>
-      <c r="D76" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B77" s="5">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" t="s">
         <v>194</v>
-      </c>
-      <c r="D77" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2799,10 +2832,10 @@
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" t="s">
         <v>196</v>
-      </c>
-      <c r="D78" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2813,108 +2846,108 @@
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" t="s">
         <v>198</v>
-      </c>
-      <c r="D79" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B80" s="5">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
+        <v>200</v>
+      </c>
+      <c r="D80" t="s">
         <v>201</v>
-      </c>
-      <c r="D80" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B81" s="5">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" t="s">
         <v>204</v>
-      </c>
-      <c r="D81" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="5">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
         <v>207</v>
-      </c>
-      <c r="D82" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B83" s="5">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" t="s">
         <v>210</v>
-      </c>
-      <c r="D83" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B84" s="5">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" t="s">
         <v>213</v>
-      </c>
-      <c r="D84" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B85" s="5">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" t="s">
         <v>216</v>
-      </c>
-      <c r="D85" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B86" s="5">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
         <v>219</v>
-      </c>
-      <c r="D86" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2925,7 +2958,7 @@
         <v>45959.3531481482</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="D87" t="s">
         <v>221</v>
@@ -2939,7 +2972,7 @@
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D88" t="s">
         <v>223</v>
@@ -2981,10 +3014,10 @@
         <v>45962.8563425926</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3107,10 +3140,10 @@
         <v>45968.9302199074</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3227,7 +3260,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B109" s="5">
         <v>45977.5766319445</v>
@@ -3387,10 +3420,10 @@
         <v>45984.6307291667</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3415,10 +3448,10 @@
         <v>45990.0689583333</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3513,10 +3546,10 @@
         <v>46001.8632407408</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3685,6 +3718,62 @@
       </c>
       <c r="D141" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" s="5">
+        <v>46020.4609837963</v>
+      </c>
+      <c r="C142" t="s">
+        <v>371</v>
+      </c>
+      <c r="D142" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>373</v>
+      </c>
+      <c r="B143" s="5">
+        <v>46020.4718634259</v>
+      </c>
+      <c r="C143" t="s">
+        <v>374</v>
+      </c>
+      <c r="D143" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>346</v>
+      </c>
+      <c r="B144" s="5">
+        <v>46020.8255092593</v>
+      </c>
+      <c r="C144" t="s">
+        <v>376</v>
+      </c>
+      <c r="D144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>377</v>
+      </c>
+      <c r="B145" s="5">
+        <v>46020.8675</v>
+      </c>
+      <c r="C145" t="s">
+        <v>378</v>
+      </c>
+      <c r="D145" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3717,178 +3806,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -9,12 +9,12 @@
     <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId3"/>
     <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t/>
   </si>
@@ -25,6 +25,57 @@
     <t>提交时间（自动）</t>
   </si>
   <si>
+    <t>此处填写（必填）</t>
+  </si>
+  <si>
+    <t>2025年8月22日 21:46</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:22</t>
+  </si>
+  <si>
+    <t>2025年8月22日 22:23</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:04</t>
+  </si>
+  <si>
+    <t>2025年8月23日 02:34</t>
+  </si>
+  <si>
+    <t>2025年8月23日 09:36</t>
+  </si>
+  <si>
+    <t>2025年8月23日 11:08</t>
+  </si>
+  <si>
+    <t>2025年8月23日 20:39</t>
+  </si>
+  <si>
+    <t>2025年8月23日 23:42</t>
+  </si>
+  <si>
+    <t>2025年8月24日 10:05</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:24</t>
+  </si>
+  <si>
+    <t>2025年8月25日 18:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 01:28</t>
+  </si>
+  <si>
+    <t>2025年8月26日 04:51</t>
+  </si>
+  <si>
+    <t>2025年8月26日 12:01</t>
+  </si>
+  <si>
+    <t>2025年8月26日 23:25</t>
+  </si>
+  <si>
     <t>序列号（必填）</t>
   </si>
   <si>
@@ -1156,55 +1207,19 @@
     <t>815043960</t>
   </si>
   <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
-    <t>2025年8月22日 21:46</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:22</t>
-  </si>
-  <si>
-    <t>2025年8月22日 22:23</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:04</t>
-  </si>
-  <si>
-    <t>2025年8月23日 02:34</t>
-  </si>
-  <si>
-    <t>2025年8月23日 09:36</t>
-  </si>
-  <si>
-    <t>2025年8月23日 11:08</t>
-  </si>
-  <si>
-    <t>2025年8月23日 20:39</t>
-  </si>
-  <si>
-    <t>2025年8月23日 23:42</t>
-  </si>
-  <si>
-    <t>2025年8月24日 10:05</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:24</t>
-  </si>
-  <si>
-    <t>2025年8月25日 18:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 01:28</t>
-  </si>
-  <si>
-    <t>2025年8月26日 04:51</t>
-  </si>
-  <si>
-    <t>2025年8月26日 12:01</t>
-  </si>
-  <si>
-    <t>2025年8月26日 23:25</t>
+    <t>G134</t>
+  </si>
+  <si>
+    <t>a441db3f</t>
+  </si>
+  <si>
+    <t>869950459</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>陆十柒（羽翼春秋）</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1215,7 +1230,7 @@
   <si>
     <r>
       <rPr/>
-      <t>陆十柒（羽翼春秋）</t>
+      <t>d0fdfab0</t>
     </r>
   </si>
   <si>
@@ -1227,7 +1242,7 @@
   <si>
     <r>
       <rPr/>
-      <t>d0fdfab0</t>
+      <t>1749b33b</t>
     </r>
   </si>
   <si>
@@ -1239,12 +1254,6 @@
   <si>
     <r>
       <rPr/>
-      <t>1749b33b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t>32c238bf</t>
     </r>
   </si>
@@ -1305,13 +1314,13 @@
   <si>
     <r>
       <rPr/>
-      <t>8943eb1a</t>
+      <t>晅方</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>晅方</t>
+      <t>8943eb1a</t>
     </r>
   </si>
   <si>
@@ -1377,25 +1386,25 @@
   <si>
     <r>
       <rPr/>
+      <t>64307a32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
       <t>一个人</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
-      <t>64307a32</t>
+      <t>时·逝</t>
     </r>
   </si>
   <si>
     <r>
       <rPr/>
       <t>cacdbfed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>时·逝</t>
     </r>
   </si>
 </sst>
@@ -1429,10 +1438,10 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
     <font>
       <strike val="true"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -1481,19 +1490,19 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,7 +1807,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="D145"/>
+  <dimension ref="D146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1809,1971 +1818,1985 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>45891.9074884259</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>45891.9323958333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>45891.9330439815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
         <v>45892.0862962963</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>45892.1075347222</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>45892.4005671296</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8">
         <v>45892.464525463</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6">
         <v>45892.8604166667</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
         <v>45892.9881018519</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8">
         <v>45893.4208101852</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6">
         <v>45894.7668055556</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8">
         <v>45894.77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5">
+        <v>44</v>
+      </c>
+      <c r="B14" s="6">
         <v>45895.0616319445</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="5">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6">
         <v>45895.2026967593</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6">
         <v>45895.5009837963</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="5">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
         <v>45895.9758449074</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6">
         <v>45896.5236574074</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="5">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6">
         <v>45896.5941203704</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="8">
         <v>45896.8489236111</v>
       </c>
-      <c r="C20" s="6" t="s"/>
+      <c r="C20" s="7" t="s"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5">
+        <v>57</v>
+      </c>
+      <c r="B21" s="6">
         <v>45897.007962963</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6">
         <v>45897.4482060185</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="5">
+        <v>61</v>
+      </c>
+      <c r="B23" s="6">
         <v>45897.7506134259</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5">
+        <v>63</v>
+      </c>
+      <c r="B24" s="6">
         <v>45897.9142013889</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8">
         <v>45897.9370717593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="5">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6">
         <v>45899.356400463</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="5">
+        <v>69</v>
+      </c>
+      <c r="B27" s="6">
         <v>45899.747337963</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="5">
+        <v>72</v>
+      </c>
+      <c r="B28" s="6">
         <v>45902.3671412037</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="5">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6">
         <v>45903.3009259259</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="5">
+        <v>78</v>
+      </c>
+      <c r="B30" s="6">
         <v>45903.7280555556</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="5">
+        <v>81</v>
+      </c>
+      <c r="B31" s="6">
         <v>45903.8242592593</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="5">
+        <v>84</v>
+      </c>
+      <c r="B32" s="6">
         <v>45904.3019791667</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="5">
+        <v>87</v>
+      </c>
+      <c r="B33" s="6">
         <v>45904.5552430556</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="5">
+        <v>90</v>
+      </c>
+      <c r="B34" s="6">
         <v>45905.6912037037</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="5">
+        <v>93</v>
+      </c>
+      <c r="B35" s="6">
         <v>45909.007025463</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="5">
+        <v>96</v>
+      </c>
+      <c r="B36" s="6">
         <v>45909.3519560185</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="5">
+        <v>99</v>
+      </c>
+      <c r="B37" s="6">
         <v>45912.0475925926</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="5">
+        <v>102</v>
+      </c>
+      <c r="B38" s="6">
         <v>45912.551712963</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="5">
+        <v>105</v>
+      </c>
+      <c r="B39" s="6">
         <v>45912.7148611111</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="5">
+        <v>108</v>
+      </c>
+      <c r="B40" s="6">
         <v>45913.5921064815</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="5">
+        <v>111</v>
+      </c>
+      <c r="B41" s="6">
         <v>45914.7687037037</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="5">
+        <v>114</v>
+      </c>
+      <c r="B42" s="6">
         <v>45915.9581712963</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="5">
+        <v>117</v>
+      </c>
+      <c r="B43" s="6">
         <v>45916.0037152778</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="5">
+        <v>120</v>
+      </c>
+      <c r="B44" s="6">
         <v>45917.0514236111</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="5">
+        <v>123</v>
+      </c>
+      <c r="B45" s="6">
         <v>45918.5747569445</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="5">
+        <v>126</v>
+      </c>
+      <c r="B46" s="6">
         <v>45919.3754050926</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="5">
+        <v>129</v>
+      </c>
+      <c r="B47" s="6">
         <v>45919.7420833333</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="5">
+        <v>132</v>
+      </c>
+      <c r="B48" s="6">
         <v>45919.7523495371</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="5">
+        <v>135</v>
+      </c>
+      <c r="B49" s="6">
         <v>45920.4485763889</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="5">
+        <v>138</v>
+      </c>
+      <c r="B50" s="6">
         <v>45921.188587963</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="8">
         <v>45923.5852662037</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>18</v>
+      <c r="C51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="5">
+        <v>142</v>
+      </c>
+      <c r="B52" s="6">
         <v>45923.7846296296</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="8">
         <v>45929.8563310185</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>18</v>
+      <c r="C53" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="5">
+        <v>145</v>
+      </c>
+      <c r="B54" s="6">
         <v>45929.9812037037</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="5">
+        <v>148</v>
+      </c>
+      <c r="B55" s="6">
         <v>45931.129525463</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="5">
+        <v>151</v>
+      </c>
+      <c r="B56" s="6">
         <v>45931.5039236111</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="5">
+        <v>154</v>
+      </c>
+      <c r="B57" s="6">
         <v>45931.6418634259</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="5">
+        <v>157</v>
+      </c>
+      <c r="B58" s="6">
         <v>45934.9315972222</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="5">
+        <v>160</v>
+      </c>
+      <c r="B59" s="6">
         <v>45938.4237037037</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="5">
+        <v>163</v>
+      </c>
+      <c r="B60" s="6">
         <v>45938.5117361111</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="5">
+        <v>166</v>
+      </c>
+      <c r="B61" s="6">
         <v>45942.5586689815</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="5">
+        <v>93</v>
+      </c>
+      <c r="B62" s="6">
         <v>45944.9451736111</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="5">
+        <v>170</v>
+      </c>
+      <c r="B63" s="6">
         <v>45945.8690162037</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="5">
+        <v>173</v>
+      </c>
+      <c r="B64" s="6">
         <v>45946.8488657408</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="5">
+        <v>176</v>
+      </c>
+      <c r="B65" s="6">
         <v>45949.0311921296</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="5">
+        <v>179</v>
+      </c>
+      <c r="B66" s="6">
         <v>45949.0345949074</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="5">
+        <v>182</v>
+      </c>
+      <c r="B67" s="6">
         <v>45949.5079398148</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>168</v>
-      </c>
-      <c r="B68" s="5">
+        <v>185</v>
+      </c>
+      <c r="B68" s="6">
         <v>45949.5953240741</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="5">
+        <v>188</v>
+      </c>
+      <c r="B69" s="6">
         <v>45949.7996180556</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="5">
+        <v>191</v>
+      </c>
+      <c r="B70" s="6">
         <v>45949.973900463</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="5">
+        <v>194</v>
+      </c>
+      <c r="B71" s="6">
         <v>45950.092662037</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="5">
+        <v>197</v>
+      </c>
+      <c r="B72" s="6">
         <v>45951.8336689815</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="8">
         <v>45951.9326967593</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>18</v>
+      <c r="C73" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>183</v>
-      </c>
-      <c r="B74" s="5">
+        <v>200</v>
+      </c>
+      <c r="B74" s="6">
         <v>45952.0478472222</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75" s="5">
+        <v>203</v>
+      </c>
+      <c r="B75" s="6">
         <v>45952.2558796296</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>189</v>
-      </c>
-      <c r="B76" s="5">
+        <v>206</v>
+      </c>
+      <c r="B76" s="6">
         <v>45952.7540625</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>192</v>
-      </c>
-      <c r="B77" s="5">
+        <v>209</v>
+      </c>
+      <c r="B77" s="6">
         <v>45953.0750694445</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6">
         <v>45953.3749652778</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5">
+        <v>22</v>
+      </c>
+      <c r="B79" s="6">
         <v>45954.9465046296</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="5">
+        <v>216</v>
+      </c>
+      <c r="B80" s="6">
         <v>45955.4026851852</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" s="5">
+        <v>219</v>
+      </c>
+      <c r="B81" s="6">
         <v>45955.4330092593</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D81" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>205</v>
-      </c>
-      <c r="B82" s="5">
+        <v>222</v>
+      </c>
+      <c r="B82" s="6">
         <v>45955.8014467593</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>208</v>
-      </c>
-      <c r="B83" s="5">
+        <v>225</v>
+      </c>
+      <c r="B83" s="6">
         <v>45955.8967476852</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>211</v>
-      </c>
-      <c r="B84" s="5">
+        <v>228</v>
+      </c>
+      <c r="B84" s="6">
         <v>45957.8094444445</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>214</v>
-      </c>
-      <c r="B85" s="5">
+        <v>231</v>
+      </c>
+      <c r="B85" s="6">
         <v>45957.9504050926</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>217</v>
-      </c>
-      <c r="B86" s="5">
+        <v>234</v>
+      </c>
+      <c r="B86" s="6">
         <v>45959.1914583333</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="5">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6">
         <v>45959.3531481482</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="5">
+        <v>239</v>
+      </c>
+      <c r="B88" s="6">
         <v>45960.4028356482</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="5">
+        <v>241</v>
+      </c>
+      <c r="B89" s="6">
         <v>45961.5695833333</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="5">
+        <v>244</v>
+      </c>
+      <c r="B90" s="6">
         <v>45961.5820138889</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B91" s="7">
+      <c r="A91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="8">
         <v>45962.8563425926</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>18</v>
+      <c r="C91" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>231</v>
-      </c>
-      <c r="B92" s="5">
+        <v>248</v>
+      </c>
+      <c r="B92" s="6">
         <v>45963.3198611111</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>234</v>
-      </c>
-      <c r="B93" s="5">
+        <v>251</v>
+      </c>
+      <c r="B93" s="6">
         <v>45963.4459375</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B94" s="5">
+        <v>254</v>
+      </c>
+      <c r="B94" s="6">
         <v>45963.4798842593</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>240</v>
-      </c>
-      <c r="B95" s="5">
+        <v>257</v>
+      </c>
+      <c r="B95" s="6">
         <v>45963.5821064815</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96" s="5">
+        <v>260</v>
+      </c>
+      <c r="B96" s="6">
         <v>45963.7414467593</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>246</v>
-      </c>
-      <c r="B97" s="5">
+        <v>263</v>
+      </c>
+      <c r="B97" s="6">
         <v>45965.950474537</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>249</v>
-      </c>
-      <c r="B98" s="5">
+        <v>266</v>
+      </c>
+      <c r="B98" s="6">
         <v>45966.5753009259</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>252</v>
-      </c>
-      <c r="B99" s="5">
+        <v>269</v>
+      </c>
+      <c r="B99" s="6">
         <v>45968.8870138889</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B100" s="7">
+      <c r="A100" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="8">
         <v>45968.9302199074</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>18</v>
+      <c r="C100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>256</v>
-      </c>
-      <c r="B101" s="5">
+        <v>273</v>
+      </c>
+      <c r="B101" s="6">
         <v>45969.5273842593</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D101" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>259</v>
-      </c>
-      <c r="B102" s="5">
+        <v>276</v>
+      </c>
+      <c r="B102" s="6">
         <v>45969.6453819445</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>262</v>
-      </c>
-      <c r="B103" s="5">
+        <v>279</v>
+      </c>
+      <c r="B103" s="6">
         <v>45969.8944328704</v>
       </c>
       <c r="C103" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="D103" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>265</v>
-      </c>
-      <c r="B104" s="5">
+        <v>282</v>
+      </c>
+      <c r="B104" s="6">
         <v>45969.9042361111</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>268</v>
-      </c>
-      <c r="B105" s="5">
+        <v>285</v>
+      </c>
+      <c r="B105" s="6">
         <v>45973.8885185185</v>
       </c>
       <c r="C105" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>271</v>
-      </c>
-      <c r="B106" s="5">
+        <v>288</v>
+      </c>
+      <c r="B106" s="6">
         <v>45973.9549305556</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>274</v>
-      </c>
-      <c r="B107" s="5">
+        <v>291</v>
+      </c>
+      <c r="B107" s="6">
         <v>45974.0308449074</v>
       </c>
       <c r="C107" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>277</v>
-      </c>
-      <c r="B108" s="5">
+        <v>294</v>
+      </c>
+      <c r="B108" s="6">
         <v>45976.9116898148</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D108" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>49</v>
-      </c>
-      <c r="B109" s="5">
+        <v>66</v>
+      </c>
+      <c r="B109" s="6">
         <v>45977.5766319445</v>
       </c>
       <c r="C109" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="D109" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>282</v>
-      </c>
-      <c r="B110" s="5">
+        <v>299</v>
+      </c>
+      <c r="B110" s="6">
         <v>45977.8849652778</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>285</v>
-      </c>
-      <c r="B111" s="5">
+        <v>302</v>
+      </c>
+      <c r="B111" s="6">
         <v>45978.8267013889</v>
       </c>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D111" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>288</v>
-      </c>
-      <c r="B112" s="5">
+        <v>305</v>
+      </c>
+      <c r="B112" s="6">
         <v>45980.8867592593</v>
       </c>
       <c r="C112" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D112" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>291</v>
-      </c>
-      <c r="B113" s="5">
+        <v>308</v>
+      </c>
+      <c r="B113" s="6">
         <v>45980.9207986111</v>
       </c>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D113" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>294</v>
-      </c>
-      <c r="B114" s="5">
+        <v>311</v>
+      </c>
+      <c r="B114" s="6">
         <v>45982.0552199074</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>297</v>
-      </c>
-      <c r="B115" s="5">
+        <v>314</v>
+      </c>
+      <c r="B115" s="6">
         <v>45982.8740740741</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>300</v>
-      </c>
-      <c r="B116" s="5">
+        <v>317</v>
+      </c>
+      <c r="B116" s="6">
         <v>45983.3904861111</v>
       </c>
       <c r="C116" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>303</v>
-      </c>
-      <c r="B117" s="5">
+        <v>320</v>
+      </c>
+      <c r="B117" s="6">
         <v>45983.913900463</v>
       </c>
       <c r="C117" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D117" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>306</v>
-      </c>
-      <c r="B118" s="5">
+        <v>323</v>
+      </c>
+      <c r="B118" s="6">
         <v>45983.9352662037</v>
       </c>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>309</v>
-      </c>
-      <c r="B119" s="5">
+        <v>326</v>
+      </c>
+      <c r="B119" s="6">
         <v>45984.485150463</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B120" s="7">
+      <c r="A120" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="8">
         <v>45984.6307291667</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>18</v>
+      <c r="C120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>313</v>
-      </c>
-      <c r="B121" s="5">
+        <v>330</v>
+      </c>
+      <c r="B121" s="6">
         <v>45989.522025463</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D121" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B122" s="7">
+      <c r="A122" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B122" s="8">
         <v>45990.0689583333</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>18</v>
+      <c r="C122" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>316</v>
-      </c>
-      <c r="B123" s="5">
+        <v>333</v>
+      </c>
+      <c r="B123" s="6">
         <v>45990.1143865741</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D123" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>319</v>
-      </c>
-      <c r="B124" s="5">
+        <v>336</v>
+      </c>
+      <c r="B124" s="6">
         <v>45991.862025463</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D124" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>322</v>
-      </c>
-      <c r="B125" s="5">
+        <v>339</v>
+      </c>
+      <c r="B125" s="6">
         <v>45992.4657638889</v>
       </c>
       <c r="C125" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="D125" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>325</v>
-      </c>
-      <c r="B126" s="5">
+        <v>342</v>
+      </c>
+      <c r="B126" s="6">
         <v>45993.4214351852</v>
       </c>
       <c r="C126" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>328</v>
-      </c>
-      <c r="B127" s="5">
+        <v>345</v>
+      </c>
+      <c r="B127" s="6">
         <v>45994.7843402778</v>
       </c>
       <c r="C127" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="D127" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>331</v>
-      </c>
-      <c r="B128" s="5">
+        <v>348</v>
+      </c>
+      <c r="B128" s="6">
         <v>45997.6046412037</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B129" s="7">
+      <c r="A129" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129" s="8">
         <v>46001.8632407408</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>18</v>
+      <c r="C129" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>335</v>
-      </c>
-      <c r="B130" s="5">
+        <v>352</v>
+      </c>
+      <c r="B130" s="6">
         <v>46002.6178587963</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="D130" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>338</v>
-      </c>
-      <c r="B131" s="5">
+        <v>355</v>
+      </c>
+      <c r="B131" s="6">
         <v>46003.6876851852</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D131" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>341</v>
-      </c>
-      <c r="B132" s="5">
+        <v>358</v>
+      </c>
+      <c r="B132" s="6">
         <v>46005.4341203704</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D132" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>334</v>
-      </c>
-      <c r="B133" s="5">
+        <v>351</v>
+      </c>
+      <c r="B133" s="6">
         <v>46007.244837963</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>346</v>
-      </c>
-      <c r="B134" s="5">
+        <v>363</v>
+      </c>
+      <c r="B134" s="6">
         <v>46010.5293981482</v>
       </c>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D134" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>349</v>
-      </c>
-      <c r="B135" s="5">
+        <v>366</v>
+      </c>
+      <c r="B135" s="6">
         <v>46011.935775463</v>
       </c>
       <c r="C135" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="D135" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>352</v>
-      </c>
-      <c r="B136" s="5">
+        <v>369</v>
+      </c>
+      <c r="B136" s="6">
         <v>46013.8826967593</v>
       </c>
       <c r="C136" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D136" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>355</v>
-      </c>
-      <c r="B137" s="5">
+        <v>372</v>
+      </c>
+      <c r="B137" s="6">
         <v>46015.0924537037</v>
       </c>
       <c r="C137" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="D137" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>358</v>
-      </c>
-      <c r="B138" s="5">
+        <v>375</v>
+      </c>
+      <c r="B138" s="6">
         <v>46015.3688657408</v>
       </c>
       <c r="C138" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="D138" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>361</v>
-      </c>
-      <c r="B139" s="5">
+        <v>378</v>
+      </c>
+      <c r="B139" s="6">
         <v>46016.7304282408</v>
       </c>
       <c r="C139" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D139" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>364</v>
-      </c>
-      <c r="B140" s="5">
+        <v>381</v>
+      </c>
+      <c r="B140" s="6">
         <v>46018.6778587963</v>
       </c>
       <c r="C140" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D140" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>367</v>
-      </c>
-      <c r="B141" s="5">
+        <v>384</v>
+      </c>
+      <c r="B141" s="6">
         <v>46018.8404050926</v>
       </c>
       <c r="C141" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D141" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>370</v>
-      </c>
-      <c r="B142" s="5">
+        <v>387</v>
+      </c>
+      <c r="B142" s="6">
         <v>46020.4609837963</v>
       </c>
       <c r="C142" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>373</v>
-      </c>
-      <c r="B143" s="5">
+        <v>390</v>
+      </c>
+      <c r="B143" s="6">
         <v>46020.4718634259</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D143" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>346</v>
-      </c>
-      <c r="B144" s="5">
+        <v>363</v>
+      </c>
+      <c r="B144" s="6">
         <v>46020.8255092593</v>
       </c>
       <c r="C144" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="D144" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>377</v>
-      </c>
-      <c r="B145" s="5">
+        <v>394</v>
+      </c>
+      <c r="B145" s="6">
         <v>46020.8675</v>
       </c>
       <c r="C145" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="D145" t="s">
-        <v>379</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>397</v>
+      </c>
+      <c r="B146" s="6">
+        <v>46022.0111226852</v>
+      </c>
+      <c r="C146" t="s">
+        <v>398</v>
+      </c>
+      <c r="D146" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3806,178 +3829,178 @@
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="false">
       <c r="A2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>398</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="false">
       <c r="A3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>399</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="false">
       <c r="A4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>401</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="false">
       <c r="A5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>404</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="false">
       <c r="A6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>406</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="false">
       <c r="A7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>408</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="false">
       <c r="A8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>410</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="false">
       <c r="A9" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>412</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="false">
       <c r="A10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>414</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="false">
       <c r="A11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>416</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="false">
       <c r="A12" t="s">
-        <v>391</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>418</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="false">
       <c r="A13" t="s">
-        <v>392</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>420</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="false">
       <c r="A14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>422</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="false">
       <c r="A15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>424</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="false">
       <c r="A16" t="s">
-        <v>395</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>425</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="false">
       <c r="A17" t="s">
-        <v>396</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>428</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/data/八位序列号收集（收集结果）.xlsx
+++ b/data/八位序列号收集（收集结果）.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DD044-8F49-494B-8DDA-25425B4E8A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId3"/>
-    <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId4"/>
+    <sheet name="八位序列号收集收集结果yd5" sheetId="1" r:id="rId1"/>
+    <sheet name="八位序列号收集（收集结果）" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="436">
+  <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>此处填写（必填）</t>
   </si>
   <si>
     <t>提交者（自动）</t>
   </si>
   <si>
-    <t>提交时间（自动）</t>
-  </si>
-  <si>
-    <t>此处填写（必填）</t>
-  </si>
-  <si>
     <t>2025年8月22日 21:46</t>
   </si>
   <si>
@@ -1216,231 +1220,150 @@
     <t>869950459</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>陆十柒（羽翼春秋）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>2b937519</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>d0fdfab0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>秋落北</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>1749b33b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>诚</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>32c238bf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>初晨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>749499fb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>[$ǿĀD]1212121[$ǿĀD]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>cc54218b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>寓庸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>f738671.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>终若.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>7a92bcf8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>AY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>晅方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>8943eb1a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>67d90357</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>Hydro_Gen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>e42e7687</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>Sakiio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>e2877443</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>立东</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>74cc9a81</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>CyanCity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>67d0c2f4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>Over</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>64307a32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>一个人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>时·逝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>cacdbfed</t>
-    </r>
+    <t>🤡</t>
+  </si>
+  <si>
+    <t>喵左_Lenin</t>
+  </si>
+  <si>
+    <t>bbf96178</t>
+  </si>
+  <si>
+    <t>1795579552</t>
+  </si>
+  <si>
+    <t>9e8e2d0a</t>
+  </si>
+  <si>
+    <t>2b937519</t>
+  </si>
+  <si>
+    <t>陆十柒（羽翼春秋）</t>
+  </si>
+  <si>
+    <t>秋落北</t>
+  </si>
+  <si>
+    <t>d0fdfab0</t>
+  </si>
+  <si>
+    <t>1749b33b</t>
+  </si>
+  <si>
+    <t>诚</t>
+  </si>
+  <si>
+    <t>32c238bf</t>
+  </si>
+  <si>
+    <t>初晨</t>
+  </si>
+  <si>
+    <t>749499fb</t>
+  </si>
+  <si>
+    <t>[$ǿĀD]1212121[$ǿĀD]</t>
+  </si>
+  <si>
+    <t>cc54218b</t>
+  </si>
+  <si>
+    <t>寓庸</t>
+  </si>
+  <si>
+    <t>终若.</t>
+  </si>
+  <si>
+    <t>f738671.</t>
+  </si>
+  <si>
+    <t>7a92bcf8</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>8943eb1a</t>
+  </si>
+  <si>
+    <t>晅方</t>
+  </si>
+  <si>
+    <t>67d90357</t>
+  </si>
+  <si>
+    <t>Hydro_Gen</t>
+  </si>
+  <si>
+    <t>e42e7687</t>
+  </si>
+  <si>
+    <t>Sakiio</t>
+  </si>
+  <si>
+    <t>e2877443</t>
+  </si>
+  <si>
+    <t>立东</t>
+  </si>
+  <si>
+    <t>74cc9a81</t>
+  </si>
+  <si>
+    <t>CyanCity</t>
+  </si>
+  <si>
+    <t>67d0c2f4</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>一个人</t>
+  </si>
+  <si>
+    <t>64307a32</t>
+  </si>
+  <si>
+    <t>cacdbfed</t>
+  </si>
+  <si>
+    <t>时·逝</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="300" formatCode="yyyy/m/d h:mm:ss;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Segoe UI Symbol"/>
+      <strike/>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font/>
-    <font>
-      <strike val="true"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1472,45 +1395,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="3" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="4" fillId="3" borderId="0" xfId="0">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" name="Office 主题​​" mc:Ignorable="thm15">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1661,7 +1588,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1685,9 +1612,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1711,7 +1638,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1746,7 +1673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1764,7 +1691,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1789,7 +1716,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1798,2211 +1725,2266 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="D146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D151" sqref="A150:D151"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.0117" customWidth="true"/>
-    <col min="2" max="2" width="20.5039" customWidth="true"/>
-    <col min="3" max="3" width="24.6836" customWidth="true"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="3">
+        <v>45891.907488425903</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6">
-        <v>45891.9074884259</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" s="3">
+        <v>45891.932395833297</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6">
-        <v>45891.9323958333</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" s="3">
+        <v>45891.933043981502</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6">
-        <v>45891.9330439815</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" s="3">
+        <v>45892.0862962963</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6">
-        <v>45892.0862962963</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" s="3">
+        <v>45892.107534722199</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6">
-        <v>45892.1075347222</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" s="3">
+        <v>45892.400567129604</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
-        <v>45892.4005671296</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="5">
+        <v>45892.464525463001</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="8">
-        <v>45892.464525463</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" s="3">
+        <v>45892.860416666699</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6">
-        <v>45892.8604166667</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" s="3">
+        <v>45892.988101851901</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6">
-        <v>45892.9881018519</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="5">
+        <v>45893.420810185198</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="8">
-        <v>45893.4208101852</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" s="3">
+        <v>45894.766805555599</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="6">
-        <v>45894.7668055556</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="5">
+        <v>45894.77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="8">
-        <v>45894.77</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" s="3">
+        <v>45895.061631944503</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6">
-        <v>45895.0616319445</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B15" s="3">
+        <v>45895.202696759297</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6">
-        <v>45895.2026967593</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B16" s="3">
+        <v>45895.500983796301</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="6">
-        <v>45895.5009837963</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" s="3">
+        <v>45895.9758449074</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="6">
-        <v>45895.9758449074</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18" s="3">
+        <v>45896.523657407401</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="6">
-        <v>45896.5236574074</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" s="3">
+        <v>45896.594120370399</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6">
-        <v>45896.5941203704</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="5">
+        <v>45896.848923611098</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="8">
-        <v>45896.8489236111</v>
-      </c>
-      <c r="C20" s="7" t="s"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="3">
+        <v>45897.007962962998</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="6">
-        <v>45897.007962963</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22" s="3">
+        <v>45897.448206018496</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="6">
-        <v>45897.4482060185</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23" s="3">
+        <v>45897.750613425902</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6">
-        <v>45897.7506134259</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24" s="3">
+        <v>45897.9142013889</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="6">
-        <v>45897.9142013889</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="5">
+        <v>45897.937071759297</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="8">
-        <v>45897.9370717593</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B26" s="3">
+        <v>45899.356400463003</v>
+      </c>
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="6">
-        <v>45899.356400463</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="B27" s="3">
+        <v>45899.747337963003</v>
+      </c>
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="6">
-        <v>45899.747337963</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="B28" s="3">
+        <v>45902.3671412037</v>
+      </c>
+      <c r="C28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="6">
-        <v>45902.3671412037</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="B29" s="3">
+        <v>45903.300925925898</v>
+      </c>
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="6">
-        <v>45903.3009259259</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B30" s="3">
+        <v>45903.728055555599</v>
+      </c>
+      <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="6">
-        <v>45903.7280555556</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B31" s="3">
+        <v>45903.824259259301</v>
+      </c>
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="6">
-        <v>45903.8242592593</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="B32" s="3">
+        <v>45904.301979166703</v>
+      </c>
+      <c r="C32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="6">
-        <v>45904.3019791667</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>85</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="B33" s="3">
+        <v>45904.555243055598</v>
+      </c>
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="6">
-        <v>45904.5552430556</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="B34" s="3">
+        <v>45905.691203703696</v>
+      </c>
+      <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="6">
-        <v>45905.6912037037</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B35" s="3">
+        <v>45909.007025462997</v>
+      </c>
+      <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="6">
-        <v>45909.007025463</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>94</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B36" s="3">
+        <v>45909.351956018501</v>
+      </c>
+      <c r="C36" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="6">
-        <v>45909.3519560185</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>97</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="B37" s="3">
+        <v>45912.0475925926</v>
+      </c>
+      <c r="C37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="6">
-        <v>45912.0475925926</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>100</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="B38" s="3">
+        <v>45912.551712963003</v>
+      </c>
+      <c r="C38" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="6">
-        <v>45912.551712963</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>103</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B39" s="3">
+        <v>45912.714861111097</v>
+      </c>
+      <c r="C39" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="6">
-        <v>45912.7148611111</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="B40" s="3">
+        <v>45913.592106481497</v>
+      </c>
+      <c r="C40" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="6">
-        <v>45913.5921064815</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>109</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="B41" s="3">
+        <v>45914.768703703703</v>
+      </c>
+      <c r="C41" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="6">
-        <v>45914.7687037037</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>112</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="B42" s="3">
+        <v>45915.958171296297</v>
+      </c>
+      <c r="C42" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="6">
-        <v>45915.9581712963</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>115</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B43" s="3">
+        <v>45916.003715277802</v>
+      </c>
+      <c r="C43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="6">
-        <v>45916.0037152778</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>118</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="B44" s="3">
+        <v>45917.051423611098</v>
+      </c>
+      <c r="C44" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="6">
-        <v>45917.0514236111</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>121</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B45" s="3">
+        <v>45918.574756944501</v>
+      </c>
+      <c r="C45" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="6">
-        <v>45918.5747569445</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>124</v>
       </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="B46" s="3">
+        <v>45919.3754050926</v>
+      </c>
+      <c r="C46" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="6">
-        <v>45919.3754050926</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>127</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="B47" s="3">
+        <v>45919.742083333302</v>
+      </c>
+      <c r="C47" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="6">
-        <v>45919.7420833333</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>130</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B48" s="3">
+        <v>45919.752349537099</v>
+      </c>
+      <c r="C48" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="6">
-        <v>45919.7523495371</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>133</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B49" s="3">
+        <v>45920.448576388902</v>
+      </c>
+      <c r="C49" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="6">
-        <v>45920.4485763889</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>136</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="B50" s="3">
+        <v>45921.188587962999</v>
+      </c>
+      <c r="C50" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="6">
-        <v>45921.188587963</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>139</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
+      <c r="B51" s="5">
+        <v>45923.5852662037</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="8">
-        <v>45923.5852662037</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B52" s="3">
+        <v>45923.784629629597</v>
+      </c>
+      <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="6">
-        <v>45923.7846296296</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>143</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
+      <c r="B53" s="5">
+        <v>45929.856331018498</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45929.981203703697</v>
+      </c>
+      <c r="C54" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="8">
-        <v>45929.8563310185</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="6">
-        <v>45929.9812037037</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>146</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B55" s="3">
+        <v>45931.129525463002</v>
+      </c>
+      <c r="C55" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="6">
-        <v>45931.129525463</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>149</v>
       </c>
-      <c r="D55" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="B56" s="3">
+        <v>45931.503923611097</v>
+      </c>
+      <c r="C56" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="6">
-        <v>45931.5039236111</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>152</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="B57" s="3">
+        <v>45931.641863425903</v>
+      </c>
+      <c r="C57" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="6">
-        <v>45931.6418634259</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>155</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B58" s="3">
+        <v>45934.931597222203</v>
+      </c>
+      <c r="C58" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="6">
-        <v>45934.9315972222</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>158</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B59" s="3">
+        <v>45938.423703703702</v>
+      </c>
+      <c r="C59" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="6">
-        <v>45938.4237037037</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>161</v>
       </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B60" s="3">
+        <v>45938.511736111097</v>
+      </c>
+      <c r="C60" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="6">
-        <v>45938.5117361111</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>164</v>
       </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="B61" s="3">
+        <v>45942.558668981503</v>
+      </c>
+      <c r="C61" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="6">
-        <v>45942.5586689815</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>167</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45944.9451736111</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="6">
-        <v>45944.9451736111</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>169</v>
       </c>
-      <c r="D62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="B63" s="3">
+        <v>45945.869016203702</v>
+      </c>
+      <c r="C63" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="6">
-        <v>45945.8690162037</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>171</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="B64" s="3">
+        <v>45946.848865740802</v>
+      </c>
+      <c r="C64" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="6">
-        <v>45946.8488657408</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>174</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B65" s="3">
+        <v>45949.031192129602</v>
+      </c>
+      <c r="C65" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="6">
-        <v>45949.0311921296</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>177</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B66" s="3">
+        <v>45949.034594907404</v>
+      </c>
+      <c r="C66" t="s">
         <v>179</v>
       </c>
-      <c r="B66" s="6">
-        <v>45949.0345949074</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>180</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B67" s="3">
+        <v>45949.507939814801</v>
+      </c>
+      <c r="C67" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="6">
-        <v>45949.5079398148</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>183</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B68" s="3">
+        <v>45949.5953240741</v>
+      </c>
+      <c r="C68" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="6">
-        <v>45949.5953240741</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>186</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B69" s="3">
+        <v>45949.7996180556</v>
+      </c>
+      <c r="C69" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="6">
-        <v>45949.7996180556</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>189</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B70" s="3">
+        <v>45949.973900463003</v>
+      </c>
+      <c r="C70" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="6">
-        <v>45949.973900463</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>192</v>
       </c>
-      <c r="D70" t="s">
+    </row>
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="B71" s="3">
+        <v>45950.092662037001</v>
+      </c>
+      <c r="C71" t="s">
         <v>194</v>
       </c>
-      <c r="B71" s="6">
-        <v>45950.092662037</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>195</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="B72" s="3">
+        <v>45951.833668981497</v>
+      </c>
+      <c r="C72" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="6">
-        <v>45951.8336689815</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>198</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45951.932696759301</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="8">
-        <v>45951.9326967593</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="B74" s="3">
+        <v>45952.047847222202</v>
+      </c>
+      <c r="C74" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="6">
-        <v>45952.0478472222</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>201</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="B75" s="3">
+        <v>45952.2558796296</v>
+      </c>
+      <c r="C75" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="6">
-        <v>45952.2558796296</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>204</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="B76" s="3">
+        <v>45952.754062499997</v>
+      </c>
+      <c r="C76" t="s">
         <v>206</v>
       </c>
-      <c r="B76" s="6">
-        <v>45952.7540625</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>207</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="B77" s="3">
+        <v>45953.075069444501</v>
+      </c>
+      <c r="C77" t="s">
         <v>209</v>
       </c>
-      <c r="B77" s="6">
-        <v>45953.0750694445</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>210</v>
       </c>
-      <c r="D77" t="s">
+    </row>
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45953.374965277799</v>
+      </c>
+      <c r="C78" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="6">
-        <v>45953.3749652778</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>212</v>
       </c>
-      <c r="D78" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45954.946504629603</v>
+      </c>
+      <c r="C79" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6">
-        <v>45954.9465046296</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>214</v>
       </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+      <c r="B80" s="3">
+        <v>45955.402685185203</v>
+      </c>
+      <c r="C80" t="s">
         <v>216</v>
       </c>
-      <c r="B80" s="6">
-        <v>45955.4026851852</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>217</v>
       </c>
-      <c r="D80" t="s">
+    </row>
+    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="B81" s="3">
+        <v>45955.433009259301</v>
+      </c>
+      <c r="C81" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="6">
-        <v>45955.4330092593</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>220</v>
       </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+      <c r="B82" s="3">
+        <v>45955.801446759302</v>
+      </c>
+      <c r="C82" t="s">
         <v>222</v>
       </c>
-      <c r="B82" s="6">
-        <v>45955.8014467593</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>223</v>
       </c>
-      <c r="D82" t="s">
+    </row>
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="B83" s="3">
+        <v>45955.896747685198</v>
+      </c>
+      <c r="C83" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="6">
-        <v>45955.8967476852</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>226</v>
       </c>
-      <c r="D83" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="B84" s="3">
+        <v>45957.809444444501</v>
+      </c>
+      <c r="C84" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="6">
-        <v>45957.8094444445</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>229</v>
       </c>
-      <c r="D84" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="B85" s="3">
+        <v>45957.950405092597</v>
+      </c>
+      <c r="C85" t="s">
         <v>231</v>
       </c>
-      <c r="B85" s="6">
-        <v>45957.9504050926</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>232</v>
       </c>
-      <c r="D85" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="B86" s="3">
+        <v>45959.191458333298</v>
+      </c>
+      <c r="C86" t="s">
         <v>234</v>
       </c>
-      <c r="B86" s="6">
-        <v>45959.1914583333</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>235</v>
       </c>
-      <c r="D86" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45959.353148148199</v>
+      </c>
+      <c r="C87" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45960.402835648201</v>
+      </c>
+      <c r="C88" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45961.569583333301</v>
+      </c>
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45961.582013888903</v>
+      </c>
+      <c r="C90" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" s="5">
+        <v>45962.856342592597</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="6">
-        <v>45959.3531481482</v>
-      </c>
-      <c r="C87" t="s">
-        <v>237</v>
-      </c>
-      <c r="D87" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>239</v>
-      </c>
-      <c r="B88" s="6">
-        <v>45960.4028356482</v>
-      </c>
-      <c r="C88" t="s">
-        <v>235</v>
-      </c>
-      <c r="D88" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>241</v>
-      </c>
-      <c r="B89" s="6">
-        <v>45961.5695833333</v>
-      </c>
-      <c r="C89" t="s">
-        <v>242</v>
-      </c>
-      <c r="D89" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>244</v>
-      </c>
-      <c r="B90" s="6">
-        <v>45961.5820138889</v>
-      </c>
-      <c r="C90" t="s">
-        <v>245</v>
-      </c>
-      <c r="D90" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="7" t="s">
+      <c r="D91" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>247</v>
       </c>
-      <c r="B91" s="8">
-        <v>45962.8563425926</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+      <c r="B92" s="3">
+        <v>45963.3198611111</v>
+      </c>
+      <c r="C92" t="s">
         <v>248</v>
       </c>
-      <c r="B92" s="6">
-        <v>45963.3198611111</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>249</v>
       </c>
-      <c r="D92" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="B93" s="3">
+        <v>45963.445937500001</v>
+      </c>
+      <c r="C93" t="s">
         <v>251</v>
       </c>
-      <c r="B93" s="6">
-        <v>45963.4459375</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>252</v>
       </c>
-      <c r="D93" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="B94" s="3">
+        <v>45963.479884259301</v>
+      </c>
+      <c r="C94" t="s">
         <v>254</v>
       </c>
-      <c r="B94" s="6">
-        <v>45963.4798842593</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>255</v>
       </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="B95" s="3">
+        <v>45963.582106481503</v>
+      </c>
+      <c r="C95" t="s">
         <v>257</v>
       </c>
-      <c r="B95" s="6">
-        <v>45963.5821064815</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>258</v>
       </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="B96" s="3">
+        <v>45963.741446759297</v>
+      </c>
+      <c r="C96" t="s">
         <v>260</v>
       </c>
-      <c r="B96" s="6">
-        <v>45963.7414467593</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>261</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="B97" s="3">
+        <v>45965.950474537</v>
+      </c>
+      <c r="C97" t="s">
         <v>263</v>
       </c>
-      <c r="B97" s="6">
-        <v>45965.950474537</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>264</v>
       </c>
-      <c r="D97" t="s">
+    </row>
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="B98" s="3">
+        <v>45966.575300925899</v>
+      </c>
+      <c r="C98" t="s">
         <v>266</v>
       </c>
-      <c r="B98" s="6">
-        <v>45966.5753009259</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>267</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+      <c r="B99" s="3">
+        <v>45968.887013888903</v>
+      </c>
+      <c r="C99" t="s">
         <v>269</v>
       </c>
-      <c r="B99" s="6">
-        <v>45968.8870138889</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>270</v>
       </c>
-      <c r="D99" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
+      <c r="B100" s="5">
+        <v>45968.930219907401</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>272</v>
       </c>
-      <c r="B100" s="8">
-        <v>45968.9302199074</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+      <c r="B101" s="3">
+        <v>45969.527384259301</v>
+      </c>
+      <c r="C101" t="s">
         <v>273</v>
       </c>
-      <c r="B101" s="6">
-        <v>45969.5273842593</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>274</v>
       </c>
-      <c r="D101" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+      <c r="B102" s="3">
+        <v>45969.645381944501</v>
+      </c>
+      <c r="C102" t="s">
         <v>276</v>
       </c>
-      <c r="B102" s="6">
-        <v>45969.6453819445</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>277</v>
       </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+      <c r="B103" s="3">
+        <v>45969.894432870402</v>
+      </c>
+      <c r="C103" t="s">
         <v>279</v>
       </c>
-      <c r="B103" s="6">
-        <v>45969.8944328704</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>280</v>
       </c>
-      <c r="D103" t="s">
+    </row>
+    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+      <c r="B104" s="3">
+        <v>45969.904236111099</v>
+      </c>
+      <c r="C104" t="s">
         <v>282</v>
       </c>
-      <c r="B104" s="6">
-        <v>45969.9042361111</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>283</v>
       </c>
-      <c r="D104" t="s">
+    </row>
+    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
+      <c r="B105" s="3">
+        <v>45973.888518518499</v>
+      </c>
+      <c r="C105" t="s">
         <v>285</v>
       </c>
-      <c r="B105" s="6">
-        <v>45973.8885185185</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>286</v>
       </c>
-      <c r="D105" t="s">
+    </row>
+    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+      <c r="B106" s="3">
+        <v>45973.954930555599</v>
+      </c>
+      <c r="C106" t="s">
         <v>288</v>
       </c>
-      <c r="B106" s="6">
-        <v>45973.9549305556</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>289</v>
       </c>
-      <c r="D106" t="s">
+    </row>
+    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+      <c r="B107" s="3">
+        <v>45974.0308449074</v>
+      </c>
+      <c r="C107" t="s">
         <v>291</v>
       </c>
-      <c r="B107" s="6">
-        <v>45974.0308449074</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>292</v>
       </c>
-      <c r="D107" t="s">
+    </row>
+    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+      <c r="B108" s="3">
+        <v>45976.911689814799</v>
+      </c>
+      <c r="C108" t="s">
         <v>294</v>
       </c>
-      <c r="B108" s="6">
-        <v>45976.9116898148</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>295</v>
       </c>
-      <c r="D108" t="s">
+    </row>
+    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45977.576631944503</v>
+      </c>
+      <c r="C109" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" s="6">
-        <v>45977.5766319445</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>297</v>
       </c>
-      <c r="D109" t="s">
+    </row>
+    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+      <c r="B110" s="3">
+        <v>45977.884965277801</v>
+      </c>
+      <c r="C110" t="s">
         <v>299</v>
       </c>
-      <c r="B110" s="6">
-        <v>45977.8849652778</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>300</v>
       </c>
-      <c r="D110" t="s">
+    </row>
+    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+      <c r="B111" s="3">
+        <v>45978.826701388898</v>
+      </c>
+      <c r="C111" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="6">
-        <v>45978.8267013889</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>303</v>
       </c>
-      <c r="D111" t="s">
+    </row>
+    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+      <c r="B112" s="3">
+        <v>45980.886759259301</v>
+      </c>
+      <c r="C112" t="s">
         <v>305</v>
       </c>
-      <c r="B112" s="6">
-        <v>45980.8867592593</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>306</v>
       </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+      <c r="B113" s="3">
+        <v>45980.9207986111</v>
+      </c>
+      <c r="C113" t="s">
         <v>308</v>
       </c>
-      <c r="B113" s="6">
-        <v>45980.9207986111</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>309</v>
       </c>
-      <c r="D113" t="s">
+    </row>
+    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+      <c r="B114" s="3">
+        <v>45982.055219907401</v>
+      </c>
+      <c r="C114" t="s">
         <v>311</v>
       </c>
-      <c r="B114" s="6">
-        <v>45982.0552199074</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>312</v>
       </c>
-      <c r="D114" t="s">
+    </row>
+    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+      <c r="B115" s="3">
+        <v>45982.874074074098</v>
+      </c>
+      <c r="C115" t="s">
         <v>314</v>
       </c>
-      <c r="B115" s="6">
-        <v>45982.8740740741</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>315</v>
       </c>
-      <c r="D115" t="s">
+    </row>
+    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+      <c r="B116" s="3">
+        <v>45983.3904861111</v>
+      </c>
+      <c r="C116" t="s">
         <v>317</v>
       </c>
-      <c r="B116" s="6">
-        <v>45983.3904861111</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>318</v>
       </c>
-      <c r="D116" t="s">
+    </row>
+    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="B117" s="3">
+        <v>45983.913900462998</v>
+      </c>
+      <c r="C117" t="s">
         <v>320</v>
       </c>
-      <c r="B117" s="6">
-        <v>45983.913900463</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>321</v>
       </c>
-      <c r="D117" t="s">
+    </row>
+    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="B118" s="3">
+        <v>45983.935266203698</v>
+      </c>
+      <c r="C118" t="s">
         <v>323</v>
       </c>
-      <c r="B118" s="6">
-        <v>45983.9352662037</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>324</v>
       </c>
-      <c r="D118" t="s">
+    </row>
+    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="B119" s="3">
+        <v>45984.485150462999</v>
+      </c>
+      <c r="C119" t="s">
         <v>326</v>
       </c>
-      <c r="B119" s="6">
-        <v>45984.485150463</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>327</v>
       </c>
-      <c r="D119" t="s">
+    </row>
+    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="7" t="s">
+      <c r="B120" s="5">
+        <v>45984.630729166704</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>329</v>
       </c>
-      <c r="B120" s="8">
-        <v>45984.6307291667</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="B121" s="3">
+        <v>45989.522025462997</v>
+      </c>
+      <c r="C121" t="s">
         <v>330</v>
       </c>
-      <c r="B121" s="6">
-        <v>45989.522025463</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>331</v>
       </c>
-      <c r="D121" t="s">
+    </row>
+    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="7" t="s">
+      <c r="B122" s="5">
+        <v>45990.068958333301</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123" s="3">
+        <v>45990.114386574103</v>
+      </c>
+      <c r="C123" t="s">
         <v>333</v>
       </c>
-      <c r="B122" s="8">
-        <v>45990.0689583333</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>333</v>
-      </c>
-      <c r="B123" s="6">
-        <v>45990.1143865741</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>334</v>
       </c>
-      <c r="D123" t="s">
+    </row>
+    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+      <c r="B124" s="3">
+        <v>45991.862025463</v>
+      </c>
+      <c r="C124" t="s">
         <v>336</v>
       </c>
-      <c r="B124" s="6">
-        <v>45991.862025463</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>337</v>
       </c>
-      <c r="D124" t="s">
+    </row>
+    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+      <c r="B125" s="3">
+        <v>45992.465763888897</v>
+      </c>
+      <c r="C125" t="s">
         <v>339</v>
       </c>
-      <c r="B125" s="6">
-        <v>45992.4657638889</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>340</v>
       </c>
-      <c r="D125" t="s">
+    </row>
+    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+      <c r="B126" s="3">
+        <v>45993.421435185199</v>
+      </c>
+      <c r="C126" t="s">
         <v>342</v>
       </c>
-      <c r="B126" s="6">
-        <v>45993.4214351852</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>343</v>
       </c>
-      <c r="D126" t="s">
+    </row>
+    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+      <c r="B127" s="3">
+        <v>45994.784340277802</v>
+      </c>
+      <c r="C127" t="s">
         <v>345</v>
       </c>
-      <c r="B127" s="6">
-        <v>45994.7843402778</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>346</v>
       </c>
-      <c r="D127" t="s">
+    </row>
+    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+      <c r="B128" s="3">
+        <v>45997.604641203703</v>
+      </c>
+      <c r="C128" t="s">
         <v>348</v>
       </c>
-      <c r="B128" s="6">
-        <v>45997.6046412037</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>349</v>
       </c>
-      <c r="D128" t="s">
+    </row>
+    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="7" t="s">
+      <c r="B129" s="5">
+        <v>46001.8632407408</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>351</v>
       </c>
-      <c r="B129" s="8">
-        <v>46001.8632407408</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+      <c r="B130" s="3">
+        <v>46002.6178587963</v>
+      </c>
+      <c r="C130" t="s">
         <v>352</v>
       </c>
-      <c r="B130" s="6">
-        <v>46002.6178587963</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>353</v>
       </c>
-      <c r="D130" t="s">
+    </row>
+    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+      <c r="B131" s="3">
+        <v>46003.687685185199</v>
+      </c>
+      <c r="C131" t="s">
         <v>355</v>
       </c>
-      <c r="B131" s="6">
-        <v>46003.6876851852</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>356</v>
       </c>
-      <c r="D131" t="s">
+    </row>
+    <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+      <c r="B132" s="3">
+        <v>46005.434120370403</v>
+      </c>
+      <c r="C132" t="s">
         <v>358</v>
       </c>
-      <c r="B132" s="6">
-        <v>46005.4341203704</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>359</v>
       </c>
-      <c r="D132" t="s">
+    </row>
+    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" s="3">
+        <v>46007.244837963</v>
+      </c>
+      <c r="C133" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>351</v>
-      </c>
-      <c r="B133" s="6">
-        <v>46007.244837963</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>361</v>
       </c>
-      <c r="D133" t="s">
+    </row>
+    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+      <c r="B134" s="3">
+        <v>46010.529398148203</v>
+      </c>
+      <c r="C134" t="s">
         <v>363</v>
       </c>
-      <c r="B134" s="6">
-        <v>46010.5293981482</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>364</v>
       </c>
-      <c r="D134" t="s">
+    </row>
+    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+      <c r="B135" s="3">
+        <v>46011.935775462996</v>
+      </c>
+      <c r="C135" t="s">
         <v>366</v>
       </c>
-      <c r="B135" s="6">
-        <v>46011.935775463</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>367</v>
       </c>
-      <c r="D135" t="s">
+    </row>
+    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+      <c r="B136" s="3">
+        <v>46013.882696759298</v>
+      </c>
+      <c r="C136" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="6">
-        <v>46013.8826967593</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>370</v>
       </c>
-      <c r="D136" t="s">
+    </row>
+    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+      <c r="B137" s="3">
+        <v>46015.092453703699</v>
+      </c>
+      <c r="C137" t="s">
         <v>372</v>
       </c>
-      <c r="B137" s="6">
-        <v>46015.0924537037</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>373</v>
       </c>
-      <c r="D137" t="s">
+    </row>
+    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+      <c r="B138" s="3">
+        <v>46015.368865740798</v>
+      </c>
+      <c r="C138" t="s">
         <v>375</v>
       </c>
-      <c r="B138" s="6">
-        <v>46015.3688657408</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>376</v>
       </c>
-      <c r="D138" t="s">
+    </row>
+    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+      <c r="B139" s="3">
+        <v>46016.7304282408</v>
+      </c>
+      <c r="C139" t="s">
         <v>378</v>
       </c>
-      <c r="B139" s="6">
-        <v>46016.7304282408</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>379</v>
       </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+      <c r="B140" s="3">
+        <v>46018.677858796298</v>
+      </c>
+      <c r="C140" t="s">
         <v>381</v>
       </c>
-      <c r="B140" s="6">
-        <v>46018.6778587963</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>382</v>
       </c>
-      <c r="D140" t="s">
+    </row>
+    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+      <c r="B141" s="3">
+        <v>46018.840405092596</v>
+      </c>
+      <c r="C141" t="s">
         <v>384</v>
       </c>
-      <c r="B141" s="6">
-        <v>46018.8404050926</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>385</v>
       </c>
-      <c r="D141" t="s">
+    </row>
+    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+      <c r="B142" s="3">
+        <v>46020.4609837963</v>
+      </c>
+      <c r="C142" t="s">
         <v>387</v>
       </c>
-      <c r="B142" s="6">
-        <v>46020.4609837963</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>388</v>
       </c>
-      <c r="D142" t="s">
+    </row>
+    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+      <c r="B143" s="3">
+        <v>46020.471863425897</v>
+      </c>
+      <c r="C143" t="s">
         <v>390</v>
       </c>
-      <c r="B143" s="6">
-        <v>46020.4718634259</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>391</v>
       </c>
-      <c r="D143" t="s">
+    </row>
+    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>362</v>
+      </c>
+      <c r="B144" s="3">
+        <v>46020.825509259303</v>
+      </c>
+      <c r="C144" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>363</v>
-      </c>
-      <c r="B144" s="6">
-        <v>46020.8255092593</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>393</v>
       </c>
-      <c r="D144" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+      <c r="B145" s="3">
+        <v>46020.8675</v>
+      </c>
+      <c r="C145" t="s">
         <v>394</v>
       </c>
-      <c r="B145" s="6">
-        <v>46020.8675</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>395</v>
       </c>
-      <c r="D145" t="s">
+    </row>
+    <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+      <c r="B146" s="3">
+        <v>46022.011122685202</v>
+      </c>
+      <c r="C146" t="s">
         <v>397</v>
       </c>
-      <c r="B146" s="6">
-        <v>46022.0111226852</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>398</v>
       </c>
-      <c r="D146" t="s">
+    </row>
+    <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="B147" s="5">
+        <v>46024.481261574103</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>400</v>
+      </c>
+      <c r="B148" s="3">
+        <v>46024.955925925897</v>
+      </c>
+      <c r="C148" t="s">
+        <v>401</v>
+      </c>
+      <c r="D148" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" s="3">
+        <v>46024.9567245371</v>
+      </c>
+      <c r="C149" t="s">
+        <v>403</v>
+      </c>
+      <c r="D149" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B151" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="false"/>
+    <col min="1" max="3" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="false">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="39" customHeight="false">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="39" customHeight="false">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="39" customHeight="false">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="39" customHeight="false">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39" customHeight="false">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" customHeight="false">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" customHeight="false">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="39" customHeight="false">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="39" customHeight="false">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="39" customHeight="false">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="39" customHeight="false">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="39" customHeight="false">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="39" customHeight="false">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="39" customHeight="false">
-      <c r="A15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="39" customHeight="false">
-      <c r="A16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="39" customHeight="false">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>430</v>
+      <c r="B17" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>